--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\likhitha.rl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP_REPO\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF176EC-50E8-4087-A6E6-B0EEBDCFC841}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$M$467</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$950</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11347" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11380" uniqueCount="1903">
   <si>
     <t>id</t>
   </si>
@@ -15569,11 +15568,23 @@
   <si>
     <t>UIN அட்டை டெம்ப்ளேட்</t>
   </si>
+  <si>
+    <t>Android Registration Preview Template</t>
+  </si>
+  <si>
+    <t>Preview generated after android registration</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:400px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("fullName") ) &lt;th&gt;$demographics.get("fullName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("fullName") ) &lt;td&gt;$demographics.get("fullName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("addressLine1") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Address&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;th&gt;$demographics.get("addressLine1").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;td&gt;$demographics.get("addressLine1").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("province") ) &lt;th&gt;$demographics.get("province").get("label")&lt;/th&gt; #end #if( $demographics.get("city") ) &lt;th&gt;$demographics.get("city").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("province") ) &lt;td&gt;$demographics.get("province").get("value")&lt;/td&gt; #end #if( $demographics.get("city") ) &lt;td&gt;$demographics.get("city").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;th&gt;$demographics.get("zone").get("label")&lt;/th&gt; #end #if( $demographics.get("postalCode") ) &lt;th&gt;$demographics.get("postalCode").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;td&gt;$demographics.get("zone").get("value")&lt;/td&gt; #end #if( $demographics.get("postalCode") ) &lt;td&gt;$demographics.get("postalCode").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("parentOrGuardianName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Gaurdian Details&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("parentOrGuardianName").get("label")&lt;/th&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;th&gt;$demographics.get("parentOrGuardianRID").get("label")&lt;/th&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;th&gt;$demographics.get("parentOrGuardianUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("parentOrGuardianName").get("value")&lt;/td&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;td&gt;$demographics.get("parentOrGuardianRID").get("value")&lt;/td&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;td&gt;$demographics.get("parentOrGuardianUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>reg-android-preview-template-part</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -15586,7 +15597,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15682,8 +15693,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -15991,29 +16030,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M947"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A812" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C816" sqref="C816"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A948" sqref="A948"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="50.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" customWidth="1"/>
-    <col min="9" max="9" width="30.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="22.7265625" customWidth="1"/>
-    <col min="953" max="1024" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="953" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16303,7 +16342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.5">
+    <row r="8" spans="1:13" ht="45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -16385,7 +16424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29">
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -17082,7 +17121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="43.5">
+    <row r="27" spans="1:13" ht="45">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -17123,7 +17162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="43.5">
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -17164,7 +17203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="43.5">
+    <row r="29" spans="1:13" ht="45">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -17205,7 +17244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="43.5">
+    <row r="30" spans="1:13" ht="45">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -17246,7 +17285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="29">
+    <row r="31" spans="1:13" ht="30">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -17287,7 +17326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29">
+    <row r="32" spans="1:13" ht="30">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -17328,7 +17367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="43.5">
+    <row r="33" spans="1:13" ht="45">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -17369,7 +17408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="43.5">
+    <row r="34" spans="1:13" ht="45">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18148,7 +18187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="57.5">
+    <row r="53" spans="1:13" ht="59.25">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -18189,7 +18228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.5">
+    <row r="54" spans="1:13" ht="29.25">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -18230,7 +18269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="57.5">
+    <row r="55" spans="1:13" ht="59.25">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -18271,7 +18310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="43.5">
+    <row r="56" spans="1:13" ht="45">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -18312,7 +18351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="29">
+    <row r="57" spans="1:13" ht="30">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -18353,7 +18392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.5">
+    <row r="58" spans="1:13" ht="45">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -18394,7 +18433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="57.5">
+    <row r="59" spans="1:13" ht="59.25">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -18435,7 +18474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28.5">
+    <row r="60" spans="1:13" ht="29.25">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -18476,7 +18515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="57.5">
+    <row r="61" spans="1:13" ht="59.25">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -19009,7 +19048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="87">
+    <row r="74" spans="1:13" ht="90">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -19050,7 +19089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="29">
+    <row r="75" spans="1:13" ht="30">
       <c r="A75" t="s">
         <v>187</v>
       </c>
@@ -19091,7 +19130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="29">
+    <row r="76" spans="1:13" ht="45">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -19132,7 +19171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.5">
+    <row r="77" spans="1:13" ht="29.25">
       <c r="A77" t="s">
         <v>195</v>
       </c>
@@ -19173,7 +19212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="29">
+    <row r="78" spans="1:13" ht="30">
       <c r="A78" t="s">
         <v>199</v>
       </c>
@@ -19214,7 +19253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="58">
+    <row r="79" spans="1:13" ht="60">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -19337,7 +19376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.5">
+    <row r="82" spans="1:13" ht="29.25">
       <c r="A82" t="s">
         <v>230</v>
       </c>
@@ -19583,7 +19622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="29">
+    <row r="88" spans="1:13" ht="30">
       <c r="A88" t="s">
         <v>244</v>
       </c>
@@ -19706,7 +19745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="29">
+    <row r="91" spans="1:13" ht="30">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -19829,7 +19868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="29">
+    <row r="94" spans="1:13" ht="30">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -19952,7 +19991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="29">
+    <row r="97" spans="1:13" ht="30">
       <c r="A97" t="s">
         <v>265</v>
       </c>
@@ -20075,7 +20114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="130.5">
+    <row r="100" spans="1:13" ht="135">
       <c r="A100" t="s">
         <v>272</v>
       </c>
@@ -20198,7 +20237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="130.5">
+    <row r="103" spans="1:13" ht="135">
       <c r="A103" t="s">
         <v>285</v>
       </c>
@@ -20608,7 +20647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="28.5">
+    <row r="113" spans="1:13" ht="29.25">
       <c r="A113" t="s">
         <v>309</v>
       </c>
@@ -20731,7 +20770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="28.5">
+    <row r="116" spans="1:13" ht="29.25">
       <c r="A116" t="s">
         <v>315</v>
       </c>
@@ -20977,7 +21016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="28.5">
+    <row r="122" spans="1:13" ht="29.25">
       <c r="A122" t="s">
         <v>321</v>
       </c>
@@ -21100,7 +21139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="28.5">
+    <row r="125" spans="1:13" ht="29.25">
       <c r="A125" t="s">
         <v>323</v>
       </c>
@@ -21346,7 +21385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.5">
+    <row r="131" spans="1:13" ht="29.25">
       <c r="A131" t="s">
         <v>325</v>
       </c>
@@ -21469,7 +21508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.5">
+    <row r="134" spans="1:13" ht="29.25">
       <c r="A134" t="s">
         <v>326</v>
       </c>
@@ -21592,7 +21631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="29">
+    <row r="137" spans="1:13" ht="45">
       <c r="A137" t="s">
         <v>327</v>
       </c>
@@ -21715,7 +21754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="28.5">
+    <row r="140" spans="1:13" ht="29.25">
       <c r="A140" t="s">
         <v>335</v>
       </c>
@@ -21838,7 +21877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="29">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143" t="s">
         <v>343</v>
       </c>
@@ -21961,7 +22000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="71">
+    <row r="146" spans="1:13" ht="87.75">
       <c r="A146" t="s">
         <v>351</v>
       </c>
@@ -22084,7 +22123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="29">
+    <row r="149" spans="1:13" ht="30">
       <c r="A149" t="s">
         <v>359</v>
       </c>
@@ -22207,7 +22246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="29">
+    <row r="152" spans="1:13" ht="30">
       <c r="A152" t="s">
         <v>366</v>
       </c>
@@ -22330,7 +22369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="28.5">
+    <row r="155" spans="1:13" ht="44.25">
       <c r="A155" t="s">
         <v>369</v>
       </c>
@@ -22453,7 +22492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="28.5">
+    <row r="158" spans="1:13" ht="44.25">
       <c r="A158" t="s">
         <v>374</v>
       </c>
@@ -22576,7 +22615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="56.5">
+    <row r="161" spans="1:13" ht="57.75">
       <c r="A161" t="s">
         <v>376</v>
       </c>
@@ -22699,7 +22738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="29">
+    <row r="164" spans="1:13" ht="45">
       <c r="A164" t="s">
         <v>381</v>
       </c>
@@ -22822,7 +22861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="43.5">
+    <row r="167" spans="1:13" ht="45">
       <c r="A167" t="s">
         <v>389</v>
       </c>
@@ -23068,7 +23107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="29">
+    <row r="173" spans="1:13" ht="30">
       <c r="A173" t="s">
         <v>404</v>
       </c>
@@ -23191,7 +23230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="29">
+    <row r="176" spans="1:13" ht="30">
       <c r="A176" t="s">
         <v>414</v>
       </c>
@@ -23314,7 +23353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="28.5">
+    <row r="179" spans="1:13" ht="29.25">
       <c r="A179" t="s">
         <v>420</v>
       </c>
@@ -23437,7 +23476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="29">
+    <row r="182" spans="1:13" ht="30">
       <c r="A182" t="s">
         <v>428</v>
       </c>
@@ -23560,7 +23599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="28.5">
+    <row r="185" spans="1:13" ht="29.25">
       <c r="A185" t="s">
         <v>436</v>
       </c>
@@ -23683,7 +23722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="29">
+    <row r="188" spans="1:13" ht="30">
       <c r="A188" t="s">
         <v>446</v>
       </c>
@@ -23806,7 +23845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="29">
+    <row r="191" spans="1:13" ht="30">
       <c r="A191" t="s">
         <v>451</v>
       </c>
@@ -23929,7 +23968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="28.5">
+    <row r="194" spans="1:13" ht="29.25">
       <c r="A194" t="s">
         <v>459</v>
       </c>
@@ -24052,7 +24091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="29">
+    <row r="197" spans="1:13" ht="30">
       <c r="A197" t="s">
         <v>467</v>
       </c>
@@ -24175,7 +24214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="29">
+    <row r="200" spans="1:13" ht="30">
       <c r="A200" t="s">
         <v>472</v>
       </c>
@@ -24298,7 +24337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="28.5">
+    <row r="203" spans="1:13" ht="29.25">
       <c r="A203" t="s">
         <v>480</v>
       </c>
@@ -24421,7 +24460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="29">
+    <row r="206" spans="1:13" ht="30">
       <c r="A206" t="s">
         <v>488</v>
       </c>
@@ -24544,7 +24583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="29">
+    <row r="209" spans="1:13" ht="30">
       <c r="A209" t="s">
         <v>493</v>
       </c>
@@ -24667,7 +24706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="28.5">
+    <row r="212" spans="1:13" ht="29.25">
       <c r="A212" t="s">
         <v>501</v>
       </c>
@@ -24790,7 +24829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="29">
+    <row r="215" spans="1:13" ht="30">
       <c r="A215" t="s">
         <v>509</v>
       </c>
@@ -24913,7 +24952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="28.5">
+    <row r="218" spans="1:13" ht="30">
       <c r="A218" t="s">
         <v>514</v>
       </c>
@@ -25036,7 +25075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="28.5">
+    <row r="221" spans="1:13" ht="29.25">
       <c r="A221" t="s">
         <v>522</v>
       </c>
@@ -25159,7 +25198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" ht="30">
       <c r="A224" t="s">
         <v>530</v>
       </c>
@@ -25282,7 +25321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="29">
+    <row r="227" spans="1:13" ht="30">
       <c r="A227" t="s">
         <v>535</v>
       </c>
@@ -25405,7 +25444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="28.5">
+    <row r="230" spans="1:13" ht="29.25">
       <c r="A230" t="s">
         <v>543</v>
       </c>
@@ -25528,7 +25567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="29">
+    <row r="233" spans="1:13" ht="30">
       <c r="A233" t="s">
         <v>551</v>
       </c>
@@ -25651,7 +25690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="29">
+    <row r="236" spans="1:13" ht="30">
       <c r="A236" t="s">
         <v>556</v>
       </c>
@@ -25774,7 +25813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="28.5">
+    <row r="239" spans="1:13" ht="43.5">
       <c r="A239" t="s">
         <v>564</v>
       </c>
@@ -25897,7 +25936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="28.5">
+    <row r="242" spans="1:13" ht="30">
       <c r="A242" t="s">
         <v>572</v>
       </c>
@@ -26020,7 +26059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="29">
+    <row r="245" spans="1:13" ht="30">
       <c r="A245" t="s">
         <v>579</v>
       </c>
@@ -26143,7 +26182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="28.5">
+    <row r="248" spans="1:13" ht="29.25">
       <c r="A248" t="s">
         <v>587</v>
       </c>
@@ -26266,7 +26305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="29">
+    <row r="251" spans="1:13" ht="30">
       <c r="A251" t="s">
         <v>595</v>
       </c>
@@ -26389,7 +26428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="29">
+    <row r="254" spans="1:13" ht="30">
       <c r="A254" t="s">
         <v>600</v>
       </c>
@@ -26512,7 +26551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="28.5">
+    <row r="257" spans="1:13" ht="29.25">
       <c r="A257" t="s">
         <v>608</v>
       </c>
@@ -26635,7 +26674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="29">
+    <row r="260" spans="1:13" ht="30">
       <c r="A260" t="s">
         <v>616</v>
       </c>
@@ -26758,7 +26797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="29">
+    <row r="263" spans="1:13" ht="30">
       <c r="A263" t="s">
         <v>621</v>
       </c>
@@ -26881,7 +26920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="28.5">
+    <row r="266" spans="1:13" ht="29.25">
       <c r="A266" t="s">
         <v>629</v>
       </c>
@@ -27004,7 +27043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="29">
+    <row r="269" spans="1:13" ht="30">
       <c r="A269" t="s">
         <v>637</v>
       </c>
@@ -27127,7 +27166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="29">
+    <row r="272" spans="1:13" ht="30">
       <c r="A272" t="s">
         <v>642</v>
       </c>
@@ -27250,7 +27289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="42.5">
+    <row r="275" spans="1:13" ht="43.5">
       <c r="A275" t="s">
         <v>650</v>
       </c>
@@ -27373,7 +27412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="29">
+    <row r="278" spans="1:13" ht="30">
       <c r="A278" t="s">
         <v>658</v>
       </c>
@@ -27496,7 +27535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="29">
+    <row r="281" spans="1:13" ht="30">
       <c r="A281" t="s">
         <v>663</v>
       </c>
@@ -27619,7 +27658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="29">
+    <row r="284" spans="1:13" ht="30">
       <c r="A284" t="s">
         <v>671</v>
       </c>
@@ -27742,7 +27781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="29">
+    <row r="287" spans="1:13" ht="30">
       <c r="A287" t="s">
         <v>677</v>
       </c>
@@ -27865,7 +27904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="29">
+    <row r="290" spans="1:13" ht="30">
       <c r="A290" t="s">
         <v>682</v>
       </c>
@@ -27988,7 +28027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="28.5">
+    <row r="293" spans="1:13" ht="29.25">
       <c r="A293" t="s">
         <v>690</v>
       </c>
@@ -28111,7 +28150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="29">
+    <row r="296" spans="1:13" ht="30">
       <c r="A296" t="s">
         <v>698</v>
       </c>
@@ -28234,7 +28273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="29">
+    <row r="299" spans="1:13" ht="30">
       <c r="A299" t="s">
         <v>703</v>
       </c>
@@ -28357,7 +28396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="29">
+    <row r="302" spans="1:13" ht="44.25">
       <c r="A302" t="s">
         <v>711</v>
       </c>
@@ -28480,7 +28519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="29">
+    <row r="305" spans="1:13" ht="30">
       <c r="A305" t="s">
         <v>719</v>
       </c>
@@ -28603,7 +28642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="29">
+    <row r="308" spans="1:13" ht="30">
       <c r="A308" t="s">
         <v>724</v>
       </c>
@@ -28726,7 +28765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="29">
+    <row r="311" spans="1:13" ht="30">
       <c r="A311" t="s">
         <v>732</v>
       </c>
@@ -28849,7 +28888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="29">
+    <row r="314" spans="1:13" ht="30">
       <c r="A314" t="s">
         <v>740</v>
       </c>
@@ -28972,7 +29011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="29">
+    <row r="317" spans="1:13" ht="43.5">
       <c r="A317" t="s">
         <v>745</v>
       </c>
@@ -29095,7 +29134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="29">
+    <row r="320" spans="1:13" ht="30">
       <c r="A320" t="s">
         <v>752</v>
       </c>
@@ -29218,7 +29257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="29">
+    <row r="323" spans="1:13" ht="43.5">
       <c r="A323" t="s">
         <v>756</v>
       </c>
@@ -29341,7 +29380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="29">
+    <row r="326" spans="1:13" ht="30">
       <c r="A326" t="s">
         <v>763</v>
       </c>
@@ -29464,7 +29503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="29">
+    <row r="329" spans="1:13" ht="43.5">
       <c r="A329" t="s">
         <v>767</v>
       </c>
@@ -29587,7 +29626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="29">
+    <row r="332" spans="1:13" ht="30">
       <c r="A332" t="s">
         <v>774</v>
       </c>
@@ -29710,7 +29749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="29">
+    <row r="335" spans="1:13" ht="43.5">
       <c r="A335" t="s">
         <v>778</v>
       </c>
@@ -29833,7 +29872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="29">
+    <row r="338" spans="1:13" ht="30">
       <c r="A338" t="s">
         <v>782</v>
       </c>
@@ -29956,7 +29995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="42.5">
+    <row r="341" spans="1:13" ht="43.5">
       <c r="A341" t="s">
         <v>786</v>
       </c>
@@ -30079,7 +30118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="29">
+    <row r="344" spans="1:13" ht="30">
       <c r="A344" t="s">
         <v>793</v>
       </c>
@@ -30202,7 +30241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="29">
+    <row r="347" spans="1:13" ht="43.5">
       <c r="A347" t="s">
         <v>797</v>
       </c>
@@ -30325,7 +30364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="29">
+    <row r="350" spans="1:13" ht="30">
       <c r="A350" t="s">
         <v>804</v>
       </c>
@@ -30448,7 +30487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="29">
+    <row r="353" spans="1:13" ht="43.5">
       <c r="A353" t="s">
         <v>808</v>
       </c>
@@ -30571,7 +30610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="43">
+    <row r="356" spans="1:13" ht="44.25">
       <c r="A356" t="s">
         <v>815</v>
       </c>
@@ -30694,7 +30733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="28.5">
+    <row r="359" spans="1:13" ht="43.5">
       <c r="A359" t="s">
         <v>819</v>
       </c>
@@ -30817,7 +30856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="28.5">
+    <row r="362" spans="1:13" ht="43.5">
       <c r="A362" t="s">
         <v>825</v>
       </c>
@@ -30940,7 +30979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="28.5">
+    <row r="365" spans="1:13" ht="29.25">
       <c r="A365" t="s">
         <v>832</v>
       </c>
@@ -31063,7 +31102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="42.5">
+    <row r="368" spans="1:13" ht="43.5">
       <c r="A368" t="s">
         <v>839</v>
       </c>
@@ -31186,7 +31225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="42.5">
+    <row r="371" spans="1:13" ht="43.5">
       <c r="A371" t="s">
         <v>846</v>
       </c>
@@ -31309,7 +31348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="28.5">
+    <row r="374" spans="1:13" ht="43.5">
       <c r="A374" t="s">
         <v>850</v>
       </c>
@@ -31432,7 +31471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="42.5">
+    <row r="377" spans="1:13" ht="43.5">
       <c r="A377" t="s">
         <v>857</v>
       </c>
@@ -31555,7 +31594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="43.5">
+    <row r="380" spans="1:13" ht="60">
       <c r="A380" t="s">
         <v>864</v>
       </c>
@@ -31678,7 +31717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="43.5">
+    <row r="383" spans="1:13" ht="60">
       <c r="A383" t="s">
         <v>871</v>
       </c>
@@ -31801,7 +31840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="29">
+    <row r="386" spans="1:13" ht="30">
       <c r="A386" t="s">
         <v>875</v>
       </c>
@@ -31924,7 +31963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="29">
+    <row r="389" spans="1:13" ht="30">
       <c r="A389" t="s">
         <v>882</v>
       </c>
@@ -32047,7 +32086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="29">
+    <row r="392" spans="1:13" ht="30">
       <c r="A392" t="s">
         <v>889</v>
       </c>
@@ -32170,7 +32209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="28.5">
+    <row r="395" spans="1:13" ht="29.25">
       <c r="A395" t="s">
         <v>893</v>
       </c>
@@ -32293,7 +32332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="29">
+    <row r="398" spans="1:13" ht="30">
       <c r="A398" t="s">
         <v>900</v>
       </c>
@@ -32416,7 +32455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="29">
+    <row r="401" spans="1:13" ht="30">
       <c r="A401" t="s">
         <v>907</v>
       </c>
@@ -32539,7 +32578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="28.5">
+    <row r="404" spans="1:13" ht="29.25">
       <c r="A404" t="s">
         <v>913</v>
       </c>
@@ -32662,7 +32701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="43.5">
+    <row r="407" spans="1:13" ht="60">
       <c r="A407" t="s">
         <v>920</v>
       </c>
@@ -32785,7 +32824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="43.5">
+    <row r="410" spans="1:13" ht="60">
       <c r="A410" t="s">
         <v>927</v>
       </c>
@@ -32908,7 +32947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="29">
+    <row r="413" spans="1:13" ht="30">
       <c r="A413" t="s">
         <v>931</v>
       </c>
@@ -33933,7 +33972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="159.5">
+    <row r="438" spans="1:13" ht="165">
       <c r="A438" t="s">
         <v>1013</v>
       </c>
@@ -33974,7 +34013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="174">
+    <row r="439" spans="1:13" ht="180">
       <c r="A439" t="s">
         <v>1013</v>
       </c>
@@ -34015,7 +34054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="72.5">
+    <row r="440" spans="1:13" ht="89.25">
       <c r="A440" t="s">
         <v>1013</v>
       </c>
@@ -34094,7 +34133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="145">
+    <row r="442" spans="1:13" ht="150">
       <c r="A442" t="s">
         <v>1021</v>
       </c>
@@ -34135,7 +34174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="29">
+    <row r="443" spans="1:13" ht="30">
       <c r="A443" t="s">
         <v>1021</v>
       </c>
@@ -34255,7 +34294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="28.5">
+    <row r="446" spans="1:13" ht="29.25">
       <c r="A446" t="s">
         <v>1027</v>
       </c>
@@ -34378,7 +34417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="28.5">
+    <row r="449" spans="1:13" ht="29.25">
       <c r="A449" t="s">
         <v>1032</v>
       </c>
@@ -34993,7 +35032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="28.5">
+    <row r="464" spans="1:13" ht="29.25">
       <c r="A464" t="s">
         <v>1057</v>
       </c>
@@ -35157,7 +35196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="58">
+    <row r="468" spans="1:13" ht="60">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -35198,7 +35237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="29">
+    <row r="469" spans="1:13" ht="30">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -35239,7 +35278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="29">
+    <row r="470" spans="1:13" ht="30">
       <c r="A470" t="s">
         <v>28</v>
       </c>
@@ -35280,7 +35319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="29">
+    <row r="471" spans="1:13" ht="30">
       <c r="A471" t="s">
         <v>48</v>
       </c>
@@ -35321,7 +35360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="29">
+    <row r="472" spans="1:13" ht="30">
       <c r="A472" t="s">
         <v>53</v>
       </c>
@@ -35362,7 +35401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="29">
+    <row r="473" spans="1:13" ht="30">
       <c r="A473" t="s">
         <v>57</v>
       </c>
@@ -35403,7 +35442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="29">
+    <row r="474" spans="1:13" ht="30">
       <c r="A474" t="s">
         <v>61</v>
       </c>
@@ -35444,7 +35483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="29">
+    <row r="475" spans="1:13" ht="30">
       <c r="A475" t="s">
         <v>65</v>
       </c>
@@ -35485,7 +35524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="29">
+    <row r="476" spans="1:13" ht="30">
       <c r="A476" t="s">
         <v>69</v>
       </c>
@@ -35526,7 +35565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="29">
+    <row r="477" spans="1:13" ht="45">
       <c r="A477" t="s">
         <v>73</v>
       </c>
@@ -35567,7 +35606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="29">
+    <row r="478" spans="1:13" ht="45">
       <c r="A478" t="s">
         <v>77</v>
       </c>
@@ -35608,7 +35647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="43.5">
+    <row r="479" spans="1:13" ht="45">
       <c r="A479" t="s">
         <v>115</v>
       </c>
@@ -35649,7 +35688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="43.5">
+    <row r="480" spans="1:13" ht="45">
       <c r="A480" t="s">
         <v>120</v>
       </c>
@@ -35690,7 +35729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="29">
+    <row r="481" spans="1:13" ht="30">
       <c r="A481" t="s">
         <v>124</v>
       </c>
@@ -35731,7 +35770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="29">
+    <row r="482" spans="1:13" ht="30">
       <c r="A482" t="s">
         <v>127</v>
       </c>
@@ -35772,7 +35811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="29">
+    <row r="483" spans="1:13" ht="30">
       <c r="A483" t="s">
         <v>131</v>
       </c>
@@ -35854,7 +35893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="43.5">
+    <row r="485" spans="1:13" ht="60">
       <c r="A485" t="s">
         <v>138</v>
       </c>
@@ -35895,7 +35934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="43.5">
+    <row r="486" spans="1:13" ht="60">
       <c r="A486" t="s">
         <v>142</v>
       </c>
@@ -35936,7 +35975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="43.5">
+    <row r="487" spans="1:13" ht="45">
       <c r="A487" t="s">
         <v>146</v>
       </c>
@@ -35977,7 +36016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="29">
+    <row r="488" spans="1:13" ht="30">
       <c r="A488" t="s">
         <v>182</v>
       </c>
@@ -36018,7 +36057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="29">
+    <row r="489" spans="1:13" ht="30">
       <c r="A489" t="s">
         <v>187</v>
       </c>
@@ -36059,7 +36098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="29">
+    <row r="490" spans="1:13" ht="30">
       <c r="A490" t="s">
         <v>191</v>
       </c>
@@ -36100,7 +36139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="29">
+    <row r="491" spans="1:13" ht="30">
       <c r="A491" t="s">
         <v>195</v>
       </c>
@@ -36182,7 +36221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="29">
+    <row r="493" spans="1:13" ht="30">
       <c r="A493" t="s">
         <v>202</v>
       </c>
@@ -36223,7 +36262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="29">
+    <row r="494" spans="1:13" ht="30">
       <c r="A494" t="s">
         <v>230</v>
       </c>
@@ -36264,7 +36303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="11" customFormat="1" ht="15.5">
+    <row r="495" spans="1:13" s="11" customFormat="1">
       <c r="A495" s="11">
         <v>1131</v>
       </c>
@@ -36305,7 +36344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="29">
+    <row r="496" spans="1:13" ht="45">
       <c r="A496" t="s">
         <v>244</v>
       </c>
@@ -36346,7 +36385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="29">
+    <row r="497" spans="1:13" ht="30">
       <c r="A497" t="s">
         <v>251</v>
       </c>
@@ -36387,7 +36426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="29">
+    <row r="498" spans="1:13" ht="45">
       <c r="A498" t="s">
         <v>258</v>
       </c>
@@ -36428,7 +36467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="43.5">
+    <row r="499" spans="1:13" ht="45">
       <c r="A499" t="s">
         <v>265</v>
       </c>
@@ -36715,7 +36754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="29">
+    <row r="506" spans="1:13" ht="30">
       <c r="A506" t="s">
         <v>301</v>
       </c>
@@ -36756,7 +36795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="29">
+    <row r="507" spans="1:13" ht="30">
       <c r="A507" t="s">
         <v>309</v>
       </c>
@@ -36797,7 +36836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="29">
+    <row r="508" spans="1:13" ht="30">
       <c r="A508" t="s">
         <v>315</v>
       </c>
@@ -36838,7 +36877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:13">
+    <row r="509" spans="1:13" ht="30">
       <c r="A509" t="s">
         <v>317</v>
       </c>
@@ -36879,7 +36918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="29">
+    <row r="510" spans="1:13" ht="30">
       <c r="A510" t="s">
         <v>321</v>
       </c>
@@ -36920,7 +36959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="29">
+    <row r="511" spans="1:13" ht="30">
       <c r="A511" t="s">
         <v>323</v>
       </c>
@@ -36961,7 +37000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="29">
+    <row r="512" spans="1:13" ht="30">
       <c r="A512" t="s">
         <v>324</v>
       </c>
@@ -37002,7 +37041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="29">
+    <row r="513" spans="1:13" ht="30">
       <c r="A513" t="s">
         <v>325</v>
       </c>
@@ -37043,7 +37082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="29">
+    <row r="514" spans="1:13" ht="30">
       <c r="A514" t="s">
         <v>326</v>
       </c>
@@ -37084,7 +37123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="29">
+    <row r="515" spans="1:13" ht="30">
       <c r="A515" t="s">
         <v>327</v>
       </c>
@@ -37125,7 +37164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="29">
+    <row r="516" spans="1:13" ht="30">
       <c r="A516" t="s">
         <v>335</v>
       </c>
@@ -37166,7 +37205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="29">
+    <row r="517" spans="1:13" ht="30">
       <c r="A517" t="s">
         <v>343</v>
       </c>
@@ -37412,7 +37451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="29">
+    <row r="523" spans="1:13" ht="45">
       <c r="A523" t="s">
         <v>376</v>
       </c>
@@ -37453,7 +37492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="29">
+    <row r="524" spans="1:13" ht="30">
       <c r="A524" t="s">
         <v>381</v>
       </c>
@@ -37494,7 +37533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="29">
+    <row r="525" spans="1:13" ht="30">
       <c r="A525" t="s">
         <v>389</v>
       </c>
@@ -37576,7 +37615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="43.5">
+    <row r="527" spans="1:13" ht="45">
       <c r="A527" t="s">
         <v>404</v>
       </c>
@@ -37617,7 +37656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="29">
+    <row r="528" spans="1:13" ht="30">
       <c r="A528" t="s">
         <v>414</v>
       </c>
@@ -37658,7 +37697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="43.5">
+    <row r="529" spans="1:13" ht="45">
       <c r="A529" t="s">
         <v>420</v>
       </c>
@@ -37699,7 +37738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:13" ht="29">
+    <row r="530" spans="1:13" ht="45">
       <c r="A530" t="s">
         <v>428</v>
       </c>
@@ -37740,7 +37779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:13" ht="43.5">
+    <row r="531" spans="1:13" ht="45">
       <c r="A531" t="s">
         <v>436</v>
       </c>
@@ -37781,7 +37820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="29">
+    <row r="532" spans="1:13" ht="30">
       <c r="A532" t="s">
         <v>446</v>
       </c>
@@ -37822,7 +37861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="29">
+    <row r="533" spans="1:13" ht="45">
       <c r="A533" t="s">
         <v>451</v>
       </c>
@@ -37863,7 +37902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="43.5">
+    <row r="534" spans="1:13" ht="45">
       <c r="A534" t="s">
         <v>459</v>
       </c>
@@ -37904,7 +37943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="29">
+    <row r="535" spans="1:13" ht="30">
       <c r="A535" t="s">
         <v>467</v>
       </c>
@@ -37986,7 +38025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="43.5">
+    <row r="537" spans="1:13" ht="45">
       <c r="A537" t="s">
         <v>480</v>
       </c>
@@ -38027,7 +38066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="43.5">
+    <row r="538" spans="1:13" ht="45">
       <c r="A538" t="s">
         <v>488</v>
       </c>
@@ -38068,7 +38107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="29">
+    <row r="539" spans="1:13" ht="30">
       <c r="A539" t="s">
         <v>493</v>
       </c>
@@ -38109,7 +38148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="29">
+    <row r="540" spans="1:13" ht="45">
       <c r="A540" t="s">
         <v>501</v>
       </c>
@@ -38150,7 +38189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="29">
+    <row r="541" spans="1:13" ht="30">
       <c r="A541" t="s">
         <v>509</v>
       </c>
@@ -38191,7 +38230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="29">
+    <row r="542" spans="1:13" ht="45">
       <c r="A542" t="s">
         <v>514</v>
       </c>
@@ -38232,7 +38271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="58">
+    <row r="543" spans="1:13" ht="60">
       <c r="A543" t="s">
         <v>522</v>
       </c>
@@ -38273,7 +38312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="43.5">
+    <row r="544" spans="1:13" ht="45">
       <c r="A544" t="s">
         <v>530</v>
       </c>
@@ -38314,7 +38353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="29">
+    <row r="545" spans="1:13" ht="45">
       <c r="A545" t="s">
         <v>535</v>
       </c>
@@ -38355,7 +38394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="43.5">
+    <row r="546" spans="1:13" ht="45">
       <c r="A546" t="s">
         <v>543</v>
       </c>
@@ -38396,7 +38435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="29">
+    <row r="547" spans="1:13" ht="30">
       <c r="A547" t="s">
         <v>551</v>
       </c>
@@ -38437,7 +38476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="29">
+    <row r="548" spans="1:13" ht="30">
       <c r="A548" t="s">
         <v>556</v>
       </c>
@@ -38478,7 +38517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="43.5">
+    <row r="549" spans="1:13" ht="45">
       <c r="A549" t="s">
         <v>564</v>
       </c>
@@ -38519,7 +38558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="29">
+    <row r="550" spans="1:13" ht="45">
       <c r="A550" t="s">
         <v>572</v>
       </c>
@@ -38560,7 +38599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="43.5">
+    <row r="551" spans="1:13" ht="45">
       <c r="A551" t="s">
         <v>579</v>
       </c>
@@ -38601,7 +38640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:13" ht="43.5">
+    <row r="552" spans="1:13" ht="45">
       <c r="A552" t="s">
         <v>587</v>
       </c>
@@ -38642,7 +38681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="43.5">
+    <row r="553" spans="1:13" ht="45">
       <c r="A553" t="s">
         <v>595</v>
       </c>
@@ -38683,7 +38722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="43.5">
+    <row r="554" spans="1:13" ht="60">
       <c r="A554" t="s">
         <v>600</v>
       </c>
@@ -38724,7 +38763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="43.5">
+    <row r="555" spans="1:13" ht="60">
       <c r="A555" t="s">
         <v>608</v>
       </c>
@@ -38765,7 +38804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="43.5">
+    <row r="556" spans="1:13" ht="45">
       <c r="A556" t="s">
         <v>616</v>
       </c>
@@ -38806,7 +38845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="29">
+    <row r="557" spans="1:13" ht="30">
       <c r="A557" t="s">
         <v>621</v>
       </c>
@@ -38847,7 +38886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:13" ht="43.5">
+    <row r="558" spans="1:13" ht="45">
       <c r="A558" t="s">
         <v>629</v>
       </c>
@@ -38888,7 +38927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="29">
+    <row r="559" spans="1:13" ht="30">
       <c r="A559" t="s">
         <v>637</v>
       </c>
@@ -38929,7 +38968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="58">
+    <row r="560" spans="1:13" ht="60">
       <c r="A560" t="s">
         <v>642</v>
       </c>
@@ -38970,7 +39009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="58">
+    <row r="561" spans="1:13" ht="60">
       <c r="A561" t="s">
         <v>650</v>
       </c>
@@ -39011,7 +39050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="43.5">
+    <row r="562" spans="1:13" ht="60">
       <c r="A562" t="s">
         <v>658</v>
       </c>
@@ -39052,7 +39091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="29">
+    <row r="563" spans="1:13" ht="30">
       <c r="A563" t="s">
         <v>663</v>
       </c>
@@ -39093,7 +39132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="29">
+    <row r="564" spans="1:13" ht="30">
       <c r="A564" t="s">
         <v>671</v>
       </c>
@@ -39134,7 +39173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="29">
+    <row r="565" spans="1:13" ht="30">
       <c r="A565" t="s">
         <v>677</v>
       </c>
@@ -39175,7 +39214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="29">
+    <row r="566" spans="1:13" ht="30">
       <c r="A566" t="s">
         <v>682</v>
       </c>
@@ -39216,7 +39255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="29">
+    <row r="567" spans="1:13" ht="45">
       <c r="A567" t="s">
         <v>690</v>
       </c>
@@ -39257,7 +39296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="29">
+    <row r="568" spans="1:13" ht="30">
       <c r="A568" t="s">
         <v>698</v>
       </c>
@@ -39298,7 +39337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="58">
+    <row r="569" spans="1:13" ht="60">
       <c r="A569" t="s">
         <v>703</v>
       </c>
@@ -39339,7 +39378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="72.5">
+    <row r="570" spans="1:13" ht="75">
       <c r="A570" t="s">
         <v>711</v>
       </c>
@@ -39380,7 +39419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="58">
+    <row r="571" spans="1:13" ht="60">
       <c r="A571" t="s">
         <v>719</v>
       </c>
@@ -39421,7 +39460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="29">
+    <row r="572" spans="1:13" ht="30">
       <c r="A572" t="s">
         <v>724</v>
       </c>
@@ -39462,7 +39501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="43.5">
+    <row r="573" spans="1:13" ht="45">
       <c r="A573" t="s">
         <v>732</v>
       </c>
@@ -39503,7 +39542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="29">
+    <row r="574" spans="1:13" ht="30">
       <c r="A574" t="s">
         <v>740</v>
       </c>
@@ -39544,7 +39583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="43.5">
+    <row r="575" spans="1:13" ht="45">
       <c r="A575" t="s">
         <v>745</v>
       </c>
@@ -39585,7 +39624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="43.5">
+    <row r="576" spans="1:13" ht="45">
       <c r="A576" t="s">
         <v>752</v>
       </c>
@@ -39626,7 +39665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="43.5">
+    <row r="577" spans="1:13" ht="60">
       <c r="A577" t="s">
         <v>756</v>
       </c>
@@ -39667,7 +39706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="43.5">
+    <row r="578" spans="1:13" ht="60">
       <c r="A578" t="s">
         <v>763</v>
       </c>
@@ -39708,7 +39747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="43.5">
+    <row r="579" spans="1:13" ht="45">
       <c r="A579" t="s">
         <v>767</v>
       </c>
@@ -39749,7 +39788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="43.5">
+    <row r="580" spans="1:13" ht="45">
       <c r="A580" t="s">
         <v>774</v>
       </c>
@@ -39790,7 +39829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="43.5">
+    <row r="581" spans="1:13" ht="60">
       <c r="A581" t="s">
         <v>778</v>
       </c>
@@ -39831,7 +39870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="43.5">
+    <row r="582" spans="1:13" ht="45">
       <c r="A582" t="s">
         <v>782</v>
       </c>
@@ -39872,7 +39911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="43.5">
+    <row r="583" spans="1:13" ht="60">
       <c r="A583" t="s">
         <v>786</v>
       </c>
@@ -39954,7 +39993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="43.5">
+    <row r="585" spans="1:13" ht="60">
       <c r="A585" t="s">
         <v>797</v>
       </c>
@@ -39995,7 +40034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="1:13" ht="43.5">
+    <row r="586" spans="1:13" ht="60">
       <c r="A586" t="s">
         <v>804</v>
       </c>
@@ -40036,7 +40075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:13" ht="43.5">
+    <row r="587" spans="1:13" ht="60">
       <c r="A587" t="s">
         <v>808</v>
       </c>
@@ -40077,7 +40116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:13" ht="43.5">
+    <row r="588" spans="1:13" ht="45">
       <c r="A588" t="s">
         <v>815</v>
       </c>
@@ -40118,7 +40157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:13" ht="43.5">
+    <row r="589" spans="1:13" ht="45">
       <c r="A589" t="s">
         <v>819</v>
       </c>
@@ -40159,7 +40198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:13" ht="43.5">
+    <row r="590" spans="1:13" ht="60">
       <c r="A590" t="s">
         <v>825</v>
       </c>
@@ -40200,7 +40239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:13" ht="43.5">
+    <row r="591" spans="1:13" ht="45">
       <c r="A591" t="s">
         <v>832</v>
       </c>
@@ -40241,7 +40280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:13" ht="43.5">
+    <row r="592" spans="1:13" ht="45">
       <c r="A592" t="s">
         <v>839</v>
       </c>
@@ -40282,7 +40321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:13" ht="43.5">
+    <row r="593" spans="1:13" ht="60">
       <c r="A593" t="s">
         <v>846</v>
       </c>
@@ -40323,7 +40362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="58">
+    <row r="594" spans="1:13" ht="75">
       <c r="A594" t="s">
         <v>850</v>
       </c>
@@ -40364,7 +40403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="43.5">
+    <row r="595" spans="1:13" ht="45">
       <c r="A595" t="s">
         <v>857</v>
       </c>
@@ -40405,7 +40444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="29">
+    <row r="596" spans="1:13" ht="30">
       <c r="A596" t="s">
         <v>864</v>
       </c>
@@ -40446,7 +40485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="29">
+    <row r="597" spans="1:13" ht="30">
       <c r="A597" t="s">
         <v>871</v>
       </c>
@@ -40487,7 +40526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="29">
+    <row r="598" spans="1:13" ht="45">
       <c r="A598" t="s">
         <v>875</v>
       </c>
@@ -40528,7 +40567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="29">
+    <row r="599" spans="1:13" ht="30">
       <c r="A599" t="s">
         <v>882</v>
       </c>
@@ -40569,7 +40608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="29">
+    <row r="600" spans="1:13" ht="30">
       <c r="A600" t="s">
         <v>889</v>
       </c>
@@ -40610,7 +40649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="29">
+    <row r="601" spans="1:13" ht="45">
       <c r="A601" t="s">
         <v>893</v>
       </c>
@@ -40651,7 +40690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:13" ht="43.5">
+    <row r="602" spans="1:13" ht="60">
       <c r="A602" t="s">
         <v>900</v>
       </c>
@@ -40692,7 +40731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="58">
+    <row r="603" spans="1:13" ht="60">
       <c r="A603" t="s">
         <v>907</v>
       </c>
@@ -40733,7 +40772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="58">
+    <row r="604" spans="1:13" ht="60">
       <c r="A604" t="s">
         <v>913</v>
       </c>
@@ -40774,7 +40813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="29">
+    <row r="605" spans="1:13" ht="30">
       <c r="A605" t="s">
         <v>920</v>
       </c>
@@ -40815,7 +40854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:13" ht="29">
+    <row r="606" spans="1:13" ht="30">
       <c r="A606" t="s">
         <v>927</v>
       </c>
@@ -40856,7 +40895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="29">
+    <row r="607" spans="1:13" ht="45">
       <c r="A607" t="s">
         <v>931</v>
       </c>
@@ -40979,7 +41018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:13" ht="29">
+    <row r="610" spans="1:13" ht="30">
       <c r="A610" s="6" t="s">
         <v>954</v>
       </c>
@@ -41020,7 +41059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:13" ht="29">
+    <row r="611" spans="1:13" ht="30">
       <c r="A611" t="s">
         <v>962</v>
       </c>
@@ -41061,7 +41100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:13" ht="29">
+    <row r="612" spans="1:13" ht="30">
       <c r="A612" t="s">
         <v>967</v>
       </c>
@@ -41102,7 +41141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:13" ht="29">
+    <row r="613" spans="1:13" ht="30">
       <c r="A613" t="s">
         <v>971</v>
       </c>
@@ -41143,7 +41182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:13" ht="29">
+    <row r="614" spans="1:13" ht="30">
       <c r="A614" t="s">
         <v>975</v>
       </c>
@@ -41307,7 +41346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="174">
+    <row r="618" spans="1:13" ht="180">
       <c r="A618" t="s">
         <v>1013</v>
       </c>
@@ -41509,7 +41548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="1:13" ht="29">
+    <row r="623" spans="1:13" ht="30">
       <c r="A623" t="s">
         <v>1042</v>
       </c>
@@ -41714,7 +41753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:13" ht="26.15" customHeight="1">
+    <row r="628" spans="1:13" ht="26.1" customHeight="1">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -41755,7 +41794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="25.4" customHeight="1">
+    <row r="629" spans="1:13" ht="25.35" customHeight="1">
       <c r="A629" t="s">
         <v>24</v>
       </c>
@@ -41796,7 +41835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="26.9" customHeight="1">
+    <row r="630" spans="1:13" ht="26.85" customHeight="1">
       <c r="A630" t="s">
         <v>28</v>
       </c>
@@ -41837,7 +41876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="26.9" customHeight="1">
+    <row r="631" spans="1:13" ht="26.85" customHeight="1">
       <c r="A631" t="s">
         <v>48</v>
       </c>
@@ -41878,7 +41917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="29.9" customHeight="1">
+    <row r="632" spans="1:13" ht="29.85" customHeight="1">
       <c r="A632" t="s">
         <v>53</v>
       </c>
@@ -41919,7 +41958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="1:13" ht="27.65" customHeight="1">
+    <row r="633" spans="1:13" ht="27.6" customHeight="1">
       <c r="A633" t="s">
         <v>57</v>
       </c>
@@ -41960,7 +41999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:13" ht="29.9" customHeight="1">
+    <row r="634" spans="1:13" ht="29.85" customHeight="1">
       <c r="A634" t="s">
         <v>61</v>
       </c>
@@ -42001,7 +42040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="1:13" ht="32" customHeight="1">
+    <row r="635" spans="1:13" ht="32.1" customHeight="1">
       <c r="A635" t="s">
         <v>65</v>
       </c>
@@ -42042,7 +42081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:13" ht="29">
+    <row r="636" spans="1:13" ht="30">
       <c r="A636" t="s">
         <v>69</v>
       </c>
@@ -42083,7 +42122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="29">
+    <row r="637" spans="1:13" ht="30">
       <c r="A637" t="s">
         <v>73</v>
       </c>
@@ -42124,7 +42163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:13" ht="29">
+    <row r="638" spans="1:13" ht="30">
       <c r="A638" t="s">
         <v>77</v>
       </c>
@@ -42165,7 +42204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:13" ht="29">
+    <row r="639" spans="1:13" ht="30">
       <c r="A639" t="s">
         <v>115</v>
       </c>
@@ -42206,7 +42245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="29">
+    <row r="640" spans="1:13" ht="30">
       <c r="A640" t="s">
         <v>120</v>
       </c>
@@ -42247,7 +42286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="29">
+    <row r="641" spans="1:13" ht="30">
       <c r="A641" t="s">
         <v>124</v>
       </c>
@@ -42288,7 +42327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="29">
+    <row r="642" spans="1:13" ht="30">
       <c r="A642" t="s">
         <v>127</v>
       </c>
@@ -42329,7 +42368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="29">
+    <row r="643" spans="1:13" ht="30">
       <c r="A643" t="s">
         <v>131</v>
       </c>
@@ -42370,7 +42409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="29">
+    <row r="644" spans="1:13" ht="30">
       <c r="A644" t="s">
         <v>135</v>
       </c>
@@ -42411,7 +42450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="29">
+    <row r="645" spans="1:13" ht="30">
       <c r="A645" t="s">
         <v>138</v>
       </c>
@@ -42452,7 +42491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="29">
+    <row r="646" spans="1:13" ht="30">
       <c r="A646" t="s">
         <v>142</v>
       </c>
@@ -42493,7 +42532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:13" ht="29">
+    <row r="647" spans="1:13" ht="30">
       <c r="A647" t="s">
         <v>146</v>
       </c>
@@ -42534,7 +42573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:13" ht="116">
+    <row r="648" spans="1:13" ht="120">
       <c r="A648" t="s">
         <v>182</v>
       </c>
@@ -42575,7 +42614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="29">
+    <row r="649" spans="1:13" ht="30">
       <c r="A649" t="s">
         <v>187</v>
       </c>
@@ -42616,7 +42655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="29">
+    <row r="650" spans="1:13" ht="30">
       <c r="A650" t="s">
         <v>191</v>
       </c>
@@ -42657,7 +42696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:13" ht="29">
+    <row r="651" spans="1:13" ht="30">
       <c r="A651" t="s">
         <v>195</v>
       </c>
@@ -42698,7 +42737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="29">
+    <row r="652" spans="1:13" ht="30">
       <c r="A652" t="s">
         <v>199</v>
       </c>
@@ -42739,7 +42778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:13" ht="29">
+    <row r="653" spans="1:13" ht="30">
       <c r="A653" t="s">
         <v>202</v>
       </c>
@@ -42780,7 +42819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="29">
+    <row r="654" spans="1:13" ht="30">
       <c r="A654" t="s">
         <v>230</v>
       </c>
@@ -42821,7 +42860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="655" spans="1:13" s="11" customFormat="1" ht="15.5">
+    <row r="655" spans="1:13" s="11" customFormat="1">
       <c r="A655" s="11">
         <v>1131</v>
       </c>
@@ -42862,7 +42901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="29">
+    <row r="656" spans="1:13" ht="30">
       <c r="A656" t="s">
         <v>244</v>
       </c>
@@ -42903,7 +42942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="29">
+    <row r="657" spans="1:13" ht="30">
       <c r="A657" t="s">
         <v>251</v>
       </c>
@@ -42944,7 +42983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="29">
+    <row r="658" spans="1:13" ht="30">
       <c r="A658" t="s">
         <v>258</v>
       </c>
@@ -42985,7 +43024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:13" ht="29">
+    <row r="659" spans="1:13" ht="30">
       <c r="A659" t="s">
         <v>265</v>
       </c>
@@ -43067,7 +43106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="1:13" ht="145">
+    <row r="661" spans="1:13" ht="165">
       <c r="A661" t="s">
         <v>285</v>
       </c>
@@ -43272,7 +43311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="29">
+    <row r="666" spans="1:13" ht="30">
       <c r="A666" t="s">
         <v>301</v>
       </c>
@@ -43313,7 +43352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="1:13" ht="29">
+    <row r="667" spans="1:13" ht="30">
       <c r="A667" t="s">
         <v>309</v>
       </c>
@@ -43354,7 +43393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="668" spans="1:13" ht="29">
+    <row r="668" spans="1:13" ht="30">
       <c r="A668" t="s">
         <v>315</v>
       </c>
@@ -43436,7 +43475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="670" spans="1:13" ht="29">
+    <row r="670" spans="1:13" ht="30">
       <c r="A670" t="s">
         <v>321</v>
       </c>
@@ -43477,7 +43516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="671" spans="1:13" ht="29">
+    <row r="671" spans="1:13" ht="30">
       <c r="A671" t="s">
         <v>323</v>
       </c>
@@ -43518,7 +43557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="29">
+    <row r="672" spans="1:13" ht="30">
       <c r="A672" t="s">
         <v>324</v>
       </c>
@@ -43559,7 +43598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:13" ht="29">
+    <row r="673" spans="1:13" ht="30">
       <c r="A673" t="s">
         <v>325</v>
       </c>
@@ -43600,7 +43639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="674" spans="1:13" ht="29">
+    <row r="674" spans="1:13" ht="30">
       <c r="A674" t="s">
         <v>326</v>
       </c>
@@ -43641,7 +43680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="675" spans="1:13" ht="58">
+    <row r="675" spans="1:13" ht="60">
       <c r="A675" t="s">
         <v>327</v>
       </c>
@@ -43682,7 +43721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="676" spans="1:13">
+    <row r="676" spans="1:13" ht="30">
       <c r="A676" t="s">
         <v>335</v>
       </c>
@@ -43723,7 +43762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="677" spans="1:13" ht="29">
+    <row r="677" spans="1:13" ht="30">
       <c r="A677" t="s">
         <v>343</v>
       </c>
@@ -43969,7 +44008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="683" spans="1:13" ht="29">
+    <row r="683" spans="1:13" ht="30">
       <c r="A683" t="s">
         <v>376</v>
       </c>
@@ -44010,7 +44049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="1:13" ht="29">
+    <row r="684" spans="1:13" ht="30">
       <c r="A684" t="s">
         <v>381</v>
       </c>
@@ -44051,7 +44090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="685" spans="1:13">
+    <row r="685" spans="1:13" ht="30">
       <c r="A685" t="s">
         <v>389</v>
       </c>
@@ -44133,7 +44172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="687" spans="1:13" ht="29">
+    <row r="687" spans="1:13" ht="30">
       <c r="A687" t="s">
         <v>404</v>
       </c>
@@ -44174,7 +44213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="688" spans="1:13" ht="29">
+    <row r="688" spans="1:13" ht="30">
       <c r="A688" t="s">
         <v>414</v>
       </c>
@@ -44215,7 +44254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="1:13" ht="43.5">
+    <row r="689" spans="1:13" ht="45">
       <c r="A689" t="s">
         <v>420</v>
       </c>
@@ -44256,7 +44295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="690" spans="1:13" ht="29">
+    <row r="690" spans="1:13" ht="30">
       <c r="A690" t="s">
         <v>428</v>
       </c>
@@ -44297,7 +44336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="691" spans="1:13" ht="29">
+    <row r="691" spans="1:13" ht="30">
       <c r="A691" t="s">
         <v>436</v>
       </c>
@@ -44338,7 +44377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="692" spans="1:13" ht="29">
+    <row r="692" spans="1:13" ht="30">
       <c r="A692" t="s">
         <v>446</v>
       </c>
@@ -44379,7 +44418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:13" ht="29">
+    <row r="693" spans="1:13" ht="30">
       <c r="A693" t="s">
         <v>451</v>
       </c>
@@ -44420,7 +44459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="1:13" ht="29">
+    <row r="694" spans="1:13" ht="45">
       <c r="A694" t="s">
         <v>459</v>
       </c>
@@ -44461,7 +44500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:13" ht="29">
+    <row r="695" spans="1:13" ht="30">
       <c r="A695" t="s">
         <v>467</v>
       </c>
@@ -44502,7 +44541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="696" spans="1:13" ht="29">
+    <row r="696" spans="1:13" ht="45">
       <c r="A696" t="s">
         <v>472</v>
       </c>
@@ -44543,7 +44582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:13" ht="43.5">
+    <row r="697" spans="1:13" ht="60">
       <c r="A697" t="s">
         <v>480</v>
       </c>
@@ -44584,7 +44623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="1:13" ht="29">
+    <row r="698" spans="1:13" ht="45">
       <c r="A698" t="s">
         <v>488</v>
       </c>
@@ -44666,7 +44705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="700" spans="1:13" ht="29">
+    <row r="700" spans="1:13" ht="30">
       <c r="A700" t="s">
         <v>501</v>
       </c>
@@ -44707,7 +44746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="701" spans="1:13" ht="29">
+    <row r="701" spans="1:13" ht="30">
       <c r="A701" t="s">
         <v>509</v>
       </c>
@@ -44789,7 +44828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="703" spans="1:13" ht="29">
+    <row r="703" spans="1:13" ht="30">
       <c r="A703" t="s">
         <v>522</v>
       </c>
@@ -44830,7 +44869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="704" spans="1:13" ht="29">
+    <row r="704" spans="1:13" ht="30">
       <c r="A704" t="s">
         <v>530</v>
       </c>
@@ -44871,7 +44910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="705" spans="1:13" ht="29">
+    <row r="705" spans="1:13" ht="30">
       <c r="A705" t="s">
         <v>535</v>
       </c>
@@ -44912,7 +44951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="706" spans="1:13" ht="29">
+    <row r="706" spans="1:13" ht="30">
       <c r="A706" t="s">
         <v>543</v>
       </c>
@@ -44953,7 +44992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="29">
+    <row r="707" spans="1:13" ht="30">
       <c r="A707" t="s">
         <v>551</v>
       </c>
@@ -44994,7 +45033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="708" spans="1:13" ht="29">
+    <row r="708" spans="1:13" ht="30">
       <c r="A708" t="s">
         <v>556</v>
       </c>
@@ -45035,7 +45074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" spans="1:13" ht="29">
+    <row r="709" spans="1:13" ht="30">
       <c r="A709" t="s">
         <v>564</v>
       </c>
@@ -45076,7 +45115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="710" spans="1:13" ht="29">
+    <row r="710" spans="1:13" ht="30">
       <c r="A710" t="s">
         <v>572</v>
       </c>
@@ -45117,7 +45156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="29">
+    <row r="711" spans="1:13" ht="30">
       <c r="A711" t="s">
         <v>579</v>
       </c>
@@ -45158,7 +45197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="1:13" ht="29">
+    <row r="712" spans="1:13" ht="30">
       <c r="A712" t="s">
         <v>587</v>
       </c>
@@ -45199,7 +45238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="713" spans="1:13" ht="29">
+    <row r="713" spans="1:13" ht="45">
       <c r="A713" t="s">
         <v>595</v>
       </c>
@@ -45240,7 +45279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="714" spans="1:13" ht="29">
+    <row r="714" spans="1:13" ht="30">
       <c r="A714" t="s">
         <v>600</v>
       </c>
@@ -45281,7 +45320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="715" spans="1:13" ht="43.5">
+    <row r="715" spans="1:13" ht="45">
       <c r="A715" t="s">
         <v>608</v>
       </c>
@@ -45322,7 +45361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="716" spans="1:13" ht="29">
+    <row r="716" spans="1:13" ht="45">
       <c r="A716" t="s">
         <v>616</v>
       </c>
@@ -45363,7 +45402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:13" ht="29">
+    <row r="717" spans="1:13" ht="30">
       <c r="A717" t="s">
         <v>621</v>
       </c>
@@ -45404,7 +45443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="1:13" ht="29">
+    <row r="718" spans="1:13" ht="30">
       <c r="A718" t="s">
         <v>629</v>
       </c>
@@ -45445,7 +45484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="1:13" ht="29">
+    <row r="719" spans="1:13" ht="30">
       <c r="A719" t="s">
         <v>637</v>
       </c>
@@ -45486,7 +45525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="720" spans="1:13" ht="29">
+    <row r="720" spans="1:13" ht="30">
       <c r="A720" t="s">
         <v>642</v>
       </c>
@@ -45527,7 +45566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:13" ht="43.5">
+    <row r="721" spans="1:13" ht="45">
       <c r="A721" t="s">
         <v>650</v>
       </c>
@@ -45568,7 +45607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="722" spans="1:13" ht="43.5">
+    <row r="722" spans="1:13" ht="45">
       <c r="A722" t="s">
         <v>658</v>
       </c>
@@ -45609,7 +45648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="723" spans="1:13">
+    <row r="723" spans="1:13" ht="30">
       <c r="A723" t="s">
         <v>663</v>
       </c>
@@ -45650,7 +45689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="1:13" ht="29">
+    <row r="724" spans="1:13" ht="30">
       <c r="A724" t="s">
         <v>671</v>
       </c>
@@ -45691,7 +45730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="725" spans="1:13" ht="29">
+    <row r="725" spans="1:13" ht="30">
       <c r="A725" t="s">
         <v>677</v>
       </c>
@@ -45773,7 +45812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="727" spans="1:13" ht="29">
+    <row r="727" spans="1:13" ht="30">
       <c r="A727" t="s">
         <v>690</v>
       </c>
@@ -45814,7 +45853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="1:13" ht="29">
+    <row r="728" spans="1:13" ht="30">
       <c r="A728" t="s">
         <v>698</v>
       </c>
@@ -45855,7 +45894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="1:13" ht="43.5">
+    <row r="729" spans="1:13" ht="45">
       <c r="A729" t="s">
         <v>703</v>
       </c>
@@ -45896,7 +45935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="730" spans="1:13" ht="29">
+    <row r="730" spans="1:13" ht="45">
       <c r="A730" t="s">
         <v>711</v>
       </c>
@@ -45937,7 +45976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="731" spans="1:13" ht="43.5">
+    <row r="731" spans="1:13" ht="45">
       <c r="A731" t="s">
         <v>719</v>
       </c>
@@ -45978,7 +46017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="732" spans="1:13" ht="29">
+    <row r="732" spans="1:13" ht="30">
       <c r="A732" t="s">
         <v>724</v>
       </c>
@@ -46019,7 +46058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="733" spans="1:13" ht="29">
+    <row r="733" spans="1:13" ht="45">
       <c r="A733" t="s">
         <v>732</v>
       </c>
@@ -46060,7 +46099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="734" spans="1:13" ht="29">
+    <row r="734" spans="1:13" ht="30">
       <c r="A734" t="s">
         <v>740</v>
       </c>
@@ -46101,7 +46140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="735" spans="1:13" ht="29">
+    <row r="735" spans="1:13" ht="30">
       <c r="A735" t="s">
         <v>745</v>
       </c>
@@ -46142,7 +46181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:13" ht="29">
+    <row r="736" spans="1:13" ht="30">
       <c r="A736" t="s">
         <v>752</v>
       </c>
@@ -46183,7 +46222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="29">
+    <row r="737" spans="1:13" ht="30">
       <c r="A737" t="s">
         <v>756</v>
       </c>
@@ -46224,7 +46263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="738" spans="1:13" ht="29">
+    <row r="738" spans="1:13" ht="30">
       <c r="A738" t="s">
         <v>763</v>
       </c>
@@ -46265,7 +46304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="29">
+    <row r="739" spans="1:13" ht="30">
       <c r="A739" t="s">
         <v>767</v>
       </c>
@@ -46306,7 +46345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="29">
+    <row r="740" spans="1:13" ht="30">
       <c r="A740" t="s">
         <v>774</v>
       </c>
@@ -46347,7 +46386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="741" spans="1:13" ht="29">
+    <row r="741" spans="1:13" ht="30">
       <c r="A741" t="s">
         <v>778</v>
       </c>
@@ -46388,7 +46427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="742" spans="1:13" ht="29">
+    <row r="742" spans="1:13" ht="30">
       <c r="A742" t="s">
         <v>782</v>
       </c>
@@ -46429,7 +46468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="29">
+    <row r="743" spans="1:13" ht="45">
       <c r="A743" t="s">
         <v>786</v>
       </c>
@@ -46470,7 +46509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="744" spans="1:13" ht="29">
+    <row r="744" spans="1:13" ht="30">
       <c r="A744" t="s">
         <v>793</v>
       </c>
@@ -46511,7 +46550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="745" spans="1:13" ht="29">
+    <row r="745" spans="1:13" ht="30">
       <c r="A745" t="s">
         <v>797</v>
       </c>
@@ -46552,7 +46591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="746" spans="1:13" ht="29">
+    <row r="746" spans="1:13" ht="30">
       <c r="A746" t="s">
         <v>804</v>
       </c>
@@ -46593,7 +46632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="747" spans="1:13" ht="29">
+    <row r="747" spans="1:13" ht="30">
       <c r="A747" t="s">
         <v>808</v>
       </c>
@@ -46634,7 +46673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="748" spans="1:13" ht="43.5">
+    <row r="748" spans="1:13" ht="45">
       <c r="A748" t="s">
         <v>815</v>
       </c>
@@ -46675,7 +46714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="749" spans="1:13" ht="43.5">
+    <row r="749" spans="1:13" ht="45">
       <c r="A749" t="s">
         <v>819</v>
       </c>
@@ -46716,7 +46755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="750" spans="1:13" ht="43.5">
+    <row r="750" spans="1:13" ht="45">
       <c r="A750" t="s">
         <v>825</v>
       </c>
@@ -46757,7 +46796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="751" spans="1:13" ht="29">
+    <row r="751" spans="1:13" ht="30">
       <c r="A751" t="s">
         <v>832</v>
       </c>
@@ -46798,7 +46837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="1:13" ht="29">
+    <row r="752" spans="1:13" ht="30">
       <c r="A752" t="s">
         <v>839</v>
       </c>
@@ -46839,7 +46878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:13" ht="29">
+    <row r="753" spans="1:13" ht="30">
       <c r="A753" t="s">
         <v>846</v>
       </c>
@@ -46880,7 +46919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="754" spans="1:13" ht="29">
+    <row r="754" spans="1:13" ht="45">
       <c r="A754" t="s">
         <v>850</v>
       </c>
@@ -46921,7 +46960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="755" spans="1:13" ht="29">
+    <row r="755" spans="1:13" ht="30">
       <c r="A755" t="s">
         <v>857</v>
       </c>
@@ -46962,7 +47001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="756" spans="1:13" ht="29">
+    <row r="756" spans="1:13" ht="30">
       <c r="A756" t="s">
         <v>864</v>
       </c>
@@ -47003,7 +47042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="757" spans="1:13" ht="29">
+    <row r="757" spans="1:13" ht="30">
       <c r="A757" t="s">
         <v>871</v>
       </c>
@@ -47044,7 +47083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="1:13" ht="29">
+    <row r="758" spans="1:13" ht="30">
       <c r="A758" t="s">
         <v>875</v>
       </c>
@@ -47085,7 +47124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:13" ht="29">
+    <row r="759" spans="1:13" ht="30">
       <c r="A759" t="s">
         <v>882</v>
       </c>
@@ -47126,7 +47165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="760" spans="1:13" ht="29">
+    <row r="760" spans="1:13" ht="30">
       <c r="A760" t="s">
         <v>889</v>
       </c>
@@ -47167,7 +47206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:13" ht="29">
+    <row r="761" spans="1:13" ht="30">
       <c r="A761" t="s">
         <v>893</v>
       </c>
@@ -47208,7 +47247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="762" spans="1:13" ht="29">
+    <row r="762" spans="1:13" ht="30">
       <c r="A762" t="s">
         <v>900</v>
       </c>
@@ -47249,7 +47288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="763" spans="1:13" ht="29">
+    <row r="763" spans="1:13" ht="30">
       <c r="A763" t="s">
         <v>907</v>
       </c>
@@ -47290,7 +47329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="764" spans="1:13" ht="29">
+    <row r="764" spans="1:13" ht="30">
       <c r="A764" t="s">
         <v>913</v>
       </c>
@@ -47331,7 +47370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="765" spans="1:13" ht="29">
+    <row r="765" spans="1:13" ht="30">
       <c r="A765" t="s">
         <v>920</v>
       </c>
@@ -47372,7 +47411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="766" spans="1:13" ht="29">
+    <row r="766" spans="1:13" ht="30">
       <c r="A766" t="s">
         <v>927</v>
       </c>
@@ -47413,7 +47452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="1:13" ht="29">
+    <row r="767" spans="1:13" ht="30">
       <c r="A767" t="s">
         <v>931</v>
       </c>
@@ -47659,7 +47698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="773" spans="1:13" ht="29">
+    <row r="773" spans="1:13" ht="30">
       <c r="A773" t="s">
         <v>971</v>
       </c>
@@ -47823,7 +47862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="777" spans="1:13" ht="145">
+    <row r="777" spans="1:13" ht="165">
       <c r="A777" t="s">
         <v>1004</v>
       </c>
@@ -47864,7 +47903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="1:13" ht="130.5">
+    <row r="778" spans="1:13" ht="135">
       <c r="A778" t="s">
         <v>1013</v>
       </c>
@@ -47984,7 +48023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="781" spans="1:13" ht="29">
+    <row r="781" spans="1:13" ht="45">
       <c r="A781" t="s">
         <v>1032</v>
       </c>
@@ -48025,7 +48064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="782" spans="1:13" ht="29">
+    <row r="782" spans="1:13" ht="30">
       <c r="A782" t="s">
         <v>1037</v>
       </c>
@@ -48148,7 +48187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="785" spans="1:13" ht="29">
+    <row r="785" spans="1:13" ht="30">
       <c r="A785" t="s">
         <v>1052</v>
       </c>
@@ -48189,7 +48228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:13" ht="43.5">
+    <row r="786" spans="1:13" ht="45">
       <c r="A786" t="s">
         <v>1057</v>
       </c>
@@ -48230,7 +48269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:13" ht="29">
+    <row r="787" spans="1:13" ht="30">
       <c r="A787" s="6">
         <v>1281</v>
       </c>
@@ -48271,7 +48310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="788" spans="1:13" ht="44" customHeight="1">
+    <row r="788" spans="1:13" ht="44.1" customHeight="1">
       <c r="A788" t="s">
         <v>13</v>
       </c>
@@ -48312,7 +48351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="789" spans="1:13" ht="43.5">
+    <row r="789" spans="1:13" ht="45">
       <c r="A789" t="s">
         <v>24</v>
       </c>
@@ -48353,7 +48392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="790" spans="1:13" ht="43.5">
+    <row r="790" spans="1:13" ht="45">
       <c r="A790" t="s">
         <v>28</v>
       </c>
@@ -48394,7 +48433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="791" spans="1:13" ht="130.5">
+    <row r="791" spans="1:13" ht="150">
       <c r="A791" t="s">
         <v>48</v>
       </c>
@@ -48435,7 +48474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="792" spans="1:13" ht="29">
+    <row r="792" spans="1:13" ht="45">
       <c r="A792" t="s">
         <v>53</v>
       </c>
@@ -48476,7 +48515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="793" spans="1:13" ht="101.5">
+    <row r="793" spans="1:13" ht="105">
       <c r="A793" t="s">
         <v>57</v>
       </c>
@@ -48517,7 +48556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="794" spans="1:13" ht="101.5">
+    <row r="794" spans="1:13" ht="105">
       <c r="A794" t="s">
         <v>61</v>
       </c>
@@ -48558,7 +48597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="795" spans="1:13" ht="43.5">
+    <row r="795" spans="1:13" ht="45">
       <c r="A795" t="s">
         <v>65</v>
       </c>
@@ -48599,7 +48638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="796" spans="1:13" ht="43.5">
+    <row r="796" spans="1:13" ht="45">
       <c r="A796" t="s">
         <v>69</v>
       </c>
@@ -48640,7 +48679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="797" spans="1:13" ht="58">
+    <row r="797" spans="1:13" ht="60">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -48681,7 +48720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="798" spans="1:13" ht="58">
+    <row r="798" spans="1:13" ht="60">
       <c r="A798" t="s">
         <v>77</v>
       </c>
@@ -48722,7 +48761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="799" spans="1:13" ht="58">
+    <row r="799" spans="1:13" ht="60">
       <c r="A799" t="s">
         <v>115</v>
       </c>
@@ -48763,7 +48802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="800" spans="1:13" ht="58">
+    <row r="800" spans="1:13" ht="60">
       <c r="A800" t="s">
         <v>120</v>
       </c>
@@ -48804,7 +48843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="801" spans="1:13" ht="43.5">
+    <row r="801" spans="1:13" ht="45">
       <c r="A801" t="s">
         <v>124</v>
       </c>
@@ -48845,7 +48884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="802" spans="1:13" ht="72.5">
+    <row r="802" spans="1:13" ht="75">
       <c r="A802" t="s">
         <v>127</v>
       </c>
@@ -48886,7 +48925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="803" spans="1:13" ht="58">
+    <row r="803" spans="1:13" ht="75">
       <c r="A803" t="s">
         <v>131</v>
       </c>
@@ -48927,7 +48966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="804" spans="1:13" ht="72.5">
+    <row r="804" spans="1:13" ht="75">
       <c r="A804" t="s">
         <v>135</v>
       </c>
@@ -48968,7 +49007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="805" spans="1:13" ht="101.5">
+    <row r="805" spans="1:13" ht="105">
       <c r="A805" t="s">
         <v>138</v>
       </c>
@@ -49009,7 +49048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="806" spans="1:13" ht="72.5">
+    <row r="806" spans="1:13" ht="75">
       <c r="A806" t="s">
         <v>142</v>
       </c>
@@ -49050,7 +49089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="807" spans="1:13" ht="116">
+    <row r="807" spans="1:13" ht="135">
       <c r="A807" t="s">
         <v>146</v>
       </c>
@@ -49091,7 +49130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="808" spans="1:13" ht="159.5">
+    <row r="808" spans="1:13" ht="180">
       <c r="A808" t="s">
         <v>182</v>
       </c>
@@ -49132,7 +49171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="809" spans="1:13" ht="87">
+    <row r="809" spans="1:13" ht="90">
       <c r="A809" t="s">
         <v>187</v>
       </c>
@@ -49173,7 +49212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="810" spans="1:13" ht="58">
+    <row r="810" spans="1:13" ht="75">
       <c r="A810" t="s">
         <v>191</v>
       </c>
@@ -49214,7 +49253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="811" spans="1:13" ht="43.5">
+    <row r="811" spans="1:13" ht="45">
       <c r="A811" t="s">
         <v>195</v>
       </c>
@@ -49255,7 +49294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="812" spans="1:13" ht="58">
+    <row r="812" spans="1:13" ht="60">
       <c r="A812" t="s">
         <v>199</v>
       </c>
@@ -49296,7 +49335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="813" spans="1:13" ht="101.5">
+    <row r="813" spans="1:13" ht="120">
       <c r="A813" t="s">
         <v>202</v>
       </c>
@@ -49337,7 +49376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="814" spans="1:13" ht="58">
+    <row r="814" spans="1:13" ht="60">
       <c r="A814" t="s">
         <v>230</v>
       </c>
@@ -49378,7 +49417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="815" spans="1:13" s="11" customFormat="1" ht="29">
+    <row r="815" spans="1:13" s="11" customFormat="1" ht="30">
       <c r="A815" s="11">
         <v>1131</v>
       </c>
@@ -49419,7 +49458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="816" spans="1:13" ht="29">
+    <row r="816" spans="1:13" ht="30">
       <c r="A816" t="s">
         <v>244</v>
       </c>
@@ -49460,7 +49499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="1:13" ht="43.5">
+    <row r="817" spans="1:13" ht="45">
       <c r="A817" t="s">
         <v>251</v>
       </c>
@@ -49501,7 +49540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="818" spans="1:13" ht="43.5">
+    <row r="818" spans="1:13" ht="60">
       <c r="A818" t="s">
         <v>258</v>
       </c>
@@ -49542,7 +49581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="819" spans="1:13" ht="58">
+    <row r="819" spans="1:13" ht="60">
       <c r="A819" t="s">
         <v>265</v>
       </c>
@@ -49583,7 +49622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="820" spans="1:13" ht="43.5">
+    <row r="820" spans="1:13" ht="45">
       <c r="A820" t="s">
         <v>272</v>
       </c>
@@ -49624,7 +49663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="821" spans="1:13" ht="174">
+    <row r="821" spans="1:13" ht="180">
       <c r="A821" t="s">
         <v>285</v>
       </c>
@@ -49829,7 +49868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="826" spans="1:13" ht="29">
+    <row r="826" spans="1:13" ht="45">
       <c r="A826" t="s">
         <v>301</v>
       </c>
@@ -49870,7 +49909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="827" spans="1:13" ht="29">
+    <row r="827" spans="1:13" ht="30">
       <c r="A827" t="s">
         <v>309</v>
       </c>
@@ -49911,7 +49950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="828" spans="1:13" ht="58">
+    <row r="828" spans="1:13" ht="60">
       <c r="A828" t="s">
         <v>315</v>
       </c>
@@ -49952,7 +49991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="829" spans="1:13" ht="29">
+    <row r="829" spans="1:13" ht="30">
       <c r="A829" t="s">
         <v>317</v>
       </c>
@@ -49993,7 +50032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="830" spans="1:13" ht="58">
+    <row r="830" spans="1:13" ht="60">
       <c r="A830" t="s">
         <v>321</v>
       </c>
@@ -50034,7 +50073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="831" spans="1:13" ht="58">
+    <row r="831" spans="1:13" ht="60">
       <c r="A831" t="s">
         <v>323</v>
       </c>
@@ -50075,7 +50114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="832" spans="1:13" ht="29">
+    <row r="832" spans="1:13" ht="45">
       <c r="A832" t="s">
         <v>324</v>
       </c>
@@ -50116,7 +50155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="833" spans="1:13" ht="58">
+    <row r="833" spans="1:13" ht="60">
       <c r="A833" t="s">
         <v>325</v>
       </c>
@@ -50157,7 +50196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="834" spans="1:13" ht="58">
+    <row r="834" spans="1:13" ht="60">
       <c r="A834" t="s">
         <v>326</v>
       </c>
@@ -50198,7 +50237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="835" spans="1:13" ht="58">
+    <row r="835" spans="1:13" ht="75">
       <c r="A835" t="s">
         <v>327</v>
       </c>
@@ -50239,7 +50278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="836" spans="1:13" ht="43.5">
+    <row r="836" spans="1:13" ht="45">
       <c r="A836" t="s">
         <v>335</v>
       </c>
@@ -50280,7 +50319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="837" spans="1:13" ht="58">
+    <row r="837" spans="1:13" ht="60">
       <c r="A837" t="s">
         <v>343</v>
       </c>
@@ -50321,7 +50360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="838" spans="1:13">
+    <row r="838" spans="1:13" ht="30">
       <c r="A838" t="s">
         <v>351</v>
       </c>
@@ -50362,7 +50401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="839" spans="1:13" ht="29">
+    <row r="839" spans="1:13" ht="30">
       <c r="A839" t="s">
         <v>359</v>
       </c>
@@ -50526,7 +50565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="843" spans="1:13" ht="116">
+    <row r="843" spans="1:13" ht="135">
       <c r="A843" t="s">
         <v>376</v>
       </c>
@@ -50608,7 +50647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="845" spans="1:13" ht="29">
+    <row r="845" spans="1:13" ht="45">
       <c r="A845" t="s">
         <v>389</v>
       </c>
@@ -50690,7 +50729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="847" spans="1:13" ht="58">
+    <row r="847" spans="1:13" ht="60">
       <c r="A847" t="s">
         <v>404</v>
       </c>
@@ -50731,7 +50770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="848" spans="1:13" ht="43.5">
+    <row r="848" spans="1:13" ht="45">
       <c r="A848" t="s">
         <v>414</v>
       </c>
@@ -50772,7 +50811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="849" spans="1:13" ht="72.5">
+    <row r="849" spans="1:13" ht="90">
       <c r="A849" t="s">
         <v>420</v>
       </c>
@@ -50813,7 +50852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="850" spans="1:13" ht="43.5">
+    <row r="850" spans="1:13" ht="60">
       <c r="A850" t="s">
         <v>428</v>
       </c>
@@ -50854,7 +50893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="851" spans="1:13" ht="58">
+    <row r="851" spans="1:13" ht="60">
       <c r="A851" t="s">
         <v>436</v>
       </c>
@@ -50895,7 +50934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="852" spans="1:13" ht="43.5">
+    <row r="852" spans="1:13" ht="45">
       <c r="A852" t="s">
         <v>446</v>
       </c>
@@ -50936,7 +50975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="853" spans="1:13" ht="72.5">
+    <row r="853" spans="1:13" ht="75">
       <c r="A853" t="s">
         <v>451</v>
       </c>
@@ -50977,7 +51016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="87">
+    <row r="854" spans="1:13" ht="90">
       <c r="A854" t="s">
         <v>459</v>
       </c>
@@ -51018,7 +51057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="855" spans="1:13" ht="72.5">
+    <row r="855" spans="1:13" ht="75">
       <c r="A855" t="s">
         <v>467</v>
       </c>
@@ -51059,7 +51098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="856" spans="1:13" ht="58">
+    <row r="856" spans="1:13" ht="60">
       <c r="A856" t="s">
         <v>472</v>
       </c>
@@ -51100,7 +51139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="857" spans="1:13" ht="87">
+    <row r="857" spans="1:13" ht="90">
       <c r="A857" t="s">
         <v>480</v>
       </c>
@@ -51141,7 +51180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="858" spans="1:13" ht="58">
+    <row r="858" spans="1:13" ht="60">
       <c r="A858" t="s">
         <v>488</v>
       </c>
@@ -51182,7 +51221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="859" spans="1:13" ht="29">
+    <row r="859" spans="1:13" ht="30">
       <c r="A859" t="s">
         <v>493</v>
       </c>
@@ -51223,7 +51262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="860" spans="1:13" ht="43.5">
+    <row r="860" spans="1:13" ht="60">
       <c r="A860" t="s">
         <v>501</v>
       </c>
@@ -51264,7 +51303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="861" spans="1:13" ht="43.5">
+    <row r="861" spans="1:13" ht="45">
       <c r="A861" t="s">
         <v>509</v>
       </c>
@@ -51305,7 +51344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="862" spans="1:13" ht="58">
+    <row r="862" spans="1:13" ht="60">
       <c r="A862" t="s">
         <v>514</v>
       </c>
@@ -51346,7 +51385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="863" spans="1:13" ht="58">
+    <row r="863" spans="1:13" ht="60">
       <c r="A863" t="s">
         <v>522</v>
       </c>
@@ -51387,7 +51426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="864" spans="1:13" ht="29">
+    <row r="864" spans="1:13" ht="45">
       <c r="A864" t="s">
         <v>530</v>
       </c>
@@ -51428,7 +51467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="865" spans="1:13" ht="58">
+    <row r="865" spans="1:13" ht="60">
       <c r="A865" t="s">
         <v>535</v>
       </c>
@@ -51469,7 +51508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="866" spans="1:13" ht="72.5">
+    <row r="866" spans="1:13" ht="75">
       <c r="A866" t="s">
         <v>543</v>
       </c>
@@ -51510,7 +51549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="867" spans="1:13" ht="43.5">
+    <row r="867" spans="1:13" ht="45">
       <c r="A867" t="s">
         <v>551</v>
       </c>
@@ -51551,7 +51590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="868" spans="1:13" ht="43.5">
+    <row r="868" spans="1:13" ht="75">
       <c r="A868" t="s">
         <v>556</v>
       </c>
@@ -51592,7 +51631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="869" spans="1:13" ht="72.5">
+    <row r="869" spans="1:13" ht="75">
       <c r="A869" t="s">
         <v>564</v>
       </c>
@@ -51633,7 +51672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="870" spans="1:13" ht="58">
+    <row r="870" spans="1:13" ht="60">
       <c r="A870" t="s">
         <v>572</v>
       </c>
@@ -51674,7 +51713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="871" spans="1:13" ht="43.5">
+    <row r="871" spans="1:13" ht="45">
       <c r="A871" t="s">
         <v>579</v>
       </c>
@@ -51715,7 +51754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="872" spans="1:13" ht="58">
+    <row r="872" spans="1:13" ht="60">
       <c r="A872" t="s">
         <v>587</v>
       </c>
@@ -51756,7 +51795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="873" spans="1:13" ht="29">
+    <row r="873" spans="1:13" ht="30">
       <c r="A873" t="s">
         <v>595</v>
       </c>
@@ -51797,7 +51836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="874" spans="1:13" ht="43.5">
+    <row r="874" spans="1:13" ht="60">
       <c r="A874" t="s">
         <v>600</v>
       </c>
@@ -51838,7 +51877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="875" spans="1:13" ht="72.5">
+    <row r="875" spans="1:13" ht="90">
       <c r="A875" t="s">
         <v>608</v>
       </c>
@@ -51879,7 +51918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="876" spans="1:13" ht="58">
+    <row r="876" spans="1:13" ht="75">
       <c r="A876" t="s">
         <v>616</v>
       </c>
@@ -51920,7 +51959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="877" spans="1:13" ht="43.5">
+    <row r="877" spans="1:13" ht="60">
       <c r="A877" t="s">
         <v>621</v>
       </c>
@@ -51961,7 +52000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="878" spans="1:13" ht="58">
+    <row r="878" spans="1:13" ht="60">
       <c r="A878" t="s">
         <v>629</v>
       </c>
@@ -52002,7 +52041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="879" spans="1:13" ht="43.5">
+    <row r="879" spans="1:13" ht="45">
       <c r="A879" t="s">
         <v>637</v>
       </c>
@@ -52043,7 +52082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="880" spans="1:13" ht="72.5">
+    <row r="880" spans="1:13" ht="75">
       <c r="A880" t="s">
         <v>642</v>
       </c>
@@ -52084,7 +52123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="881" spans="1:13" ht="72.5">
+    <row r="881" spans="1:13" ht="90">
       <c r="A881" t="s">
         <v>650</v>
       </c>
@@ -52125,7 +52164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="882" spans="1:13" ht="58">
+    <row r="882" spans="1:13" ht="60">
       <c r="A882" t="s">
         <v>658</v>
       </c>
@@ -52166,7 +52205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="883" spans="1:13" ht="29">
+    <row r="883" spans="1:13" ht="45">
       <c r="A883" t="s">
         <v>663</v>
       </c>
@@ -52207,7 +52246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="884" spans="1:13" ht="43.5">
+    <row r="884" spans="1:13" ht="60">
       <c r="A884" t="s">
         <v>671</v>
       </c>
@@ -52248,7 +52287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="885" spans="1:13" ht="29">
+    <row r="885" spans="1:13" ht="45">
       <c r="A885" t="s">
         <v>677</v>
       </c>
@@ -52289,7 +52328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="886" spans="1:13" ht="43.5">
+    <row r="886" spans="1:13" ht="45">
       <c r="A886" t="s">
         <v>682</v>
       </c>
@@ -52330,7 +52369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="887" spans="1:13" ht="43.5">
+    <row r="887" spans="1:13" ht="60">
       <c r="A887" t="s">
         <v>690</v>
       </c>
@@ -52371,7 +52410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="888" spans="1:13" ht="29">
+    <row r="888" spans="1:13" ht="45">
       <c r="A888" t="s">
         <v>698</v>
       </c>
@@ -52412,7 +52451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="889" spans="1:13" ht="72.5">
+    <row r="889" spans="1:13" ht="75">
       <c r="A889" t="s">
         <v>703</v>
       </c>
@@ -52453,7 +52492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="890" spans="1:13" ht="72.5">
+    <row r="890" spans="1:13" ht="75">
       <c r="A890" t="s">
         <v>711</v>
       </c>
@@ -52494,7 +52533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="891" spans="1:13" ht="58">
+    <row r="891" spans="1:13" ht="60">
       <c r="A891" t="s">
         <v>719</v>
       </c>
@@ -52535,7 +52574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="892" spans="1:13" ht="43.5">
+    <row r="892" spans="1:13" ht="60">
       <c r="A892" t="s">
         <v>724</v>
       </c>
@@ -52576,7 +52615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="893" spans="1:13" ht="72.5">
+    <row r="893" spans="1:13" ht="75">
       <c r="A893" t="s">
         <v>732</v>
       </c>
@@ -52617,7 +52656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="894" spans="1:13" ht="43.5">
+    <row r="894" spans="1:13" ht="45">
       <c r="A894" t="s">
         <v>740</v>
       </c>
@@ -52658,7 +52697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="895" spans="1:13" ht="58">
+    <row r="895" spans="1:13" ht="60">
       <c r="A895" t="s">
         <v>745</v>
       </c>
@@ -52699,7 +52738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="896" spans="1:13" ht="43.5">
+    <row r="896" spans="1:13" ht="45">
       <c r="A896" t="s">
         <v>752</v>
       </c>
@@ -52740,7 +52779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="897" spans="1:13" ht="72.5">
+    <row r="897" spans="1:13" ht="90">
       <c r="A897" t="s">
         <v>756</v>
       </c>
@@ -52781,7 +52820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="898" spans="1:13" ht="72.5">
+    <row r="898" spans="1:13" ht="90">
       <c r="A898" t="s">
         <v>763</v>
       </c>
@@ -52822,7 +52861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="899" spans="1:13" ht="72.5">
+    <row r="899" spans="1:13" ht="90">
       <c r="A899" t="s">
         <v>767</v>
       </c>
@@ -52863,7 +52902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="900" spans="1:13" ht="72.5">
+    <row r="900" spans="1:13" ht="90">
       <c r="A900" t="s">
         <v>774</v>
       </c>
@@ -52904,7 +52943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="901" spans="1:13" ht="72.5">
+    <row r="901" spans="1:13" ht="90">
       <c r="A901" t="s">
         <v>778</v>
       </c>
@@ -52945,7 +52984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="902" spans="1:13" ht="72.5">
+    <row r="902" spans="1:13" ht="90">
       <c r="A902" t="s">
         <v>782</v>
       </c>
@@ -52986,7 +53025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="903" spans="1:13" ht="72.5">
+    <row r="903" spans="1:13" ht="75">
       <c r="A903" t="s">
         <v>786</v>
       </c>
@@ -53027,7 +53066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="904" spans="1:13" ht="72.5">
+    <row r="904" spans="1:13" ht="75">
       <c r="A904" t="s">
         <v>793</v>
       </c>
@@ -53068,7 +53107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="905" spans="1:13" ht="72.5">
+    <row r="905" spans="1:13" ht="75">
       <c r="A905" t="s">
         <v>797</v>
       </c>
@@ -53109,7 +53148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="906" spans="1:13" ht="72.5">
+    <row r="906" spans="1:13" ht="75">
       <c r="A906" t="s">
         <v>804</v>
       </c>
@@ -53150,7 +53189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="907" spans="1:13" ht="72.5">
+    <row r="907" spans="1:13" ht="90">
       <c r="A907" t="s">
         <v>808</v>
       </c>
@@ -53191,7 +53230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="908" spans="1:13" ht="72.5">
+    <row r="908" spans="1:13" ht="90">
       <c r="A908" t="s">
         <v>815</v>
       </c>
@@ -53232,7 +53271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="909" spans="1:13" ht="43.5">
+    <row r="909" spans="1:13" ht="45">
       <c r="A909" t="s">
         <v>819</v>
       </c>
@@ -53273,7 +53312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="910" spans="1:13" ht="87">
+    <row r="910" spans="1:13" ht="90">
       <c r="A910" t="s">
         <v>825</v>
       </c>
@@ -53314,7 +53353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="911" spans="1:13" ht="43.5">
+    <row r="911" spans="1:13" ht="45">
       <c r="A911" t="s">
         <v>832</v>
       </c>
@@ -53355,7 +53394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="912" spans="1:13" ht="58">
+    <row r="912" spans="1:13" ht="60">
       <c r="A912" t="s">
         <v>839</v>
       </c>
@@ -53396,7 +53435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="913" spans="1:13" ht="58">
+    <row r="913" spans="1:13" ht="75">
       <c r="A913" t="s">
         <v>846</v>
       </c>
@@ -53437,7 +53476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="914" spans="1:13" ht="87">
+    <row r="914" spans="1:13" ht="105">
       <c r="A914" t="s">
         <v>850</v>
       </c>
@@ -53478,7 +53517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="915" spans="1:13" ht="43.5">
+    <row r="915" spans="1:13" ht="75">
       <c r="A915" t="s">
         <v>857</v>
       </c>
@@ -53519,7 +53558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="916" spans="1:13" ht="43.5">
+    <row r="916" spans="1:13" ht="45">
       <c r="A916" t="s">
         <v>864</v>
       </c>
@@ -53560,7 +53599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="917" spans="1:13" ht="43.5">
+    <row r="917" spans="1:13" ht="45">
       <c r="A917" t="s">
         <v>871</v>
       </c>
@@ -53601,7 +53640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="918" spans="1:13" ht="72.5">
+    <row r="918" spans="1:13" ht="75">
       <c r="A918" t="s">
         <v>875</v>
       </c>
@@ -53642,7 +53681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="919" spans="1:13" ht="58">
+    <row r="919" spans="1:13" ht="60">
       <c r="A919" t="s">
         <v>882</v>
       </c>
@@ -53683,7 +53722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="920" spans="1:13" ht="58">
+    <row r="920" spans="1:13" ht="60">
       <c r="A920" t="s">
         <v>889</v>
       </c>
@@ -53724,7 +53763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="921" spans="1:13" ht="58">
+    <row r="921" spans="1:13" ht="75">
       <c r="A921" t="s">
         <v>893</v>
       </c>
@@ -53765,7 +53804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="922" spans="1:13" ht="58">
+    <row r="922" spans="1:13" ht="60">
       <c r="A922" t="s">
         <v>900</v>
       </c>
@@ -53806,7 +53845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="923" spans="1:13" ht="58">
+    <row r="923" spans="1:13" ht="60">
       <c r="A923" t="s">
         <v>907</v>
       </c>
@@ -53847,7 +53886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="924" spans="1:13" ht="58">
+    <row r="924" spans="1:13" ht="75">
       <c r="A924" t="s">
         <v>913</v>
       </c>
@@ -53888,7 +53927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="925" spans="1:13" ht="43.5">
+    <row r="925" spans="1:13" ht="45">
       <c r="A925" t="s">
         <v>920</v>
       </c>
@@ -53929,7 +53968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="926" spans="1:13" ht="43.5">
+    <row r="926" spans="1:13" ht="45">
       <c r="A926" t="s">
         <v>927</v>
       </c>
@@ -53970,7 +54009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="927" spans="1:13" ht="35.75" customHeight="1">
+    <row r="927" spans="1:13" ht="35.85" customHeight="1">
       <c r="A927" t="s">
         <v>931</v>
       </c>
@@ -54175,7 +54214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="932" spans="1:13" ht="29">
+    <row r="932" spans="1:13" ht="30">
       <c r="A932" t="s">
         <v>967</v>
       </c>
@@ -54216,7 +54255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="933" spans="1:13" ht="29">
+    <row r="933" spans="1:13" ht="30">
       <c r="A933" t="s">
         <v>971</v>
       </c>
@@ -54257,7 +54296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="934" spans="1:13" ht="29">
+    <row r="934" spans="1:13" ht="30">
       <c r="A934" t="s">
         <v>975</v>
       </c>
@@ -54298,7 +54337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="935" spans="1:13" ht="101.5">
+    <row r="935" spans="1:13" ht="105">
       <c r="A935" t="s">
         <v>979</v>
       </c>
@@ -54339,7 +54378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="936" spans="1:13" ht="116">
+    <row r="936" spans="1:13" ht="120">
       <c r="A936" t="s">
         <v>983</v>
       </c>
@@ -54380,7 +54419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="937" spans="1:13" ht="217.5">
+    <row r="937" spans="1:13" ht="240">
       <c r="A937" t="s">
         <v>1004</v>
       </c>
@@ -54421,7 +54460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="938" spans="1:13" ht="188.5">
+    <row r="938" spans="1:13" ht="195">
       <c r="A938" t="s">
         <v>1013</v>
       </c>
@@ -54828,7 +54867,131 @@
         <v>23</v>
       </c>
     </row>
+    <row r="948" spans="1:13">
+      <c r="A948">
+        <v>1282</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D948" t="s">
+        <v>15</v>
+      </c>
+      <c r="E948" t="s">
+        <v>16</v>
+      </c>
+      <c r="F948" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G948">
+        <v>10002</v>
+      </c>
+      <c r="H948" t="s">
+        <v>118</v>
+      </c>
+      <c r="I948" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J948" t="s">
+        <v>20</v>
+      </c>
+      <c r="K948" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L948" t="s">
+        <v>22</v>
+      </c>
+      <c r="M948" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13">
+      <c r="A949">
+        <v>1283</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D949" t="s">
+        <v>15</v>
+      </c>
+      <c r="E949" t="s">
+        <v>16</v>
+      </c>
+      <c r="F949" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G949">
+        <v>10002</v>
+      </c>
+      <c r="H949" t="s">
+        <v>118</v>
+      </c>
+      <c r="I949" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J949" t="s">
+        <v>35</v>
+      </c>
+      <c r="K949" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L949" t="s">
+        <v>22</v>
+      </c>
+      <c r="M949" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13">
+      <c r="A950">
+        <v>1284</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D950" t="s">
+        <v>15</v>
+      </c>
+      <c r="E950" t="s">
+        <v>16</v>
+      </c>
+      <c r="F950" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G950">
+        <v>10002</v>
+      </c>
+      <c r="H950" t="s">
+        <v>118</v>
+      </c>
+      <c r="I950" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J950" t="s">
+        <v>43</v>
+      </c>
+      <c r="K950" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L950" t="s">
+        <v>22</v>
+      </c>
+      <c r="M950" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M950"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP_REPO\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1072510\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1AB73E-DE1F-4209-8F91-FA3461893EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15330,42 +15331,42 @@
     <t>Rendez-vous annulé : $ApplicationDetails | ID de lapplication : $ApplicationId</t>
   </si>
   <si>
-    <t>تم إلغاء الموعد : ApplicationDetails$ | معرف التطبيق: ApplicationId$</t>
-  </si>
-  <si>
-    <t>عزيزي name$،
-يرجى ملاحظة أنه تم إلغاء موعد ApplicationDetails$ الخاص بك مقابل معرّف التطبيق ApplicationId$ وتاريخ الموعد Appointmentdate$ و زمن Appointmenttime$.
-اطلب منك تسجيل الدخول إلى البوابة الإلكترونية وإعادة حجز مكان آخر لـ ApplicationDetails$.
+    <t>Android Registration Preview Template</t>
+  </si>
+  <si>
+    <t>Preview generated after android registration</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:400px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("fullName") ) &lt;th&gt;$demographics.get("fullName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("fullName") ) &lt;td&gt;$demographics.get("fullName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("addressLine1") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Address&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;th&gt;$demographics.get("addressLine1").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;td&gt;$demographics.get("addressLine1").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("province") ) &lt;th&gt;$demographics.get("province").get("label")&lt;/th&gt; #end #if( $demographics.get("city") ) &lt;th&gt;$demographics.get("city").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("province") ) &lt;td&gt;$demographics.get("province").get("value")&lt;/td&gt; #end #if( $demographics.get("city") ) &lt;td&gt;$demographics.get("city").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;th&gt;$demographics.get("zone").get("label")&lt;/th&gt; #end #if( $demographics.get("postalCode") ) &lt;th&gt;$demographics.get("postalCode").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;td&gt;$demographics.get("zone").get("value")&lt;/td&gt; #end #if( $demographics.get("postalCode") ) &lt;td&gt;$demographics.get("postalCode").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("parentOrGuardianName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Gaurdian Details&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("parentOrGuardianName").get("label")&lt;/th&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;th&gt;$demographics.get("parentOrGuardianRID").get("label")&lt;/th&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;th&gt;$demographics.get("parentOrGuardianUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("parentOrGuardianName").get("value")&lt;/td&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;td&gt;$demographics.get("parentOrGuardianRID").get("value")&lt;/td&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;td&gt;$demographics.get("parentOrGuardianUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>reg-android-preview-template-part</t>
+  </si>
+  <si>
+    <t>شكر وتقدير: $ApplicationDetails | معرف التطبيق: $ApplicationId</t>
+  </si>
+  <si>
+    <t>تم إلغاء الموعد : $ApplicationDetails | معرف التطبيق: $ApplicationId</t>
+  </si>
+  <si>
+    <t>عزيزي $name،
+اكتمل تطبيقك $ApplicationDetails بنجاح في $Date في $Time.
+معرف التطبيق الخاص بك هو $ApplicationId.
+تمت جدولة الموعد لـ $Appointmentdate بالدولار $Appointmenttime
+في مركز التسجيل $RegistrationCenterName في عنوان مركز التسجيل
+$RegistrationCenterAddress.</t>
+  </si>
+  <si>
+    <t>عزيزي $name،
+يرجى ملاحظة أنه تم إلغاء موعد $ApplicationDetails الخاص بك مقابل معرّف التطبيق $ApplicationId وتاريخ الموعد $Appointmentdate و زمن $Appointmenttime.
+اطلب منك تسجيل الدخول إلى البوابة الإلكترونية وإعادة حجز مكان آخر لـ $ApplicationDetails.
 شكرًا لك.</t>
-  </si>
-  <si>
-    <t>عزيزي name$،
-اكتمل تطبيقك ApplicationDetails$ بنجاح في $Date في $Time.
-معرف التطبيق الخاص بك هو ApplicationId$.
-تمت جدولة الموعد لـ Appointmentdate$ بالدولار Appointmenttime$
-في مركز التسجيل RegistrationCenterName$ في عنوان مركز التسجيل
-RegistrationCenterAddress$.</t>
-  </si>
-  <si>
-    <t>شكر وتقدير: ApplicationDetails$ | معرف التطبيق: ApplicationId$</t>
-  </si>
-  <si>
-    <t>Android Registration Preview Template</t>
-  </si>
-  <si>
-    <t>Preview generated after android registration</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:400px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("fullName") ) &lt;th&gt;$demographics.get("fullName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("fullName") ) &lt;td&gt;$demographics.get("fullName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("addressLine1") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Address&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;th&gt;$demographics.get("addressLine1").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;td&gt;$demographics.get("addressLine1").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("province") ) &lt;th&gt;$demographics.get("province").get("label")&lt;/th&gt; #end #if( $demographics.get("city") ) &lt;th&gt;$demographics.get("city").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("province") ) &lt;td&gt;$demographics.get("province").get("value")&lt;/td&gt; #end #if( $demographics.get("city") ) &lt;td&gt;$demographics.get("city").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;th&gt;$demographics.get("zone").get("label")&lt;/th&gt; #end #if( $demographics.get("postalCode") ) &lt;th&gt;$demographics.get("postalCode").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;td&gt;$demographics.get("zone").get("value")&lt;/td&gt; #end #if( $demographics.get("postalCode") ) &lt;td&gt;$demographics.get("postalCode").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("parentOrGuardianName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Gaurdian Details&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("parentOrGuardianName").get("label")&lt;/th&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;th&gt;$demographics.get("parentOrGuardianRID").get("label")&lt;/th&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;th&gt;$demographics.get("parentOrGuardianUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("parentOrGuardianName").get("value")&lt;/td&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;td&gt;$demographics.get("parentOrGuardianRID").get("value")&lt;/td&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;td&gt;$demographics.get("parentOrGuardianUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>reg-android-preview-template-part</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -15502,7 +15503,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -15814,29 +15815,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A939" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A948" sqref="A948:M950"/>
+    <sheetView tabSelected="1" topLeftCell="D613" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H618" sqref="H618"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="50.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" customWidth="1"/>
+    <col min="9" max="9" width="30.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
     <col min="11" max="11" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="953" max="1024" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="22.7265625" customWidth="1"/>
+    <col min="953" max="1024" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16126,7 +16127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45">
+    <row r="8" spans="1:13" ht="43.5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -16208,7 +16209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30">
+    <row r="10" spans="1:13" ht="29">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -16905,7 +16906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="45">
+    <row r="27" spans="1:13" ht="43.5">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -16946,7 +16947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="45">
+    <row r="28" spans="1:13" ht="43.5">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -16987,7 +16988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="45">
+    <row r="29" spans="1:13" ht="43.5">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -17028,7 +17029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="45">
+    <row r="30" spans="1:13" ht="43.5">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -17069,7 +17070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30">
+    <row r="31" spans="1:13" ht="29">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30">
+    <row r="32" spans="1:13" ht="29">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -17151,7 +17152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="45">
+    <row r="33" spans="1:13" ht="43.5">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -17192,7 +17193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="45">
+    <row r="34" spans="1:13" ht="43.5">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -17971,7 +17972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="59.25">
+    <row r="53" spans="1:13" ht="57.5">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -18012,7 +18013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="29.25">
+    <row r="54" spans="1:13" ht="28.5">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -18053,7 +18054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="59.25">
+    <row r="55" spans="1:13" ht="57.5">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="45">
+    <row r="56" spans="1:13" ht="43.5">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -18135,7 +18136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30">
+    <row r="57" spans="1:13" ht="29">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="45">
+    <row r="58" spans="1:13" ht="43.5">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -18217,7 +18218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="59.25">
+    <row r="59" spans="1:13" ht="57.5">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -18258,7 +18259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="29.25">
+    <row r="60" spans="1:13" ht="28.5">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -18299,7 +18300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="59.25">
+    <row r="61" spans="1:13" ht="57.5">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -18340,7 +18341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="135">
+    <row r="62" spans="1:13" ht="130.5">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -18586,7 +18587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="150">
+    <row r="68" spans="1:13" ht="145">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -18832,7 +18833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="129">
+    <row r="74" spans="1:13" ht="112.5">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -18849,7 +18850,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="G74">
         <v>10001</v>
@@ -18873,7 +18874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30">
+    <row r="75" spans="1:13" ht="29">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -18914,7 +18915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="45">
+    <row r="76" spans="1:13" ht="29">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -18955,7 +18956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="29.25">
+    <row r="77" spans="1:13" ht="28.5">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="29">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -19037,7 +19038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="60">
+    <row r="79" spans="1:13" ht="58">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="29.25">
+    <row r="82" spans="1:13" ht="28.5">
       <c r="A82" t="s">
         <v>227</v>
       </c>
@@ -19177,7 +19178,7 @@
         <v>16</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="G82">
         <v>10001</v>
@@ -19406,7 +19407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="30">
+    <row r="88" spans="1:13" ht="29">
       <c r="A88" t="s">
         <v>241</v>
       </c>
@@ -19529,7 +19530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30">
+    <row r="91" spans="1:13" ht="29">
       <c r="A91" t="s">
         <v>248</v>
       </c>
@@ -19652,7 +19653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30">
+    <row r="94" spans="1:13" ht="29">
       <c r="A94" t="s">
         <v>255</v>
       </c>
@@ -19775,7 +19776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30">
+    <row r="97" spans="1:13" ht="29">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -19898,7 +19899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="135">
+    <row r="100" spans="1:13" ht="130.5">
       <c r="A100" t="s">
         <v>269</v>
       </c>
@@ -20021,7 +20022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="135">
+    <row r="103" spans="1:13" ht="130.5">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -20431,7 +20432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="29.25">
+    <row r="113" spans="1:13" ht="28.5">
       <c r="A113" t="s">
         <v>306</v>
       </c>
@@ -20554,7 +20555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="29.25">
+    <row r="116" spans="1:13" ht="28.5">
       <c r="A116" t="s">
         <v>312</v>
       </c>
@@ -20800,7 +20801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="29.25">
+    <row r="122" spans="1:13" ht="28.5">
       <c r="A122" t="s">
         <v>318</v>
       </c>
@@ -20923,7 +20924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="29.25">
+    <row r="125" spans="1:13" ht="28.5">
       <c r="A125" t="s">
         <v>320</v>
       </c>
@@ -21169,7 +21170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="29.25">
+    <row r="131" spans="1:13" ht="28.5">
       <c r="A131" t="s">
         <v>322</v>
       </c>
@@ -21292,7 +21293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="29.25">
+    <row r="134" spans="1:13" ht="28.5">
       <c r="A134" t="s">
         <v>323</v>
       </c>
@@ -21415,7 +21416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="45">
+    <row r="137" spans="1:13" ht="29">
       <c r="A137" t="s">
         <v>324</v>
       </c>
@@ -21538,7 +21539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="29.25">
+    <row r="140" spans="1:13" ht="28.5">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -21661,7 +21662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30">
+    <row r="143" spans="1:13" ht="29">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -21784,7 +21785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="87.75">
+    <row r="146" spans="1:13" ht="71">
       <c r="A146" t="s">
         <v>348</v>
       </c>
@@ -21907,7 +21908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="30">
+    <row r="149" spans="1:13" ht="29">
       <c r="A149" t="s">
         <v>356</v>
       </c>
@@ -22030,7 +22031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="30">
+    <row r="152" spans="1:13" ht="29">
       <c r="A152" t="s">
         <v>363</v>
       </c>
@@ -22153,7 +22154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="44.25">
+    <row r="155" spans="1:13" ht="28.5">
       <c r="A155" t="s">
         <v>366</v>
       </c>
@@ -22276,7 +22277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="44.25">
+    <row r="158" spans="1:13" ht="28.5">
       <c r="A158" t="s">
         <v>371</v>
       </c>
@@ -22317,7 +22318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="120">
+    <row r="159" spans="1:13" ht="116">
       <c r="A159" t="s">
         <v>373</v>
       </c>
@@ -22358,7 +22359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="150">
+    <row r="160" spans="1:13" ht="130.5">
       <c r="A160" t="s">
         <v>373</v>
       </c>
@@ -22399,7 +22400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="100.5">
+    <row r="161" spans="1:13" ht="98.5">
       <c r="A161" t="s">
         <v>373</v>
       </c>
@@ -22416,7 +22417,7 @@
         <v>16</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
       <c r="G161">
         <v>10001</v>
@@ -22522,7 +22523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="45">
+    <row r="164" spans="1:13" ht="29">
       <c r="A164" t="s">
         <v>378</v>
       </c>
@@ -22645,7 +22646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="45">
+    <row r="167" spans="1:13" ht="43.5">
       <c r="A167" t="s">
         <v>386</v>
       </c>
@@ -22891,7 +22892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="30">
+    <row r="173" spans="1:13" ht="29">
       <c r="A173" t="s">
         <v>401</v>
       </c>
@@ -23014,7 +23015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="30">
+    <row r="176" spans="1:13" ht="29">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -23137,7 +23138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="29.25">
+    <row r="179" spans="1:13" ht="28.5">
       <c r="A179" t="s">
         <v>417</v>
       </c>
@@ -23260,7 +23261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="30">
+    <row r="182" spans="1:13" ht="29">
       <c r="A182" t="s">
         <v>425</v>
       </c>
@@ -23383,7 +23384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="29.25">
+    <row r="185" spans="1:13" ht="28.5">
       <c r="A185" t="s">
         <v>433</v>
       </c>
@@ -23506,7 +23507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="30">
+    <row r="188" spans="1:13" ht="29">
       <c r="A188" t="s">
         <v>443</v>
       </c>
@@ -23629,7 +23630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="30">
+    <row r="191" spans="1:13" ht="29">
       <c r="A191" t="s">
         <v>448</v>
       </c>
@@ -23752,7 +23753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="29.25">
+    <row r="194" spans="1:13" ht="28.5">
       <c r="A194" t="s">
         <v>456</v>
       </c>
@@ -23875,7 +23876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="30">
+    <row r="197" spans="1:13" ht="29">
       <c r="A197" t="s">
         <v>464</v>
       </c>
@@ -23998,7 +23999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="30">
+    <row r="200" spans="1:13" ht="29">
       <c r="A200" t="s">
         <v>469</v>
       </c>
@@ -24121,7 +24122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="29.25">
+    <row r="203" spans="1:13" ht="28.5">
       <c r="A203" t="s">
         <v>477</v>
       </c>
@@ -24244,7 +24245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="30">
+    <row r="206" spans="1:13" ht="29">
       <c r="A206" t="s">
         <v>485</v>
       </c>
@@ -24367,7 +24368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="30">
+    <row r="209" spans="1:13" ht="29">
       <c r="A209" t="s">
         <v>490</v>
       </c>
@@ -24490,7 +24491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="29.25">
+    <row r="212" spans="1:13" ht="28.5">
       <c r="A212" t="s">
         <v>498</v>
       </c>
@@ -24613,7 +24614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="30">
+    <row r="215" spans="1:13" ht="29">
       <c r="A215" t="s">
         <v>506</v>
       </c>
@@ -24736,7 +24737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="30">
+    <row r="218" spans="1:13" ht="28.5">
       <c r="A218" t="s">
         <v>511</v>
       </c>
@@ -24859,7 +24860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="29.25">
+    <row r="221" spans="1:13" ht="28.5">
       <c r="A221" t="s">
         <v>519</v>
       </c>
@@ -24982,7 +24983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="30">
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
         <v>527</v>
       </c>
@@ -25105,7 +25106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="30">
+    <row r="227" spans="1:13" ht="29">
       <c r="A227" t="s">
         <v>532</v>
       </c>
@@ -25228,7 +25229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="29.25">
+    <row r="230" spans="1:13" ht="28.5">
       <c r="A230" t="s">
         <v>540</v>
       </c>
@@ -25351,7 +25352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="30">
+    <row r="233" spans="1:13" ht="29">
       <c r="A233" t="s">
         <v>548</v>
       </c>
@@ -25474,7 +25475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="30">
+    <row r="236" spans="1:13" ht="29">
       <c r="A236" t="s">
         <v>553</v>
       </c>
@@ -25597,7 +25598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="43.5">
+    <row r="239" spans="1:13" ht="28.5">
       <c r="A239" t="s">
         <v>561</v>
       </c>
@@ -25720,7 +25721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="30">
+    <row r="242" spans="1:13" ht="28.5">
       <c r="A242" t="s">
         <v>569</v>
       </c>
@@ -25843,7 +25844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="30">
+    <row r="245" spans="1:13" ht="29">
       <c r="A245" t="s">
         <v>576</v>
       </c>
@@ -25966,7 +25967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="29.25">
+    <row r="248" spans="1:13" ht="28.5">
       <c r="A248" t="s">
         <v>584</v>
       </c>
@@ -26089,7 +26090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="30">
+    <row r="251" spans="1:13" ht="29">
       <c r="A251" t="s">
         <v>592</v>
       </c>
@@ -26212,7 +26213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="30">
+    <row r="254" spans="1:13" ht="29">
       <c r="A254" t="s">
         <v>597</v>
       </c>
@@ -26335,7 +26336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="29.25">
+    <row r="257" spans="1:13" ht="28.5">
       <c r="A257" t="s">
         <v>605</v>
       </c>
@@ -26458,7 +26459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="30">
+    <row r="260" spans="1:13" ht="29">
       <c r="A260" t="s">
         <v>613</v>
       </c>
@@ -26581,7 +26582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="30">
+    <row r="263" spans="1:13" ht="29">
       <c r="A263" t="s">
         <v>618</v>
       </c>
@@ -26704,7 +26705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="29.25">
+    <row r="266" spans="1:13" ht="28.5">
       <c r="A266" t="s">
         <v>626</v>
       </c>
@@ -26827,7 +26828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="30">
+    <row r="269" spans="1:13" ht="29">
       <c r="A269" t="s">
         <v>634</v>
       </c>
@@ -26950,7 +26951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="30">
+    <row r="272" spans="1:13" ht="29">
       <c r="A272" t="s">
         <v>639</v>
       </c>
@@ -27073,7 +27074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="43.5">
+    <row r="275" spans="1:13" ht="42.5">
       <c r="A275" t="s">
         <v>647</v>
       </c>
@@ -27196,7 +27197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="30">
+    <row r="278" spans="1:13" ht="29">
       <c r="A278" t="s">
         <v>655</v>
       </c>
@@ -27319,7 +27320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="30">
+    <row r="281" spans="1:13" ht="29">
       <c r="A281" t="s">
         <v>660</v>
       </c>
@@ -27442,7 +27443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="30">
+    <row r="284" spans="1:13" ht="29">
       <c r="A284" t="s">
         <v>668</v>
       </c>
@@ -27565,7 +27566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="30">
+    <row r="287" spans="1:13" ht="29">
       <c r="A287" t="s">
         <v>674</v>
       </c>
@@ -27688,7 +27689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="30">
+    <row r="290" spans="1:13" ht="29">
       <c r="A290" t="s">
         <v>679</v>
       </c>
@@ -27811,7 +27812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="29.25">
+    <row r="293" spans="1:13" ht="28.5">
       <c r="A293" t="s">
         <v>687</v>
       </c>
@@ -27934,7 +27935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="30">
+    <row r="296" spans="1:13" ht="29">
       <c r="A296" t="s">
         <v>695</v>
       </c>
@@ -28057,7 +28058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="30">
+    <row r="299" spans="1:13" ht="29">
       <c r="A299" t="s">
         <v>700</v>
       </c>
@@ -28180,7 +28181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="44.25">
+    <row r="302" spans="1:13" ht="29">
       <c r="A302" t="s">
         <v>708</v>
       </c>
@@ -28303,7 +28304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="30">
+    <row r="305" spans="1:13" ht="29">
       <c r="A305" t="s">
         <v>716</v>
       </c>
@@ -28426,7 +28427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="30">
+    <row r="308" spans="1:13" ht="29">
       <c r="A308" t="s">
         <v>721</v>
       </c>
@@ -28549,7 +28550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="30">
+    <row r="311" spans="1:13" ht="29">
       <c r="A311" t="s">
         <v>729</v>
       </c>
@@ -28672,7 +28673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="30">
+    <row r="314" spans="1:13" ht="29">
       <c r="A314" t="s">
         <v>737</v>
       </c>
@@ -28795,7 +28796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="43.5">
+    <row r="317" spans="1:13" ht="29">
       <c r="A317" t="s">
         <v>742</v>
       </c>
@@ -28918,7 +28919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="30">
+    <row r="320" spans="1:13" ht="29">
       <c r="A320" t="s">
         <v>749</v>
       </c>
@@ -29041,7 +29042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="43.5">
+    <row r="323" spans="1:13" ht="29">
       <c r="A323" t="s">
         <v>753</v>
       </c>
@@ -29164,7 +29165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="30">
+    <row r="326" spans="1:13" ht="29">
       <c r="A326" t="s">
         <v>760</v>
       </c>
@@ -29287,7 +29288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="43.5">
+    <row r="329" spans="1:13" ht="29">
       <c r="A329" t="s">
         <v>764</v>
       </c>
@@ -29410,7 +29411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="30">
+    <row r="332" spans="1:13" ht="29">
       <c r="A332" t="s">
         <v>771</v>
       </c>
@@ -29533,7 +29534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="43.5">
+    <row r="335" spans="1:13" ht="29">
       <c r="A335" t="s">
         <v>775</v>
       </c>
@@ -29656,7 +29657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="30">
+    <row r="338" spans="1:13" ht="29">
       <c r="A338" t="s">
         <v>779</v>
       </c>
@@ -29779,7 +29780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="43.5">
+    <row r="341" spans="1:13" ht="42.5">
       <c r="A341" t="s">
         <v>783</v>
       </c>
@@ -29902,7 +29903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="30">
+    <row r="344" spans="1:13" ht="29">
       <c r="A344" t="s">
         <v>790</v>
       </c>
@@ -30025,7 +30026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="43.5">
+    <row r="347" spans="1:13" ht="29">
       <c r="A347" t="s">
         <v>794</v>
       </c>
@@ -30148,7 +30149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="30">
+    <row r="350" spans="1:13" ht="29">
       <c r="A350" t="s">
         <v>801</v>
       </c>
@@ -30271,7 +30272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="43.5">
+    <row r="353" spans="1:13" ht="29">
       <c r="A353" t="s">
         <v>805</v>
       </c>
@@ -30394,7 +30395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="44.25">
+    <row r="356" spans="1:13" ht="43">
       <c r="A356" t="s">
         <v>812</v>
       </c>
@@ -30517,7 +30518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="43.5">
+    <row r="359" spans="1:13" ht="28.5">
       <c r="A359" t="s">
         <v>816</v>
       </c>
@@ -30640,7 +30641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="43.5">
+    <row r="362" spans="1:13" ht="28.5">
       <c r="A362" t="s">
         <v>822</v>
       </c>
@@ -30763,7 +30764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="29.25">
+    <row r="365" spans="1:13" ht="28.5">
       <c r="A365" t="s">
         <v>829</v>
       </c>
@@ -30886,7 +30887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="43.5">
+    <row r="368" spans="1:13" ht="42.5">
       <c r="A368" t="s">
         <v>836</v>
       </c>
@@ -31009,7 +31010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="43.5">
+    <row r="371" spans="1:13" ht="42.5">
       <c r="A371" t="s">
         <v>843</v>
       </c>
@@ -31132,7 +31133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="43.5">
+    <row r="374" spans="1:13" ht="28.5">
       <c r="A374" t="s">
         <v>847</v>
       </c>
@@ -31255,7 +31256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="43.5">
+    <row r="377" spans="1:13" ht="42.5">
       <c r="A377" t="s">
         <v>854</v>
       </c>
@@ -31378,7 +31379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="60">
+    <row r="380" spans="1:13" ht="43.5">
       <c r="A380" t="s">
         <v>861</v>
       </c>
@@ -31501,7 +31502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="60">
+    <row r="383" spans="1:13" ht="43.5">
       <c r="A383" t="s">
         <v>868</v>
       </c>
@@ -31624,7 +31625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="30">
+    <row r="386" spans="1:13" ht="29">
       <c r="A386" t="s">
         <v>872</v>
       </c>
@@ -31747,7 +31748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="30">
+    <row r="389" spans="1:13" ht="29">
       <c r="A389" t="s">
         <v>879</v>
       </c>
@@ -31870,7 +31871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="30">
+    <row r="392" spans="1:13" ht="29">
       <c r="A392" t="s">
         <v>886</v>
       </c>
@@ -31993,7 +31994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="29.25">
+    <row r="395" spans="1:13" ht="28.5">
       <c r="A395" t="s">
         <v>890</v>
       </c>
@@ -32116,7 +32117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="30">
+    <row r="398" spans="1:13" ht="29">
       <c r="A398" t="s">
         <v>897</v>
       </c>
@@ -32239,7 +32240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="30">
+    <row r="401" spans="1:13" ht="29">
       <c r="A401" t="s">
         <v>904</v>
       </c>
@@ -32362,7 +32363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="29.25">
+    <row r="404" spans="1:13" ht="28.5">
       <c r="A404" t="s">
         <v>910</v>
       </c>
@@ -32485,7 +32486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="60">
+    <row r="407" spans="1:13" ht="43.5">
       <c r="A407" t="s">
         <v>917</v>
       </c>
@@ -32608,7 +32609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="60">
+    <row r="410" spans="1:13" ht="43.5">
       <c r="A410" t="s">
         <v>924</v>
       </c>
@@ -32731,7 +32732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="30">
+    <row r="413" spans="1:13" ht="29">
       <c r="A413" t="s">
         <v>928</v>
       </c>
@@ -33756,7 +33757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="165">
+    <row r="438" spans="1:13" ht="159.5">
       <c r="A438" t="s">
         <v>1010</v>
       </c>
@@ -33797,7 +33798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="180">
+    <row r="439" spans="1:13" ht="174">
       <c r="A439" t="s">
         <v>1010</v>
       </c>
@@ -33838,7 +33839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="89.25">
+    <row r="440" spans="1:13" ht="72.5">
       <c r="A440" t="s">
         <v>1010</v>
       </c>
@@ -33917,7 +33918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="150">
+    <row r="442" spans="1:13" ht="145">
       <c r="A442" t="s">
         <v>1018</v>
       </c>
@@ -33958,7 +33959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="30">
+    <row r="443" spans="1:13" ht="29">
       <c r="A443" t="s">
         <v>1018</v>
       </c>
@@ -34078,7 +34079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="29.25">
+    <row r="446" spans="1:13" ht="28.5">
       <c r="A446" t="s">
         <v>1024</v>
       </c>
@@ -34201,7 +34202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="29.25">
+    <row r="449" spans="1:13" ht="28.5">
       <c r="A449" t="s">
         <v>1029</v>
       </c>
@@ -34816,7 +34817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="29.25">
+    <row r="464" spans="1:13" ht="28.5">
       <c r="A464" t="s">
         <v>1054</v>
       </c>
@@ -34956,7 +34957,7 @@
         <v>16</v>
       </c>
       <c r="F467" s="7" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="G467">
         <v>10001</v>
@@ -34980,7 +34981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="60">
+    <row r="468" spans="1:13" ht="58">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -35021,7 +35022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="30">
+    <row r="469" spans="1:13" ht="29">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -35062,7 +35063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="30">
+    <row r="470" spans="1:13" ht="29">
       <c r="A470" t="s">
         <v>28</v>
       </c>
@@ -35103,7 +35104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="30">
+    <row r="471" spans="1:13" ht="29">
       <c r="A471" t="s">
         <v>48</v>
       </c>
@@ -35144,7 +35145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="30">
+    <row r="472" spans="1:13" ht="29">
       <c r="A472" t="s">
         <v>53</v>
       </c>
@@ -35185,7 +35186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="30">
+    <row r="473" spans="1:13" ht="29">
       <c r="A473" t="s">
         <v>57</v>
       </c>
@@ -35226,7 +35227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="30">
+    <row r="474" spans="1:13" ht="29">
       <c r="A474" t="s">
         <v>61</v>
       </c>
@@ -35267,7 +35268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="30">
+    <row r="475" spans="1:13" ht="29">
       <c r="A475" t="s">
         <v>65</v>
       </c>
@@ -35308,7 +35309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="30">
+    <row r="476" spans="1:13" ht="29">
       <c r="A476" t="s">
         <v>69</v>
       </c>
@@ -35349,7 +35350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="45">
+    <row r="477" spans="1:13" ht="29">
       <c r="A477" t="s">
         <v>73</v>
       </c>
@@ -35390,7 +35391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="45">
+    <row r="478" spans="1:13" ht="29">
       <c r="A478" t="s">
         <v>77</v>
       </c>
@@ -35431,7 +35432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="45">
+    <row r="479" spans="1:13" ht="43.5">
       <c r="A479" t="s">
         <v>115</v>
       </c>
@@ -35472,7 +35473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="45">
+    <row r="480" spans="1:13" ht="43.5">
       <c r="A480" t="s">
         <v>120</v>
       </c>
@@ -35513,7 +35514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="30">
+    <row r="481" spans="1:13" ht="29">
       <c r="A481" t="s">
         <v>124</v>
       </c>
@@ -35554,7 +35555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="30">
+    <row r="482" spans="1:13" ht="29">
       <c r="A482" t="s">
         <v>127</v>
       </c>
@@ -35595,7 +35596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="30">
+    <row r="483" spans="1:13" ht="29">
       <c r="A483" t="s">
         <v>131</v>
       </c>
@@ -35677,7 +35678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="60">
+    <row r="485" spans="1:13" ht="43.5">
       <c r="A485" t="s">
         <v>138</v>
       </c>
@@ -35718,7 +35719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="60">
+    <row r="486" spans="1:13" ht="43.5">
       <c r="A486" t="s">
         <v>142</v>
       </c>
@@ -35759,7 +35760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="45">
+    <row r="487" spans="1:13" ht="43.5">
       <c r="A487" t="s">
         <v>146</v>
       </c>
@@ -35800,7 +35801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="30">
+    <row r="488" spans="1:13" ht="29">
       <c r="A488" t="s">
         <v>182</v>
       </c>
@@ -35841,7 +35842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="30">
+    <row r="489" spans="1:13" ht="29">
       <c r="A489" t="s">
         <v>186</v>
       </c>
@@ -35882,7 +35883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="30">
+    <row r="490" spans="1:13" ht="29">
       <c r="A490" t="s">
         <v>190</v>
       </c>
@@ -35923,7 +35924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="30">
+    <row r="491" spans="1:13" ht="29">
       <c r="A491" t="s">
         <v>194</v>
       </c>
@@ -36005,7 +36006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="30">
+    <row r="493" spans="1:13" ht="29">
       <c r="A493" t="s">
         <v>201</v>
       </c>
@@ -36046,7 +36047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="30">
+    <row r="494" spans="1:13" ht="29">
       <c r="A494" t="s">
         <v>227</v>
       </c>
@@ -36087,7 +36088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="11" customFormat="1">
+    <row r="495" spans="1:13" s="11" customFormat="1" ht="15.5">
       <c r="A495" s="11">
         <v>1131</v>
       </c>
@@ -36128,7 +36129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="45">
+    <row r="496" spans="1:13" ht="29">
       <c r="A496" t="s">
         <v>241</v>
       </c>
@@ -36169,7 +36170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="30">
+    <row r="497" spans="1:13" ht="29">
       <c r="A497" t="s">
         <v>248</v>
       </c>
@@ -36210,7 +36211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="45">
+    <row r="498" spans="1:13" ht="29">
       <c r="A498" t="s">
         <v>255</v>
       </c>
@@ -36251,7 +36252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="45">
+    <row r="499" spans="1:13" ht="43.5">
       <c r="A499" t="s">
         <v>262</v>
       </c>
@@ -36538,7 +36539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="30">
+    <row r="506" spans="1:13" ht="29">
       <c r="A506" t="s">
         <v>298</v>
       </c>
@@ -36579,7 +36580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="30">
+    <row r="507" spans="1:13" ht="29">
       <c r="A507" t="s">
         <v>306</v>
       </c>
@@ -36620,7 +36621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="30">
+    <row r="508" spans="1:13" ht="29">
       <c r="A508" t="s">
         <v>312</v>
       </c>
@@ -36661,7 +36662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:13" ht="30">
+    <row r="509" spans="1:13">
       <c r="A509" t="s">
         <v>314</v>
       </c>
@@ -36702,7 +36703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="30">
+    <row r="510" spans="1:13" ht="29">
       <c r="A510" t="s">
         <v>318</v>
       </c>
@@ -36743,7 +36744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="30">
+    <row r="511" spans="1:13" ht="29">
       <c r="A511" t="s">
         <v>320</v>
       </c>
@@ -36784,7 +36785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="30">
+    <row r="512" spans="1:13" ht="29">
       <c r="A512" t="s">
         <v>321</v>
       </c>
@@ -36825,7 +36826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="30">
+    <row r="513" spans="1:13" ht="29">
       <c r="A513" t="s">
         <v>322</v>
       </c>
@@ -36866,7 +36867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="30">
+    <row r="514" spans="1:13" ht="29">
       <c r="A514" t="s">
         <v>323</v>
       </c>
@@ -36907,7 +36908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="30">
+    <row r="515" spans="1:13" ht="29">
       <c r="A515" t="s">
         <v>324</v>
       </c>
@@ -36948,7 +36949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="30">
+    <row r="516" spans="1:13" ht="29">
       <c r="A516" t="s">
         <v>332</v>
       </c>
@@ -36989,7 +36990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="30">
+    <row r="517" spans="1:13" ht="29">
       <c r="A517" t="s">
         <v>340</v>
       </c>
@@ -37235,7 +37236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="45">
+    <row r="523" spans="1:13" ht="29">
       <c r="A523" t="s">
         <v>373</v>
       </c>
@@ -37276,7 +37277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="30">
+    <row r="524" spans="1:13" ht="29">
       <c r="A524" t="s">
         <v>378</v>
       </c>
@@ -37317,7 +37318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="30">
+    <row r="525" spans="1:13" ht="29">
       <c r="A525" t="s">
         <v>386</v>
       </c>
@@ -37399,7 +37400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="45">
+    <row r="527" spans="1:13" ht="43.5">
       <c r="A527" t="s">
         <v>401</v>
       </c>
@@ -37440,7 +37441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="30">
+    <row r="528" spans="1:13" ht="29">
       <c r="A528" t="s">
         <v>411</v>
       </c>
@@ -37481,7 +37482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="45">
+    <row r="529" spans="1:13" ht="43.5">
       <c r="A529" t="s">
         <v>417</v>
       </c>
@@ -37522,7 +37523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:13" ht="45">
+    <row r="530" spans="1:13" ht="29">
       <c r="A530" t="s">
         <v>425</v>
       </c>
@@ -37563,7 +37564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:13" ht="45">
+    <row r="531" spans="1:13" ht="43.5">
       <c r="A531" t="s">
         <v>433</v>
       </c>
@@ -37604,7 +37605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="30">
+    <row r="532" spans="1:13" ht="29">
       <c r="A532" t="s">
         <v>443</v>
       </c>
@@ -37645,7 +37646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="45">
+    <row r="533" spans="1:13" ht="29">
       <c r="A533" t="s">
         <v>448</v>
       </c>
@@ -37686,7 +37687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="45">
+    <row r="534" spans="1:13" ht="43.5">
       <c r="A534" t="s">
         <v>456</v>
       </c>
@@ -37727,7 +37728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="30">
+    <row r="535" spans="1:13" ht="29">
       <c r="A535" t="s">
         <v>464</v>
       </c>
@@ -37809,7 +37810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="45">
+    <row r="537" spans="1:13" ht="43.5">
       <c r="A537" t="s">
         <v>477</v>
       </c>
@@ -37850,7 +37851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="45">
+    <row r="538" spans="1:13" ht="43.5">
       <c r="A538" t="s">
         <v>485</v>
       </c>
@@ -37891,7 +37892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="30">
+    <row r="539" spans="1:13" ht="29">
       <c r="A539" t="s">
         <v>490</v>
       </c>
@@ -37932,7 +37933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="45">
+    <row r="540" spans="1:13" ht="29">
       <c r="A540" t="s">
         <v>498</v>
       </c>
@@ -37973,7 +37974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="30">
+    <row r="541" spans="1:13" ht="29">
       <c r="A541" t="s">
         <v>506</v>
       </c>
@@ -38014,7 +38015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="45">
+    <row r="542" spans="1:13" ht="29">
       <c r="A542" t="s">
         <v>511</v>
       </c>
@@ -38055,7 +38056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="60">
+    <row r="543" spans="1:13" ht="58">
       <c r="A543" t="s">
         <v>519</v>
       </c>
@@ -38096,7 +38097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="45">
+    <row r="544" spans="1:13" ht="43.5">
       <c r="A544" t="s">
         <v>527</v>
       </c>
@@ -38137,7 +38138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="45">
+    <row r="545" spans="1:13" ht="29">
       <c r="A545" t="s">
         <v>532</v>
       </c>
@@ -38178,7 +38179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="45">
+    <row r="546" spans="1:13" ht="43.5">
       <c r="A546" t="s">
         <v>540</v>
       </c>
@@ -38219,7 +38220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="30">
+    <row r="547" spans="1:13" ht="29">
       <c r="A547" t="s">
         <v>548</v>
       </c>
@@ -38260,7 +38261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="30">
+    <row r="548" spans="1:13" ht="29">
       <c r="A548" t="s">
         <v>553</v>
       </c>
@@ -38301,7 +38302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="45">
+    <row r="549" spans="1:13" ht="43.5">
       <c r="A549" t="s">
         <v>561</v>
       </c>
@@ -38342,7 +38343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="45">
+    <row r="550" spans="1:13" ht="29">
       <c r="A550" t="s">
         <v>569</v>
       </c>
@@ -38383,7 +38384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="45">
+    <row r="551" spans="1:13" ht="43.5">
       <c r="A551" t="s">
         <v>576</v>
       </c>
@@ -38424,7 +38425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:13" ht="45">
+    <row r="552" spans="1:13" ht="43.5">
       <c r="A552" t="s">
         <v>584</v>
       </c>
@@ -38465,7 +38466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="45">
+    <row r="553" spans="1:13" ht="43.5">
       <c r="A553" t="s">
         <v>592</v>
       </c>
@@ -38506,7 +38507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="60">
+    <row r="554" spans="1:13" ht="43.5">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -38547,7 +38548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="60">
+    <row r="555" spans="1:13" ht="43.5">
       <c r="A555" t="s">
         <v>605</v>
       </c>
@@ -38588,7 +38589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="45">
+    <row r="556" spans="1:13" ht="43.5">
       <c r="A556" t="s">
         <v>613</v>
       </c>
@@ -38629,7 +38630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="30">
+    <row r="557" spans="1:13" ht="29">
       <c r="A557" t="s">
         <v>618</v>
       </c>
@@ -38670,7 +38671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:13" ht="45">
+    <row r="558" spans="1:13" ht="43.5">
       <c r="A558" t="s">
         <v>626</v>
       </c>
@@ -38711,7 +38712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="30">
+    <row r="559" spans="1:13" ht="29">
       <c r="A559" t="s">
         <v>634</v>
       </c>
@@ -38752,7 +38753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="60">
+    <row r="560" spans="1:13" ht="58">
       <c r="A560" t="s">
         <v>639</v>
       </c>
@@ -38793,7 +38794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="60">
+    <row r="561" spans="1:13" ht="58">
       <c r="A561" t="s">
         <v>647</v>
       </c>
@@ -38834,7 +38835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="60">
+    <row r="562" spans="1:13" ht="43.5">
       <c r="A562" t="s">
         <v>655</v>
       </c>
@@ -38875,7 +38876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="30">
+    <row r="563" spans="1:13" ht="29">
       <c r="A563" t="s">
         <v>660</v>
       </c>
@@ -38916,7 +38917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="30">
+    <row r="564" spans="1:13" ht="29">
       <c r="A564" t="s">
         <v>668</v>
       </c>
@@ -38957,7 +38958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="30">
+    <row r="565" spans="1:13" ht="29">
       <c r="A565" t="s">
         <v>674</v>
       </c>
@@ -38998,7 +38999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="30">
+    <row r="566" spans="1:13" ht="29">
       <c r="A566" t="s">
         <v>679</v>
       </c>
@@ -39039,7 +39040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="45">
+    <row r="567" spans="1:13" ht="29">
       <c r="A567" t="s">
         <v>687</v>
       </c>
@@ -39080,7 +39081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="30">
+    <row r="568" spans="1:13" ht="29">
       <c r="A568" t="s">
         <v>695</v>
       </c>
@@ -39121,7 +39122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="60">
+    <row r="569" spans="1:13" ht="58">
       <c r="A569" t="s">
         <v>700</v>
       </c>
@@ -39162,7 +39163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="75">
+    <row r="570" spans="1:13" ht="72.5">
       <c r="A570" t="s">
         <v>708</v>
       </c>
@@ -39203,7 +39204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="60">
+    <row r="571" spans="1:13" ht="58">
       <c r="A571" t="s">
         <v>716</v>
       </c>
@@ -39244,7 +39245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="30">
+    <row r="572" spans="1:13" ht="29">
       <c r="A572" t="s">
         <v>721</v>
       </c>
@@ -39285,7 +39286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="45">
+    <row r="573" spans="1:13" ht="43.5">
       <c r="A573" t="s">
         <v>729</v>
       </c>
@@ -39326,7 +39327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="30">
+    <row r="574" spans="1:13" ht="29">
       <c r="A574" t="s">
         <v>737</v>
       </c>
@@ -39367,7 +39368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="45">
+    <row r="575" spans="1:13" ht="43.5">
       <c r="A575" t="s">
         <v>742</v>
       </c>
@@ -39408,7 +39409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="45">
+    <row r="576" spans="1:13" ht="43.5">
       <c r="A576" t="s">
         <v>749</v>
       </c>
@@ -39449,7 +39450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="60">
+    <row r="577" spans="1:13" ht="43.5">
       <c r="A577" t="s">
         <v>753</v>
       </c>
@@ -39490,7 +39491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="60">
+    <row r="578" spans="1:13" ht="43.5">
       <c r="A578" t="s">
         <v>760</v>
       </c>
@@ -39531,7 +39532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="45">
+    <row r="579" spans="1:13" ht="43.5">
       <c r="A579" t="s">
         <v>764</v>
       </c>
@@ -39572,7 +39573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="45">
+    <row r="580" spans="1:13" ht="43.5">
       <c r="A580" t="s">
         <v>771</v>
       </c>
@@ -39613,7 +39614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="60">
+    <row r="581" spans="1:13" ht="43.5">
       <c r="A581" t="s">
         <v>775</v>
       </c>
@@ -39654,7 +39655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="45">
+    <row r="582" spans="1:13" ht="43.5">
       <c r="A582" t="s">
         <v>779</v>
       </c>
@@ -39695,7 +39696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="60">
+    <row r="583" spans="1:13" ht="43.5">
       <c r="A583" t="s">
         <v>783</v>
       </c>
@@ -39777,7 +39778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="60">
+    <row r="585" spans="1:13" ht="43.5">
       <c r="A585" t="s">
         <v>794</v>
       </c>
@@ -39818,7 +39819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="1:13" ht="60">
+    <row r="586" spans="1:13" ht="43.5">
       <c r="A586" t="s">
         <v>801</v>
       </c>
@@ -39859,7 +39860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:13" ht="60">
+    <row r="587" spans="1:13" ht="43.5">
       <c r="A587" t="s">
         <v>805</v>
       </c>
@@ -39900,7 +39901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:13" ht="45">
+    <row r="588" spans="1:13" ht="43.5">
       <c r="A588" t="s">
         <v>812</v>
       </c>
@@ -39941,7 +39942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:13" ht="45">
+    <row r="589" spans="1:13" ht="43.5">
       <c r="A589" t="s">
         <v>816</v>
       </c>
@@ -39982,7 +39983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:13" ht="60">
+    <row r="590" spans="1:13" ht="43.5">
       <c r="A590" t="s">
         <v>822</v>
       </c>
@@ -40023,7 +40024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:13" ht="45">
+    <row r="591" spans="1:13" ht="43.5">
       <c r="A591" t="s">
         <v>829</v>
       </c>
@@ -40064,7 +40065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:13" ht="45">
+    <row r="592" spans="1:13" ht="43.5">
       <c r="A592" t="s">
         <v>836</v>
       </c>
@@ -40105,7 +40106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:13" ht="60">
+    <row r="593" spans="1:13" ht="43.5">
       <c r="A593" t="s">
         <v>843</v>
       </c>
@@ -40146,7 +40147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="75">
+    <row r="594" spans="1:13" ht="58">
       <c r="A594" t="s">
         <v>847</v>
       </c>
@@ -40187,7 +40188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="45">
+    <row r="595" spans="1:13" ht="43.5">
       <c r="A595" t="s">
         <v>854</v>
       </c>
@@ -40228,7 +40229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="30">
+    <row r="596" spans="1:13" ht="29">
       <c r="A596" t="s">
         <v>861</v>
       </c>
@@ -40269,7 +40270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="30">
+    <row r="597" spans="1:13" ht="29">
       <c r="A597" t="s">
         <v>868</v>
       </c>
@@ -40310,7 +40311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="45">
+    <row r="598" spans="1:13" ht="29">
       <c r="A598" t="s">
         <v>872</v>
       </c>
@@ -40351,7 +40352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="30">
+    <row r="599" spans="1:13" ht="29">
       <c r="A599" t="s">
         <v>879</v>
       </c>
@@ -40392,7 +40393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="30">
+    <row r="600" spans="1:13" ht="29">
       <c r="A600" t="s">
         <v>886</v>
       </c>
@@ -40433,7 +40434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="45">
+    <row r="601" spans="1:13" ht="29">
       <c r="A601" t="s">
         <v>890</v>
       </c>
@@ -40474,7 +40475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:13" ht="60">
+    <row r="602" spans="1:13" ht="43.5">
       <c r="A602" t="s">
         <v>897</v>
       </c>
@@ -40515,7 +40516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="60">
+    <row r="603" spans="1:13" ht="58">
       <c r="A603" t="s">
         <v>904</v>
       </c>
@@ -40556,7 +40557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="60">
+    <row r="604" spans="1:13" ht="58">
       <c r="A604" t="s">
         <v>910</v>
       </c>
@@ -40597,7 +40598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="30">
+    <row r="605" spans="1:13" ht="29">
       <c r="A605" t="s">
         <v>917</v>
       </c>
@@ -40638,7 +40639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:13" ht="30">
+    <row r="606" spans="1:13" ht="29">
       <c r="A606" t="s">
         <v>924</v>
       </c>
@@ -40679,7 +40680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="45">
+    <row r="607" spans="1:13" ht="29">
       <c r="A607" t="s">
         <v>928</v>
       </c>
@@ -40802,7 +40803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:13" ht="30">
+    <row r="610" spans="1:13" ht="29">
       <c r="A610" s="6" t="s">
         <v>951</v>
       </c>
@@ -40843,7 +40844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:13" ht="30">
+    <row r="611" spans="1:13" ht="29">
       <c r="A611" t="s">
         <v>959</v>
       </c>
@@ -40884,7 +40885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:13" ht="30">
+    <row r="612" spans="1:13" ht="29">
       <c r="A612" t="s">
         <v>964</v>
       </c>
@@ -40925,7 +40926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:13" ht="30">
+    <row r="613" spans="1:13" ht="29">
       <c r="A613" t="s">
         <v>968</v>
       </c>
@@ -40966,7 +40967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:13" ht="30">
+    <row r="614" spans="1:13" ht="29">
       <c r="A614" t="s">
         <v>972</v>
       </c>
@@ -41130,7 +41131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="180">
+    <row r="618" spans="1:13" ht="174">
       <c r="A618" t="s">
         <v>1010</v>
       </c>
@@ -41332,7 +41333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="1:13" ht="30">
+    <row r="623" spans="1:13" ht="29">
       <c r="A623" t="s">
         <v>1039</v>
       </c>
@@ -41537,7 +41538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:13" ht="26.1" customHeight="1">
+    <row r="628" spans="1:13" ht="26.15" customHeight="1">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -41578,7 +41579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="25.35" customHeight="1">
+    <row r="629" spans="1:13" ht="25.4" customHeight="1">
       <c r="A629" t="s">
         <v>24</v>
       </c>
@@ -41619,7 +41620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="26.85" customHeight="1">
+    <row r="630" spans="1:13" ht="26.9" customHeight="1">
       <c r="A630" t="s">
         <v>28</v>
       </c>
@@ -41660,7 +41661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="26.85" customHeight="1">
+    <row r="631" spans="1:13" ht="26.9" customHeight="1">
       <c r="A631" t="s">
         <v>48</v>
       </c>
@@ -41701,7 +41702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="29.85" customHeight="1">
+    <row r="632" spans="1:13" ht="29.9" customHeight="1">
       <c r="A632" t="s">
         <v>53</v>
       </c>
@@ -41742,7 +41743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="1:13" ht="27.6" customHeight="1">
+    <row r="633" spans="1:13" ht="27.65" customHeight="1">
       <c r="A633" t="s">
         <v>57</v>
       </c>
@@ -41783,7 +41784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:13" ht="29.85" customHeight="1">
+    <row r="634" spans="1:13" ht="29.9" customHeight="1">
       <c r="A634" t="s">
         <v>61</v>
       </c>
@@ -41824,7 +41825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="1:13" ht="32.1" customHeight="1">
+    <row r="635" spans="1:13" ht="32.15" customHeight="1">
       <c r="A635" t="s">
         <v>65</v>
       </c>
@@ -41865,7 +41866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:13" ht="30">
+    <row r="636" spans="1:13" ht="29">
       <c r="A636" t="s">
         <v>69</v>
       </c>
@@ -41906,7 +41907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="30">
+    <row r="637" spans="1:13" ht="29">
       <c r="A637" t="s">
         <v>73</v>
       </c>
@@ -41947,7 +41948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:13" ht="30">
+    <row r="638" spans="1:13" ht="29">
       <c r="A638" t="s">
         <v>77</v>
       </c>
@@ -41988,7 +41989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:13" ht="30">
+    <row r="639" spans="1:13" ht="29">
       <c r="A639" t="s">
         <v>115</v>
       </c>
@@ -42029,7 +42030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="30">
+    <row r="640" spans="1:13" ht="29">
       <c r="A640" t="s">
         <v>120</v>
       </c>
@@ -42070,7 +42071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="30">
+    <row r="641" spans="1:13" ht="29">
       <c r="A641" t="s">
         <v>124</v>
       </c>
@@ -42111,7 +42112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="30">
+    <row r="642" spans="1:13" ht="29">
       <c r="A642" t="s">
         <v>127</v>
       </c>
@@ -42152,7 +42153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="30">
+    <row r="643" spans="1:13" ht="29">
       <c r="A643" t="s">
         <v>131</v>
       </c>
@@ -42193,7 +42194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="30">
+    <row r="644" spans="1:13" ht="29">
       <c r="A644" t="s">
         <v>135</v>
       </c>
@@ -42234,7 +42235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="30">
+    <row r="645" spans="1:13" ht="29">
       <c r="A645" t="s">
         <v>138</v>
       </c>
@@ -42275,7 +42276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="30">
+    <row r="646" spans="1:13" ht="29">
       <c r="A646" t="s">
         <v>142</v>
       </c>
@@ -42316,7 +42317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:13" ht="30">
+    <row r="647" spans="1:13" ht="29">
       <c r="A647" t="s">
         <v>146</v>
       </c>
@@ -42357,7 +42358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:13" ht="120">
+    <row r="648" spans="1:13" ht="116">
       <c r="A648" t="s">
         <v>182</v>
       </c>
@@ -42398,7 +42399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="30">
+    <row r="649" spans="1:13" ht="29">
       <c r="A649" t="s">
         <v>186</v>
       </c>
@@ -42439,7 +42440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="30">
+    <row r="650" spans="1:13" ht="29">
       <c r="A650" t="s">
         <v>190</v>
       </c>
@@ -42480,7 +42481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:13" ht="30">
+    <row r="651" spans="1:13" ht="29">
       <c r="A651" t="s">
         <v>194</v>
       </c>
@@ -42521,7 +42522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="30">
+    <row r="652" spans="1:13" ht="29">
       <c r="A652" t="s">
         <v>198</v>
       </c>
@@ -42562,7 +42563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:13" ht="30">
+    <row r="653" spans="1:13" ht="29">
       <c r="A653" t="s">
         <v>201</v>
       </c>
@@ -42603,7 +42604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="30">
+    <row r="654" spans="1:13" ht="29">
       <c r="A654" t="s">
         <v>227</v>
       </c>
@@ -42644,7 +42645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="655" spans="1:13" s="11" customFormat="1">
+    <row r="655" spans="1:13" s="11" customFormat="1" ht="15.5">
       <c r="A655" s="11">
         <v>1131</v>
       </c>
@@ -42685,7 +42686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="30">
+    <row r="656" spans="1:13" ht="29">
       <c r="A656" t="s">
         <v>241</v>
       </c>
@@ -42726,7 +42727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="30">
+    <row r="657" spans="1:13" ht="29">
       <c r="A657" t="s">
         <v>248</v>
       </c>
@@ -42767,7 +42768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="30">
+    <row r="658" spans="1:13" ht="29">
       <c r="A658" t="s">
         <v>255</v>
       </c>
@@ -42808,7 +42809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:13" ht="30">
+    <row r="659" spans="1:13" ht="29">
       <c r="A659" t="s">
         <v>262</v>
       </c>
@@ -42890,7 +42891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="1:13" ht="165">
+    <row r="661" spans="1:13" ht="145">
       <c r="A661" t="s">
         <v>282</v>
       </c>
@@ -43095,7 +43096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="30">
+    <row r="666" spans="1:13" ht="29">
       <c r="A666" t="s">
         <v>298</v>
       </c>
@@ -43136,7 +43137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="1:13" ht="30">
+    <row r="667" spans="1:13" ht="29">
       <c r="A667" t="s">
         <v>306</v>
       </c>
@@ -43177,7 +43178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="668" spans="1:13" ht="30">
+    <row r="668" spans="1:13" ht="29">
       <c r="A668" t="s">
         <v>312</v>
       </c>
@@ -43259,7 +43260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="670" spans="1:13" ht="30">
+    <row r="670" spans="1:13" ht="29">
       <c r="A670" t="s">
         <v>318</v>
       </c>
@@ -43300,7 +43301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="671" spans="1:13" ht="30">
+    <row r="671" spans="1:13" ht="29">
       <c r="A671" t="s">
         <v>320</v>
       </c>
@@ -43341,7 +43342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="30">
+    <row r="672" spans="1:13" ht="29">
       <c r="A672" t="s">
         <v>321</v>
       </c>
@@ -43382,7 +43383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:13" ht="30">
+    <row r="673" spans="1:13" ht="29">
       <c r="A673" t="s">
         <v>322</v>
       </c>
@@ -43423,7 +43424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="674" spans="1:13" ht="30">
+    <row r="674" spans="1:13" ht="29">
       <c r="A674" t="s">
         <v>323</v>
       </c>
@@ -43464,7 +43465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="675" spans="1:13" ht="60">
+    <row r="675" spans="1:13" ht="58">
       <c r="A675" t="s">
         <v>324</v>
       </c>
@@ -43505,7 +43506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="676" spans="1:13" ht="30">
+    <row r="676" spans="1:13">
       <c r="A676" t="s">
         <v>332</v>
       </c>
@@ -43546,7 +43547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="677" spans="1:13" ht="30">
+    <row r="677" spans="1:13" ht="29">
       <c r="A677" t="s">
         <v>340</v>
       </c>
@@ -43792,7 +43793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="683" spans="1:13" ht="30">
+    <row r="683" spans="1:13" ht="29">
       <c r="A683" t="s">
         <v>373</v>
       </c>
@@ -43833,7 +43834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="1:13" ht="30">
+    <row r="684" spans="1:13" ht="29">
       <c r="A684" t="s">
         <v>378</v>
       </c>
@@ -43874,7 +43875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="685" spans="1:13" ht="30">
+    <row r="685" spans="1:13">
       <c r="A685" t="s">
         <v>386</v>
       </c>
@@ -43956,7 +43957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="687" spans="1:13" ht="30">
+    <row r="687" spans="1:13" ht="29">
       <c r="A687" t="s">
         <v>401</v>
       </c>
@@ -43997,7 +43998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="688" spans="1:13" ht="30">
+    <row r="688" spans="1:13" ht="29">
       <c r="A688" t="s">
         <v>411</v>
       </c>
@@ -44038,7 +44039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="1:13" ht="45">
+    <row r="689" spans="1:13" ht="43.5">
       <c r="A689" t="s">
         <v>417</v>
       </c>
@@ -44079,7 +44080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="690" spans="1:13" ht="30">
+    <row r="690" spans="1:13" ht="29">
       <c r="A690" t="s">
         <v>425</v>
       </c>
@@ -44120,7 +44121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="691" spans="1:13" ht="30">
+    <row r="691" spans="1:13" ht="29">
       <c r="A691" t="s">
         <v>433</v>
       </c>
@@ -44161,7 +44162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="692" spans="1:13" ht="30">
+    <row r="692" spans="1:13" ht="29">
       <c r="A692" t="s">
         <v>443</v>
       </c>
@@ -44202,7 +44203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:13" ht="30">
+    <row r="693" spans="1:13" ht="29">
       <c r="A693" t="s">
         <v>448</v>
       </c>
@@ -44243,7 +44244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="1:13" ht="45">
+    <row r="694" spans="1:13" ht="29">
       <c r="A694" t="s">
         <v>456</v>
       </c>
@@ -44284,7 +44285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:13" ht="30">
+    <row r="695" spans="1:13" ht="29">
       <c r="A695" t="s">
         <v>464</v>
       </c>
@@ -44325,7 +44326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="696" spans="1:13" ht="45">
+    <row r="696" spans="1:13" ht="29">
       <c r="A696" t="s">
         <v>469</v>
       </c>
@@ -44366,7 +44367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:13" ht="60">
+    <row r="697" spans="1:13" ht="43.5">
       <c r="A697" t="s">
         <v>477</v>
       </c>
@@ -44407,7 +44408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="1:13" ht="45">
+    <row r="698" spans="1:13" ht="29">
       <c r="A698" t="s">
         <v>485</v>
       </c>
@@ -44489,7 +44490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="700" spans="1:13" ht="30">
+    <row r="700" spans="1:13" ht="29">
       <c r="A700" t="s">
         <v>498</v>
       </c>
@@ -44530,7 +44531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="701" spans="1:13" ht="30">
+    <row r="701" spans="1:13" ht="29">
       <c r="A701" t="s">
         <v>506</v>
       </c>
@@ -44612,7 +44613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="703" spans="1:13" ht="30">
+    <row r="703" spans="1:13" ht="29">
       <c r="A703" t="s">
         <v>519</v>
       </c>
@@ -44653,7 +44654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="704" spans="1:13" ht="30">
+    <row r="704" spans="1:13" ht="29">
       <c r="A704" t="s">
         <v>527</v>
       </c>
@@ -44694,7 +44695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="705" spans="1:13" ht="30">
+    <row r="705" spans="1:13" ht="29">
       <c r="A705" t="s">
         <v>532</v>
       </c>
@@ -44735,7 +44736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="706" spans="1:13" ht="30">
+    <row r="706" spans="1:13" ht="29">
       <c r="A706" t="s">
         <v>540</v>
       </c>
@@ -44776,7 +44777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="30">
+    <row r="707" spans="1:13" ht="29">
       <c r="A707" t="s">
         <v>548</v>
       </c>
@@ -44817,7 +44818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="708" spans="1:13" ht="30">
+    <row r="708" spans="1:13" ht="29">
       <c r="A708" t="s">
         <v>553</v>
       </c>
@@ -44858,7 +44859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" spans="1:13" ht="30">
+    <row r="709" spans="1:13" ht="29">
       <c r="A709" t="s">
         <v>561</v>
       </c>
@@ -44899,7 +44900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="710" spans="1:13" ht="30">
+    <row r="710" spans="1:13" ht="29">
       <c r="A710" t="s">
         <v>569</v>
       </c>
@@ -44940,7 +44941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="30">
+    <row r="711" spans="1:13" ht="29">
       <c r="A711" t="s">
         <v>576</v>
       </c>
@@ -44981,7 +44982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="1:13" ht="30">
+    <row r="712" spans="1:13" ht="29">
       <c r="A712" t="s">
         <v>584</v>
       </c>
@@ -45022,7 +45023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="713" spans="1:13" ht="45">
+    <row r="713" spans="1:13" ht="29">
       <c r="A713" t="s">
         <v>592</v>
       </c>
@@ -45063,7 +45064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="714" spans="1:13" ht="30">
+    <row r="714" spans="1:13" ht="29">
       <c r="A714" t="s">
         <v>597</v>
       </c>
@@ -45104,7 +45105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="715" spans="1:13" ht="45">
+    <row r="715" spans="1:13" ht="43.5">
       <c r="A715" t="s">
         <v>605</v>
       </c>
@@ -45145,7 +45146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="716" spans="1:13" ht="45">
+    <row r="716" spans="1:13" ht="29">
       <c r="A716" t="s">
         <v>613</v>
       </c>
@@ -45186,7 +45187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:13" ht="30">
+    <row r="717" spans="1:13" ht="29">
       <c r="A717" t="s">
         <v>618</v>
       </c>
@@ -45227,7 +45228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="1:13" ht="30">
+    <row r="718" spans="1:13" ht="29">
       <c r="A718" t="s">
         <v>626</v>
       </c>
@@ -45268,7 +45269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="1:13" ht="30">
+    <row r="719" spans="1:13" ht="29">
       <c r="A719" t="s">
         <v>634</v>
       </c>
@@ -45309,7 +45310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="720" spans="1:13" ht="30">
+    <row r="720" spans="1:13" ht="29">
       <c r="A720" t="s">
         <v>639</v>
       </c>
@@ -45350,7 +45351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:13" ht="45">
+    <row r="721" spans="1:13" ht="43.5">
       <c r="A721" t="s">
         <v>647</v>
       </c>
@@ -45391,7 +45392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="722" spans="1:13" ht="45">
+    <row r="722" spans="1:13" ht="43.5">
       <c r="A722" t="s">
         <v>655</v>
       </c>
@@ -45432,7 +45433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="723" spans="1:13" ht="30">
+    <row r="723" spans="1:13">
       <c r="A723" t="s">
         <v>660</v>
       </c>
@@ -45473,7 +45474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="1:13" ht="30">
+    <row r="724" spans="1:13" ht="29">
       <c r="A724" t="s">
         <v>668</v>
       </c>
@@ -45514,7 +45515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="725" spans="1:13" ht="30">
+    <row r="725" spans="1:13" ht="29">
       <c r="A725" t="s">
         <v>674</v>
       </c>
@@ -45596,7 +45597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="727" spans="1:13" ht="30">
+    <row r="727" spans="1:13" ht="29">
       <c r="A727" t="s">
         <v>687</v>
       </c>
@@ -45637,7 +45638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="1:13" ht="30">
+    <row r="728" spans="1:13" ht="29">
       <c r="A728" t="s">
         <v>695</v>
       </c>
@@ -45678,7 +45679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="1:13" ht="45">
+    <row r="729" spans="1:13" ht="43.5">
       <c r="A729" t="s">
         <v>700</v>
       </c>
@@ -45719,7 +45720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="730" spans="1:13" ht="45">
+    <row r="730" spans="1:13" ht="29">
       <c r="A730" t="s">
         <v>708</v>
       </c>
@@ -45760,7 +45761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="731" spans="1:13" ht="45">
+    <row r="731" spans="1:13" ht="43.5">
       <c r="A731" t="s">
         <v>716</v>
       </c>
@@ -45801,7 +45802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="732" spans="1:13" ht="30">
+    <row r="732" spans="1:13" ht="29">
       <c r="A732" t="s">
         <v>721</v>
       </c>
@@ -45842,7 +45843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="733" spans="1:13" ht="45">
+    <row r="733" spans="1:13" ht="29">
       <c r="A733" t="s">
         <v>729</v>
       </c>
@@ -45883,7 +45884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="734" spans="1:13" ht="30">
+    <row r="734" spans="1:13" ht="29">
       <c r="A734" t="s">
         <v>737</v>
       </c>
@@ -45924,7 +45925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="735" spans="1:13" ht="30">
+    <row r="735" spans="1:13" ht="29">
       <c r="A735" t="s">
         <v>742</v>
       </c>
@@ -45965,7 +45966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:13" ht="30">
+    <row r="736" spans="1:13" ht="29">
       <c r="A736" t="s">
         <v>749</v>
       </c>
@@ -46006,7 +46007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="30">
+    <row r="737" spans="1:13" ht="29">
       <c r="A737" t="s">
         <v>753</v>
       </c>
@@ -46047,7 +46048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="738" spans="1:13" ht="30">
+    <row r="738" spans="1:13" ht="29">
       <c r="A738" t="s">
         <v>760</v>
       </c>
@@ -46088,7 +46089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="30">
+    <row r="739" spans="1:13" ht="29">
       <c r="A739" t="s">
         <v>764</v>
       </c>
@@ -46129,7 +46130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="30">
+    <row r="740" spans="1:13" ht="29">
       <c r="A740" t="s">
         <v>771</v>
       </c>
@@ -46170,7 +46171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="741" spans="1:13" ht="30">
+    <row r="741" spans="1:13" ht="29">
       <c r="A741" t="s">
         <v>775</v>
       </c>
@@ -46211,7 +46212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="742" spans="1:13" ht="30">
+    <row r="742" spans="1:13" ht="29">
       <c r="A742" t="s">
         <v>779</v>
       </c>
@@ -46252,7 +46253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="45">
+    <row r="743" spans="1:13" ht="29">
       <c r="A743" t="s">
         <v>783</v>
       </c>
@@ -46293,7 +46294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="744" spans="1:13" ht="30">
+    <row r="744" spans="1:13" ht="29">
       <c r="A744" t="s">
         <v>790</v>
       </c>
@@ -46334,7 +46335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="745" spans="1:13" ht="30">
+    <row r="745" spans="1:13" ht="29">
       <c r="A745" t="s">
         <v>794</v>
       </c>
@@ -46375,7 +46376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="746" spans="1:13" ht="30">
+    <row r="746" spans="1:13" ht="29">
       <c r="A746" t="s">
         <v>801</v>
       </c>
@@ -46416,7 +46417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="747" spans="1:13" ht="30">
+    <row r="747" spans="1:13" ht="29">
       <c r="A747" t="s">
         <v>805</v>
       </c>
@@ -46457,7 +46458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="748" spans="1:13" ht="45">
+    <row r="748" spans="1:13" ht="43.5">
       <c r="A748" t="s">
         <v>812</v>
       </c>
@@ -46498,7 +46499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="749" spans="1:13" ht="45">
+    <row r="749" spans="1:13" ht="43.5">
       <c r="A749" t="s">
         <v>816</v>
       </c>
@@ -46539,7 +46540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="750" spans="1:13" ht="45">
+    <row r="750" spans="1:13" ht="43.5">
       <c r="A750" t="s">
         <v>822</v>
       </c>
@@ -46580,7 +46581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="751" spans="1:13" ht="30">
+    <row r="751" spans="1:13" ht="29">
       <c r="A751" t="s">
         <v>829</v>
       </c>
@@ -46621,7 +46622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="1:13" ht="30">
+    <row r="752" spans="1:13" ht="29">
       <c r="A752" t="s">
         <v>836</v>
       </c>
@@ -46662,7 +46663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:13" ht="30">
+    <row r="753" spans="1:13" ht="29">
       <c r="A753" t="s">
         <v>843</v>
       </c>
@@ -46703,7 +46704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="754" spans="1:13" ht="45">
+    <row r="754" spans="1:13" ht="29">
       <c r="A754" t="s">
         <v>847</v>
       </c>
@@ -46744,7 +46745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="755" spans="1:13" ht="30">
+    <row r="755" spans="1:13" ht="29">
       <c r="A755" t="s">
         <v>854</v>
       </c>
@@ -46785,7 +46786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="756" spans="1:13" ht="30">
+    <row r="756" spans="1:13" ht="29">
       <c r="A756" t="s">
         <v>861</v>
       </c>
@@ -46826,7 +46827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="757" spans="1:13" ht="30">
+    <row r="757" spans="1:13" ht="29">
       <c r="A757" t="s">
         <v>868</v>
       </c>
@@ -46867,7 +46868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="1:13" ht="30">
+    <row r="758" spans="1:13" ht="29">
       <c r="A758" t="s">
         <v>872</v>
       </c>
@@ -46908,7 +46909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:13" ht="30">
+    <row r="759" spans="1:13" ht="29">
       <c r="A759" t="s">
         <v>879</v>
       </c>
@@ -46949,7 +46950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="760" spans="1:13" ht="30">
+    <row r="760" spans="1:13" ht="29">
       <c r="A760" t="s">
         <v>886</v>
       </c>
@@ -46990,7 +46991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:13" ht="30">
+    <row r="761" spans="1:13" ht="29">
       <c r="A761" t="s">
         <v>890</v>
       </c>
@@ -47031,7 +47032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="762" spans="1:13" ht="30">
+    <row r="762" spans="1:13" ht="29">
       <c r="A762" t="s">
         <v>897</v>
       </c>
@@ -47072,7 +47073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="763" spans="1:13" ht="30">
+    <row r="763" spans="1:13" ht="29">
       <c r="A763" t="s">
         <v>904</v>
       </c>
@@ -47113,7 +47114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="764" spans="1:13" ht="30">
+    <row r="764" spans="1:13" ht="29">
       <c r="A764" t="s">
         <v>910</v>
       </c>
@@ -47154,7 +47155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="765" spans="1:13" ht="30">
+    <row r="765" spans="1:13" ht="29">
       <c r="A765" t="s">
         <v>917</v>
       </c>
@@ -47195,7 +47196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="766" spans="1:13" ht="30">
+    <row r="766" spans="1:13" ht="29">
       <c r="A766" t="s">
         <v>924</v>
       </c>
@@ -47236,7 +47237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="1:13" ht="30">
+    <row r="767" spans="1:13" ht="29">
       <c r="A767" t="s">
         <v>928</v>
       </c>
@@ -47482,7 +47483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="773" spans="1:13" ht="30">
+    <row r="773" spans="1:13" ht="29">
       <c r="A773" t="s">
         <v>968</v>
       </c>
@@ -47646,7 +47647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="777" spans="1:13" ht="165">
+    <row r="777" spans="1:13" ht="145">
       <c r="A777" t="s">
         <v>1001</v>
       </c>
@@ -47687,7 +47688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="1:13" ht="135">
+    <row r="778" spans="1:13" ht="130.5">
       <c r="A778" t="s">
         <v>1010</v>
       </c>
@@ -47807,7 +47808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="781" spans="1:13" ht="45">
+    <row r="781" spans="1:13" ht="29">
       <c r="A781" t="s">
         <v>1029</v>
       </c>
@@ -47848,7 +47849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="782" spans="1:13" ht="30">
+    <row r="782" spans="1:13" ht="29">
       <c r="A782" t="s">
         <v>1034</v>
       </c>
@@ -47971,7 +47972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="785" spans="1:13" ht="30">
+    <row r="785" spans="1:13" ht="29">
       <c r="A785" t="s">
         <v>1049</v>
       </c>
@@ -48012,7 +48013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:13" ht="45">
+    <row r="786" spans="1:13" ht="43.5">
       <c r="A786" t="s">
         <v>1054</v>
       </c>
@@ -48053,7 +48054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:13" ht="30">
+    <row r="787" spans="1:13" ht="29">
       <c r="A787" s="6">
         <v>1281</v>
       </c>
@@ -48094,7 +48095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="788" spans="1:13" ht="44.1" customHeight="1">
+    <row r="788" spans="1:13" ht="44.15" customHeight="1">
       <c r="A788" t="s">
         <v>13</v>
       </c>
@@ -48135,7 +48136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="789" spans="1:13" ht="45">
+    <row r="789" spans="1:13" ht="43.5">
       <c r="A789" t="s">
         <v>24</v>
       </c>
@@ -48176,7 +48177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="790" spans="1:13" ht="45">
+    <row r="790" spans="1:13" ht="43.5">
       <c r="A790" t="s">
         <v>28</v>
       </c>
@@ -48217,7 +48218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="791" spans="1:13" ht="150">
+    <row r="791" spans="1:13" ht="130.5">
       <c r="A791" t="s">
         <v>48</v>
       </c>
@@ -48258,7 +48259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="792" spans="1:13" ht="45">
+    <row r="792" spans="1:13" ht="29">
       <c r="A792" t="s">
         <v>53</v>
       </c>
@@ -48299,7 +48300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="793" spans="1:13" ht="105">
+    <row r="793" spans="1:13" ht="101.5">
       <c r="A793" t="s">
         <v>57</v>
       </c>
@@ -48340,7 +48341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="794" spans="1:13" ht="105">
+    <row r="794" spans="1:13" ht="101.5">
       <c r="A794" t="s">
         <v>61</v>
       </c>
@@ -48381,7 +48382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="795" spans="1:13" ht="45">
+    <row r="795" spans="1:13" ht="43.5">
       <c r="A795" t="s">
         <v>65</v>
       </c>
@@ -48422,7 +48423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="796" spans="1:13" ht="45">
+    <row r="796" spans="1:13" ht="43.5">
       <c r="A796" t="s">
         <v>69</v>
       </c>
@@ -48463,7 +48464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="797" spans="1:13" ht="60">
+    <row r="797" spans="1:13" ht="58">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -48504,7 +48505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="798" spans="1:13" ht="60">
+    <row r="798" spans="1:13" ht="58">
       <c r="A798" t="s">
         <v>77</v>
       </c>
@@ -48545,7 +48546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="799" spans="1:13" ht="60">
+    <row r="799" spans="1:13" ht="58">
       <c r="A799" t="s">
         <v>115</v>
       </c>
@@ -48586,7 +48587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="800" spans="1:13" ht="60">
+    <row r="800" spans="1:13" ht="58">
       <c r="A800" t="s">
         <v>120</v>
       </c>
@@ -48627,7 +48628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="801" spans="1:13" ht="45">
+    <row r="801" spans="1:13" ht="43.5">
       <c r="A801" t="s">
         <v>124</v>
       </c>
@@ -48668,7 +48669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="802" spans="1:13" ht="75">
+    <row r="802" spans="1:13" ht="72.5">
       <c r="A802" t="s">
         <v>127</v>
       </c>
@@ -48709,7 +48710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="803" spans="1:13" ht="75">
+    <row r="803" spans="1:13" ht="58">
       <c r="A803" t="s">
         <v>131</v>
       </c>
@@ -48750,7 +48751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="804" spans="1:13" ht="75">
+    <row r="804" spans="1:13" ht="72.5">
       <c r="A804" t="s">
         <v>135</v>
       </c>
@@ -48791,7 +48792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="805" spans="1:13" ht="105">
+    <row r="805" spans="1:13" ht="101.5">
       <c r="A805" t="s">
         <v>138</v>
       </c>
@@ -48832,7 +48833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="806" spans="1:13" ht="75">
+    <row r="806" spans="1:13" ht="72.5">
       <c r="A806" t="s">
         <v>142</v>
       </c>
@@ -48873,7 +48874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="807" spans="1:13" ht="135">
+    <row r="807" spans="1:13" ht="116">
       <c r="A807" t="s">
         <v>146</v>
       </c>
@@ -48914,7 +48915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="808" spans="1:13" ht="180">
+    <row r="808" spans="1:13" ht="159.5">
       <c r="A808" t="s">
         <v>182</v>
       </c>
@@ -48955,7 +48956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="809" spans="1:13" ht="90">
+    <row r="809" spans="1:13" ht="87">
       <c r="A809" t="s">
         <v>186</v>
       </c>
@@ -48996,7 +48997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="810" spans="1:13" ht="75">
+    <row r="810" spans="1:13" ht="58">
       <c r="A810" t="s">
         <v>190</v>
       </c>
@@ -49037,7 +49038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="811" spans="1:13" ht="45">
+    <row r="811" spans="1:13" ht="43.5">
       <c r="A811" t="s">
         <v>194</v>
       </c>
@@ -49078,7 +49079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="812" spans="1:13" ht="60">
+    <row r="812" spans="1:13" ht="58">
       <c r="A812" t="s">
         <v>198</v>
       </c>
@@ -49119,7 +49120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="813" spans="1:13" ht="120">
+    <row r="813" spans="1:13" ht="101.5">
       <c r="A813" t="s">
         <v>201</v>
       </c>
@@ -49160,7 +49161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="814" spans="1:13" ht="60">
+    <row r="814" spans="1:13" ht="58">
       <c r="A814" t="s">
         <v>227</v>
       </c>
@@ -49201,7 +49202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="815" spans="1:13" s="11" customFormat="1" ht="30">
+    <row r="815" spans="1:13" s="11" customFormat="1" ht="29">
       <c r="A815" s="11">
         <v>1131</v>
       </c>
@@ -49242,7 +49243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="816" spans="1:13" ht="30">
+    <row r="816" spans="1:13" ht="29">
       <c r="A816" t="s">
         <v>241</v>
       </c>
@@ -49283,7 +49284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="1:13" ht="45">
+    <row r="817" spans="1:13" ht="43.5">
       <c r="A817" t="s">
         <v>248</v>
       </c>
@@ -49324,7 +49325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="818" spans="1:13" ht="60">
+    <row r="818" spans="1:13" ht="43.5">
       <c r="A818" t="s">
         <v>255</v>
       </c>
@@ -49365,7 +49366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="819" spans="1:13" ht="60">
+    <row r="819" spans="1:13" ht="58">
       <c r="A819" t="s">
         <v>262</v>
       </c>
@@ -49406,7 +49407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="820" spans="1:13" ht="45">
+    <row r="820" spans="1:13" ht="43.5">
       <c r="A820" t="s">
         <v>269</v>
       </c>
@@ -49447,7 +49448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="821" spans="1:13" ht="180">
+    <row r="821" spans="1:13" ht="174">
       <c r="A821" t="s">
         <v>282</v>
       </c>
@@ -49652,7 +49653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="826" spans="1:13" ht="45">
+    <row r="826" spans="1:13" ht="29">
       <c r="A826" t="s">
         <v>298</v>
       </c>
@@ -49693,7 +49694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="827" spans="1:13" ht="30">
+    <row r="827" spans="1:13" ht="29">
       <c r="A827" t="s">
         <v>306</v>
       </c>
@@ -49734,7 +49735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="828" spans="1:13" ht="60">
+    <row r="828" spans="1:13" ht="58">
       <c r="A828" t="s">
         <v>312</v>
       </c>
@@ -49775,7 +49776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="829" spans="1:13" ht="30">
+    <row r="829" spans="1:13" ht="29">
       <c r="A829" t="s">
         <v>314</v>
       </c>
@@ -49816,7 +49817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="830" spans="1:13" ht="60">
+    <row r="830" spans="1:13" ht="58">
       <c r="A830" t="s">
         <v>318</v>
       </c>
@@ -49857,7 +49858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="831" spans="1:13" ht="60">
+    <row r="831" spans="1:13" ht="58">
       <c r="A831" t="s">
         <v>320</v>
       </c>
@@ -49898,7 +49899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="832" spans="1:13" ht="45">
+    <row r="832" spans="1:13" ht="29">
       <c r="A832" t="s">
         <v>321</v>
       </c>
@@ -49939,7 +49940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="833" spans="1:13" ht="60">
+    <row r="833" spans="1:13" ht="58">
       <c r="A833" t="s">
         <v>322</v>
       </c>
@@ -49980,7 +49981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="834" spans="1:13" ht="60">
+    <row r="834" spans="1:13" ht="58">
       <c r="A834" t="s">
         <v>323</v>
       </c>
@@ -50021,7 +50022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="835" spans="1:13" ht="75">
+    <row r="835" spans="1:13" ht="58">
       <c r="A835" t="s">
         <v>324</v>
       </c>
@@ -50062,7 +50063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="836" spans="1:13" ht="45">
+    <row r="836" spans="1:13" ht="43.5">
       <c r="A836" t="s">
         <v>332</v>
       </c>
@@ -50103,7 +50104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="837" spans="1:13" ht="60">
+    <row r="837" spans="1:13" ht="58">
       <c r="A837" t="s">
         <v>340</v>
       </c>
@@ -50144,7 +50145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="838" spans="1:13" ht="30">
+    <row r="838" spans="1:13">
       <c r="A838" t="s">
         <v>348</v>
       </c>
@@ -50185,7 +50186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="839" spans="1:13" ht="30">
+    <row r="839" spans="1:13" ht="29">
       <c r="A839" t="s">
         <v>356</v>
       </c>
@@ -50349,7 +50350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="843" spans="1:13" ht="135">
+    <row r="843" spans="1:13" ht="116">
       <c r="A843" t="s">
         <v>373</v>
       </c>
@@ -50431,7 +50432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="845" spans="1:13" ht="45">
+    <row r="845" spans="1:13" ht="29">
       <c r="A845" t="s">
         <v>386</v>
       </c>
@@ -50513,7 +50514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="847" spans="1:13" ht="60">
+    <row r="847" spans="1:13" ht="58">
       <c r="A847" t="s">
         <v>401</v>
       </c>
@@ -50554,7 +50555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="848" spans="1:13" ht="45">
+    <row r="848" spans="1:13" ht="43.5">
       <c r="A848" t="s">
         <v>411</v>
       </c>
@@ -50595,7 +50596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="849" spans="1:13" ht="90">
+    <row r="849" spans="1:13" ht="72.5">
       <c r="A849" t="s">
         <v>417</v>
       </c>
@@ -50636,7 +50637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="850" spans="1:13" ht="60">
+    <row r="850" spans="1:13" ht="43.5">
       <c r="A850" t="s">
         <v>425</v>
       </c>
@@ -50677,7 +50678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="851" spans="1:13" ht="60">
+    <row r="851" spans="1:13" ht="58">
       <c r="A851" t="s">
         <v>433</v>
       </c>
@@ -50718,7 +50719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="852" spans="1:13" ht="45">
+    <row r="852" spans="1:13" ht="43.5">
       <c r="A852" t="s">
         <v>443</v>
       </c>
@@ -50759,7 +50760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="853" spans="1:13" ht="75">
+    <row r="853" spans="1:13" ht="72.5">
       <c r="A853" t="s">
         <v>448</v>
       </c>
@@ -50800,7 +50801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="90">
+    <row r="854" spans="1:13" ht="87">
       <c r="A854" t="s">
         <v>456</v>
       </c>
@@ -50841,7 +50842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="855" spans="1:13" ht="75">
+    <row r="855" spans="1:13" ht="72.5">
       <c r="A855" t="s">
         <v>464</v>
       </c>
@@ -50882,7 +50883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="856" spans="1:13" ht="60">
+    <row r="856" spans="1:13" ht="58">
       <c r="A856" t="s">
         <v>469</v>
       </c>
@@ -50923,7 +50924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="857" spans="1:13" ht="90">
+    <row r="857" spans="1:13" ht="87">
       <c r="A857" t="s">
         <v>477</v>
       </c>
@@ -50964,7 +50965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="858" spans="1:13" ht="60">
+    <row r="858" spans="1:13" ht="58">
       <c r="A858" t="s">
         <v>485</v>
       </c>
@@ -51005,7 +51006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="859" spans="1:13" ht="30">
+    <row r="859" spans="1:13" ht="29">
       <c r="A859" t="s">
         <v>490</v>
       </c>
@@ -51046,7 +51047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="860" spans="1:13" ht="60">
+    <row r="860" spans="1:13" ht="43.5">
       <c r="A860" t="s">
         <v>498</v>
       </c>
@@ -51087,7 +51088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="861" spans="1:13" ht="45">
+    <row r="861" spans="1:13" ht="43.5">
       <c r="A861" t="s">
         <v>506</v>
       </c>
@@ -51128,7 +51129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="862" spans="1:13" ht="60">
+    <row r="862" spans="1:13" ht="58">
       <c r="A862" t="s">
         <v>511</v>
       </c>
@@ -51169,7 +51170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="863" spans="1:13" ht="60">
+    <row r="863" spans="1:13" ht="58">
       <c r="A863" t="s">
         <v>519</v>
       </c>
@@ -51210,7 +51211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="864" spans="1:13" ht="45">
+    <row r="864" spans="1:13" ht="29">
       <c r="A864" t="s">
         <v>527</v>
       </c>
@@ -51251,7 +51252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="865" spans="1:13" ht="60">
+    <row r="865" spans="1:13" ht="58">
       <c r="A865" t="s">
         <v>532</v>
       </c>
@@ -51292,7 +51293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="866" spans="1:13" ht="75">
+    <row r="866" spans="1:13" ht="72.5">
       <c r="A866" t="s">
         <v>540</v>
       </c>
@@ -51333,7 +51334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="867" spans="1:13" ht="45">
+    <row r="867" spans="1:13" ht="43.5">
       <c r="A867" t="s">
         <v>548</v>
       </c>
@@ -51374,7 +51375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="868" spans="1:13" ht="75">
+    <row r="868" spans="1:13" ht="43.5">
       <c r="A868" t="s">
         <v>553</v>
       </c>
@@ -51415,7 +51416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="869" spans="1:13" ht="75">
+    <row r="869" spans="1:13" ht="72.5">
       <c r="A869" t="s">
         <v>561</v>
       </c>
@@ -51456,7 +51457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="870" spans="1:13" ht="60">
+    <row r="870" spans="1:13" ht="58">
       <c r="A870" t="s">
         <v>569</v>
       </c>
@@ -51497,7 +51498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="871" spans="1:13" ht="45">
+    <row r="871" spans="1:13" ht="43.5">
       <c r="A871" t="s">
         <v>576</v>
       </c>
@@ -51538,7 +51539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="872" spans="1:13" ht="60">
+    <row r="872" spans="1:13" ht="58">
       <c r="A872" t="s">
         <v>584</v>
       </c>
@@ -51579,7 +51580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="873" spans="1:13" ht="30">
+    <row r="873" spans="1:13" ht="29">
       <c r="A873" t="s">
         <v>592</v>
       </c>
@@ -51620,7 +51621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="874" spans="1:13" ht="60">
+    <row r="874" spans="1:13" ht="43.5">
       <c r="A874" t="s">
         <v>597</v>
       </c>
@@ -51661,7 +51662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="875" spans="1:13" ht="90">
+    <row r="875" spans="1:13" ht="72.5">
       <c r="A875" t="s">
         <v>605</v>
       </c>
@@ -51702,7 +51703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="876" spans="1:13" ht="75">
+    <row r="876" spans="1:13" ht="58">
       <c r="A876" t="s">
         <v>613</v>
       </c>
@@ -51743,7 +51744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="877" spans="1:13" ht="60">
+    <row r="877" spans="1:13" ht="43.5">
       <c r="A877" t="s">
         <v>618</v>
       </c>
@@ -51784,7 +51785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="878" spans="1:13" ht="60">
+    <row r="878" spans="1:13" ht="58">
       <c r="A878" t="s">
         <v>626</v>
       </c>
@@ -51825,7 +51826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="879" spans="1:13" ht="45">
+    <row r="879" spans="1:13" ht="43.5">
       <c r="A879" t="s">
         <v>634</v>
       </c>
@@ -51866,7 +51867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="880" spans="1:13" ht="75">
+    <row r="880" spans="1:13" ht="72.5">
       <c r="A880" t="s">
         <v>639</v>
       </c>
@@ -51907,7 +51908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="881" spans="1:13" ht="90">
+    <row r="881" spans="1:13" ht="72.5">
       <c r="A881" t="s">
         <v>647</v>
       </c>
@@ -51948,7 +51949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="882" spans="1:13" ht="60">
+    <row r="882" spans="1:13" ht="58">
       <c r="A882" t="s">
         <v>655</v>
       </c>
@@ -51989,7 +51990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="883" spans="1:13" ht="45">
+    <row r="883" spans="1:13" ht="29">
       <c r="A883" t="s">
         <v>660</v>
       </c>
@@ -52030,7 +52031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="884" spans="1:13" ht="60">
+    <row r="884" spans="1:13" ht="43.5">
       <c r="A884" t="s">
         <v>668</v>
       </c>
@@ -52071,7 +52072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="885" spans="1:13" ht="45">
+    <row r="885" spans="1:13" ht="29">
       <c r="A885" t="s">
         <v>674</v>
       </c>
@@ -52112,7 +52113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="886" spans="1:13" ht="45">
+    <row r="886" spans="1:13" ht="43.5">
       <c r="A886" t="s">
         <v>679</v>
       </c>
@@ -52153,7 +52154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="887" spans="1:13" ht="60">
+    <row r="887" spans="1:13" ht="43.5">
       <c r="A887" t="s">
         <v>687</v>
       </c>
@@ -52194,7 +52195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="888" spans="1:13" ht="45">
+    <row r="888" spans="1:13" ht="29">
       <c r="A888" t="s">
         <v>695</v>
       </c>
@@ -52235,7 +52236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="889" spans="1:13" ht="75">
+    <row r="889" spans="1:13" ht="72.5">
       <c r="A889" t="s">
         <v>700</v>
       </c>
@@ -52276,7 +52277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="890" spans="1:13" ht="75">
+    <row r="890" spans="1:13" ht="72.5">
       <c r="A890" t="s">
         <v>708</v>
       </c>
@@ -52317,7 +52318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="891" spans="1:13" ht="60">
+    <row r="891" spans="1:13" ht="58">
       <c r="A891" t="s">
         <v>716</v>
       </c>
@@ -52358,7 +52359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="892" spans="1:13" ht="60">
+    <row r="892" spans="1:13" ht="43.5">
       <c r="A892" t="s">
         <v>721</v>
       </c>
@@ -52399,7 +52400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="893" spans="1:13" ht="75">
+    <row r="893" spans="1:13" ht="72.5">
       <c r="A893" t="s">
         <v>729</v>
       </c>
@@ -52440,7 +52441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="894" spans="1:13" ht="45">
+    <row r="894" spans="1:13" ht="43.5">
       <c r="A894" t="s">
         <v>737</v>
       </c>
@@ -52481,7 +52482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="895" spans="1:13" ht="60">
+    <row r="895" spans="1:13" ht="58">
       <c r="A895" t="s">
         <v>742</v>
       </c>
@@ -52522,7 +52523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="896" spans="1:13" ht="45">
+    <row r="896" spans="1:13" ht="43.5">
       <c r="A896" t="s">
         <v>749</v>
       </c>
@@ -52563,7 +52564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="897" spans="1:13" ht="90">
+    <row r="897" spans="1:13" ht="72.5">
       <c r="A897" t="s">
         <v>753</v>
       </c>
@@ -52604,7 +52605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="898" spans="1:13" ht="90">
+    <row r="898" spans="1:13" ht="72.5">
       <c r="A898" t="s">
         <v>760</v>
       </c>
@@ -52645,7 +52646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="899" spans="1:13" ht="90">
+    <row r="899" spans="1:13" ht="72.5">
       <c r="A899" t="s">
         <v>764</v>
       </c>
@@ -52686,7 +52687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="900" spans="1:13" ht="90">
+    <row r="900" spans="1:13" ht="72.5">
       <c r="A900" t="s">
         <v>771</v>
       </c>
@@ -52727,7 +52728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="901" spans="1:13" ht="90">
+    <row r="901" spans="1:13" ht="72.5">
       <c r="A901" t="s">
         <v>775</v>
       </c>
@@ -52768,7 +52769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="902" spans="1:13" ht="90">
+    <row r="902" spans="1:13" ht="72.5">
       <c r="A902" t="s">
         <v>779</v>
       </c>
@@ -52809,7 +52810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="903" spans="1:13" ht="75">
+    <row r="903" spans="1:13" ht="72.5">
       <c r="A903" t="s">
         <v>783</v>
       </c>
@@ -52850,7 +52851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="904" spans="1:13" ht="75">
+    <row r="904" spans="1:13" ht="72.5">
       <c r="A904" t="s">
         <v>790</v>
       </c>
@@ -52891,7 +52892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="905" spans="1:13" ht="75">
+    <row r="905" spans="1:13" ht="72.5">
       <c r="A905" t="s">
         <v>794</v>
       </c>
@@ -52932,7 +52933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="906" spans="1:13" ht="75">
+    <row r="906" spans="1:13" ht="72.5">
       <c r="A906" t="s">
         <v>801</v>
       </c>
@@ -52973,7 +52974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="907" spans="1:13" ht="90">
+    <row r="907" spans="1:13" ht="72.5">
       <c r="A907" t="s">
         <v>805</v>
       </c>
@@ -53014,7 +53015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="908" spans="1:13" ht="90">
+    <row r="908" spans="1:13" ht="72.5">
       <c r="A908" t="s">
         <v>812</v>
       </c>
@@ -53055,7 +53056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="909" spans="1:13" ht="45">
+    <row r="909" spans="1:13" ht="43.5">
       <c r="A909" t="s">
         <v>816</v>
       </c>
@@ -53096,7 +53097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="910" spans="1:13" ht="90">
+    <row r="910" spans="1:13" ht="87">
       <c r="A910" t="s">
         <v>822</v>
       </c>
@@ -53137,7 +53138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="911" spans="1:13" ht="45">
+    <row r="911" spans="1:13" ht="43.5">
       <c r="A911" t="s">
         <v>829</v>
       </c>
@@ -53178,7 +53179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="912" spans="1:13" ht="60">
+    <row r="912" spans="1:13" ht="58">
       <c r="A912" t="s">
         <v>836</v>
       </c>
@@ -53219,7 +53220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="913" spans="1:13" ht="75">
+    <row r="913" spans="1:13" ht="58">
       <c r="A913" t="s">
         <v>843</v>
       </c>
@@ -53260,7 +53261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="914" spans="1:13" ht="105">
+    <row r="914" spans="1:13" ht="87">
       <c r="A914" t="s">
         <v>847</v>
       </c>
@@ -53301,7 +53302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="915" spans="1:13" ht="75">
+    <row r="915" spans="1:13" ht="43.5">
       <c r="A915" t="s">
         <v>854</v>
       </c>
@@ -53342,7 +53343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="916" spans="1:13" ht="45">
+    <row r="916" spans="1:13" ht="43.5">
       <c r="A916" t="s">
         <v>861</v>
       </c>
@@ -53383,7 +53384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="917" spans="1:13" ht="45">
+    <row r="917" spans="1:13" ht="43.5">
       <c r="A917" t="s">
         <v>868</v>
       </c>
@@ -53424,7 +53425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="918" spans="1:13" ht="75">
+    <row r="918" spans="1:13" ht="72.5">
       <c r="A918" t="s">
         <v>872</v>
       </c>
@@ -53465,7 +53466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="919" spans="1:13" ht="60">
+    <row r="919" spans="1:13" ht="58">
       <c r="A919" t="s">
         <v>879</v>
       </c>
@@ -53506,7 +53507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="920" spans="1:13" ht="60">
+    <row r="920" spans="1:13" ht="58">
       <c r="A920" t="s">
         <v>886</v>
       </c>
@@ -53547,7 +53548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="921" spans="1:13" ht="75">
+    <row r="921" spans="1:13" ht="58">
       <c r="A921" t="s">
         <v>890</v>
       </c>
@@ -53588,7 +53589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="922" spans="1:13" ht="60">
+    <row r="922" spans="1:13" ht="58">
       <c r="A922" t="s">
         <v>897</v>
       </c>
@@ -53629,7 +53630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="923" spans="1:13" ht="60">
+    <row r="923" spans="1:13" ht="58">
       <c r="A923" t="s">
         <v>904</v>
       </c>
@@ -53670,7 +53671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="924" spans="1:13" ht="75">
+    <row r="924" spans="1:13" ht="58">
       <c r="A924" t="s">
         <v>910</v>
       </c>
@@ -53711,7 +53712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="925" spans="1:13" ht="45">
+    <row r="925" spans="1:13" ht="43.5">
       <c r="A925" t="s">
         <v>917</v>
       </c>
@@ -53752,7 +53753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="926" spans="1:13" ht="45">
+    <row r="926" spans="1:13" ht="43.5">
       <c r="A926" t="s">
         <v>924</v>
       </c>
@@ -53793,7 +53794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="927" spans="1:13" ht="35.85" customHeight="1">
+    <row r="927" spans="1:13" ht="35.9" customHeight="1">
       <c r="A927" t="s">
         <v>928</v>
       </c>
@@ -53998,7 +53999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="932" spans="1:13" ht="30">
+    <row r="932" spans="1:13" ht="29">
       <c r="A932" t="s">
         <v>964</v>
       </c>
@@ -54039,7 +54040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="933" spans="1:13" ht="30">
+    <row r="933" spans="1:13" ht="29">
       <c r="A933" t="s">
         <v>968</v>
       </c>
@@ -54080,7 +54081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="934" spans="1:13" ht="30">
+    <row r="934" spans="1:13" ht="29">
       <c r="A934" t="s">
         <v>972</v>
       </c>
@@ -54121,7 +54122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="935" spans="1:13" ht="105">
+    <row r="935" spans="1:13" ht="101.5">
       <c r="A935" t="s">
         <v>976</v>
       </c>
@@ -54162,7 +54163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="936" spans="1:13" ht="120">
+    <row r="936" spans="1:13" ht="116">
       <c r="A936" t="s">
         <v>980</v>
       </c>
@@ -54203,7 +54204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="937" spans="1:13" ht="240">
+    <row r="937" spans="1:13" ht="217.5">
       <c r="A937" t="s">
         <v>1001</v>
       </c>
@@ -54244,7 +54245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="938" spans="1:13" ht="195">
+    <row r="938" spans="1:13" ht="188.5">
       <c r="A938" t="s">
         <v>1010</v>
       </c>
@@ -54656,10 +54657,10 @@
         <v>1282</v>
       </c>
       <c r="B948" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C948" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D948" t="s">
         <v>15</v>
@@ -54668,7 +54669,7 @@
         <v>16</v>
       </c>
       <c r="F948" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="G948">
         <v>10002</v>
@@ -54677,7 +54678,7 @@
         <v>118</v>
       </c>
       <c r="I948" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="J948" t="s">
         <v>20</v>
@@ -54697,10 +54698,10 @@
         <v>1283</v>
       </c>
       <c r="B949" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C949" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D949" t="s">
         <v>15</v>
@@ -54709,7 +54710,7 @@
         <v>16</v>
       </c>
       <c r="F949" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="G949">
         <v>10002</v>
@@ -54718,7 +54719,7 @@
         <v>118</v>
       </c>
       <c r="I949" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="J949" t="s">
         <v>35</v>
@@ -54738,10 +54739,10 @@
         <v>1284</v>
       </c>
       <c r="B950" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C950" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D950" t="s">
         <v>15</v>
@@ -54750,7 +54751,7 @@
         <v>16</v>
       </c>
       <c r="F950" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="G950">
         <v>10002</v>
@@ -54759,7 +54760,7 @@
         <v>118</v>
       </c>
       <c r="I950" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="J950" t="s">
         <v>43</v>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1072510\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD151A-F512-4DBD-96DF-5B0BCB74CC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262BBC26-AF4A-4E68-B25A-C4C5558E7455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$M$467</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$968</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11578" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11611" uniqueCount="1929">
   <si>
     <t>id</t>
   </si>
@@ -15487,6 +15487,12 @@
 يرجى ملاحظة أنه تم إلغاء موعد $ApplicationDetails الخاص بك مقابل معرّف التطبيق $ApplicationId وتاريخ الموعد $Appointmentdate و زمن $Appointmenttime.
 اطلب منك تسجيل الدخول إلى البوابة الإلكترونية وإعادة حجز مكان آخر لـ $ApplicationDetails.
 شكرًا لك.</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;title&gt;Consent&lt;/title&gt;&lt;/head&gt;&lt;body&gt;&lt;div&gt;I understand that the data collected about me during registration by the said authority includes &lt;br&gt;&lt;br&gt; &amp;#x2022 Biometrics &lt;br&gt; &lt;br&gt;I also understand that this information will be stored and processed for the purpose of verifying my identity in order to access various services, or to comply with a legal obligation. I give my consent for the collection of this data for this purpose&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Biometric correction Consent</t>
   </si>
 </sst>
 </file>
@@ -15942,28 +15948,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M968"/>
+  <dimension ref="A1:M974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D457" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H464" sqref="H464"/>
+    <sheetView tabSelected="1" topLeftCell="A967" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A969" sqref="A969:C971"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="50.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" customWidth="1"/>
-    <col min="9" max="9" width="30.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
     <col min="11" max="11" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="22.7265625" customWidth="1"/>
-    <col min="953" max="1024" width="9.1796875" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" customWidth="1"/>
+    <col min="953" max="1024" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16253,7 +16259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.5">
+    <row r="8" spans="1:13" ht="43.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -16335,7 +16341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29">
+    <row r="10" spans="1:13" ht="28.8">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -17032,7 +17038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="43.5">
+    <row r="27" spans="1:13" ht="43.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -17073,7 +17079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="43.5">
+    <row r="28" spans="1:13" ht="43.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -17114,7 +17120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="43.5">
+    <row r="29" spans="1:13" ht="43.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -17155,7 +17161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="43.5">
+    <row r="30" spans="1:13" ht="43.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -17196,7 +17202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="29">
+    <row r="31" spans="1:13" ht="28.8">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -17237,7 +17243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29">
+    <row r="32" spans="1:13" ht="28.8">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -17278,7 +17284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="43.5">
+    <row r="33" spans="1:13" ht="43.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -17319,7 +17325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="43.5">
+    <row r="34" spans="1:13" ht="43.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18098,7 +18104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="57.5">
+    <row r="53" spans="1:13" ht="57">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -18139,7 +18145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.5">
+    <row r="54" spans="1:13" ht="28.2">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -18180,7 +18186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="57.5">
+    <row r="55" spans="1:13" ht="57">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -18221,7 +18227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="43.5">
+    <row r="56" spans="1:13" ht="43.2">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -18262,7 +18268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="29">
+    <row r="57" spans="1:13" ht="28.8">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -18303,7 +18309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.5">
+    <row r="58" spans="1:13" ht="43.2">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -18344,7 +18350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="57.5">
+    <row r="59" spans="1:13" ht="57">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -18385,7 +18391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28.5">
+    <row r="60" spans="1:13" ht="28.2">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -18426,7 +18432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="57.5">
+    <row r="61" spans="1:13" ht="57">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -18467,7 +18473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="130.5">
+    <row r="62" spans="1:13" ht="129.6">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -18713,7 +18719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="145">
+    <row r="68" spans="1:13" ht="129.6">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -18959,7 +18965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="112.5">
+    <row r="74" spans="1:13" ht="111">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -19000,7 +19006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="29">
+    <row r="75" spans="1:13" ht="28.8">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -19041,7 +19047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="29">
+    <row r="76" spans="1:13" ht="28.8">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -19082,7 +19088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.5">
+    <row r="77" spans="1:13" ht="28.2">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -19123,7 +19129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="29">
+    <row r="78" spans="1:13" ht="28.8">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -19164,7 +19170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="58">
+    <row r="79" spans="1:13" ht="57.6">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -19287,7 +19293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.5">
+    <row r="82" spans="1:13" ht="28.2">
       <c r="A82" t="s">
         <v>227</v>
       </c>
@@ -19533,7 +19539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="29">
+    <row r="88" spans="1:13" ht="28.8">
       <c r="A88" t="s">
         <v>241</v>
       </c>
@@ -19656,7 +19662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="29">
+    <row r="91" spans="1:13" ht="28.8">
       <c r="A91" t="s">
         <v>248</v>
       </c>
@@ -19779,7 +19785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="29">
+    <row r="94" spans="1:13" ht="28.8">
       <c r="A94" t="s">
         <v>255</v>
       </c>
@@ -19902,7 +19908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="29">
+    <row r="97" spans="1:13" ht="28.8">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -20025,7 +20031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="130.5">
+    <row r="100" spans="1:13" ht="129.6">
       <c r="A100" t="s">
         <v>269</v>
       </c>
@@ -20148,7 +20154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="130.5">
+    <row r="103" spans="1:13" ht="129.6">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -20558,7 +20564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="28.5">
+    <row r="113" spans="1:13" ht="28.2">
       <c r="A113" t="s">
         <v>306</v>
       </c>
@@ -20681,7 +20687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="28.5">
+    <row r="116" spans="1:13" ht="28.2">
       <c r="A116" t="s">
         <v>312</v>
       </c>
@@ -20927,7 +20933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="28.5">
+    <row r="122" spans="1:13" ht="28.2">
       <c r="A122" t="s">
         <v>318</v>
       </c>
@@ -21050,7 +21056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="28.5">
+    <row r="125" spans="1:13" ht="28.2">
       <c r="A125" t="s">
         <v>320</v>
       </c>
@@ -21296,7 +21302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.5">
+    <row r="131" spans="1:13" ht="28.2">
       <c r="A131" t="s">
         <v>322</v>
       </c>
@@ -21419,7 +21425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.5">
+    <row r="134" spans="1:13" ht="28.2">
       <c r="A134" t="s">
         <v>323</v>
       </c>
@@ -21542,7 +21548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="29">
+    <row r="137" spans="1:13" ht="28.8">
       <c r="A137" t="s">
         <v>324</v>
       </c>
@@ -21665,7 +21671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="28.5">
+    <row r="140" spans="1:13" ht="28.2">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -21788,7 +21794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="29">
+    <row r="143" spans="1:13" ht="28.8">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -21911,7 +21917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="71">
+    <row r="146" spans="1:13" ht="70.2">
       <c r="A146" t="s">
         <v>348</v>
       </c>
@@ -22034,7 +22040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="29">
+    <row r="149" spans="1:13" ht="28.8">
       <c r="A149" t="s">
         <v>356</v>
       </c>
@@ -22157,7 +22163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="29">
+    <row r="152" spans="1:13" ht="28.8">
       <c r="A152" t="s">
         <v>363</v>
       </c>
@@ -22280,7 +22286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="28.5">
+    <row r="155" spans="1:13" ht="28.2">
       <c r="A155" t="s">
         <v>366</v>
       </c>
@@ -22403,7 +22409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="28.5">
+    <row r="158" spans="1:13" ht="28.2">
       <c r="A158" t="s">
         <v>371</v>
       </c>
@@ -22444,7 +22450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="116">
+    <row r="159" spans="1:13" ht="115.2">
       <c r="A159" t="s">
         <v>373</v>
       </c>
@@ -22485,7 +22491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="130.5">
+    <row r="160" spans="1:13" ht="129.6">
       <c r="A160" t="s">
         <v>373</v>
       </c>
@@ -22526,7 +22532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="98.5">
+    <row r="161" spans="1:13" ht="97.2">
       <c r="A161" t="s">
         <v>373</v>
       </c>
@@ -22649,7 +22655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="29">
+    <row r="164" spans="1:13" ht="28.8">
       <c r="A164" t="s">
         <v>378</v>
       </c>
@@ -22772,7 +22778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="43.5">
+    <row r="167" spans="1:13" ht="43.2">
       <c r="A167" t="s">
         <v>386</v>
       </c>
@@ -23018,7 +23024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="29">
+    <row r="173" spans="1:13" ht="28.8">
       <c r="A173" t="s">
         <v>401</v>
       </c>
@@ -23141,7 +23147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="29">
+    <row r="176" spans="1:13" ht="28.8">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -23264,7 +23270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="28.5">
+    <row r="179" spans="1:13" ht="28.2">
       <c r="A179" t="s">
         <v>417</v>
       </c>
@@ -23387,7 +23393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="29">
+    <row r="182" spans="1:13" ht="28.8">
       <c r="A182" t="s">
         <v>425</v>
       </c>
@@ -23510,7 +23516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="28.5">
+    <row r="185" spans="1:13" ht="28.2">
       <c r="A185" t="s">
         <v>433</v>
       </c>
@@ -23633,7 +23639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="29">
+    <row r="188" spans="1:13" ht="28.8">
       <c r="A188" t="s">
         <v>443</v>
       </c>
@@ -23756,7 +23762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="29">
+    <row r="191" spans="1:13" ht="28.8">
       <c r="A191" t="s">
         <v>448</v>
       </c>
@@ -23879,7 +23885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="28.5">
+    <row r="194" spans="1:13" ht="28.2">
       <c r="A194" t="s">
         <v>456</v>
       </c>
@@ -24002,7 +24008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="29">
+    <row r="197" spans="1:13" ht="28.8">
       <c r="A197" t="s">
         <v>464</v>
       </c>
@@ -24125,7 +24131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="29">
+    <row r="200" spans="1:13" ht="28.8">
       <c r="A200" t="s">
         <v>469</v>
       </c>
@@ -24248,7 +24254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="28.5">
+    <row r="203" spans="1:13" ht="28.2">
       <c r="A203" t="s">
         <v>477</v>
       </c>
@@ -24371,7 +24377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="29">
+    <row r="206" spans="1:13" ht="28.8">
       <c r="A206" t="s">
         <v>485</v>
       </c>
@@ -24494,7 +24500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="29">
+    <row r="209" spans="1:13" ht="28.8">
       <c r="A209" t="s">
         <v>490</v>
       </c>
@@ -24617,7 +24623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="28.5">
+    <row r="212" spans="1:13" ht="28.2">
       <c r="A212" t="s">
         <v>498</v>
       </c>
@@ -24740,7 +24746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="29">
+    <row r="215" spans="1:13" ht="28.8">
       <c r="A215" t="s">
         <v>506</v>
       </c>
@@ -24863,7 +24869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="28.5">
+    <row r="218" spans="1:13" ht="28.2">
       <c r="A218" t="s">
         <v>511</v>
       </c>
@@ -24986,7 +24992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="28.5">
+    <row r="221" spans="1:13" ht="28.2">
       <c r="A221" t="s">
         <v>519</v>
       </c>
@@ -25232,7 +25238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="29">
+    <row r="227" spans="1:13" ht="28.8">
       <c r="A227" t="s">
         <v>532</v>
       </c>
@@ -25355,7 +25361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="28.5">
+    <row r="230" spans="1:13" ht="28.2">
       <c r="A230" t="s">
         <v>540</v>
       </c>
@@ -25478,7 +25484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="29">
+    <row r="233" spans="1:13" ht="28.8">
       <c r="A233" t="s">
         <v>548</v>
       </c>
@@ -25601,7 +25607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="29">
+    <row r="236" spans="1:13" ht="28.8">
       <c r="A236" t="s">
         <v>553</v>
       </c>
@@ -25724,7 +25730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="28.5">
+    <row r="239" spans="1:13" ht="28.2">
       <c r="A239" t="s">
         <v>561</v>
       </c>
@@ -25847,7 +25853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="28.5">
+    <row r="242" spans="1:13" ht="28.2">
       <c r="A242" t="s">
         <v>569</v>
       </c>
@@ -25970,7 +25976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="29">
+    <row r="245" spans="1:13" ht="28.8">
       <c r="A245" t="s">
         <v>576</v>
       </c>
@@ -26093,7 +26099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="28.5">
+    <row r="248" spans="1:13" ht="28.2">
       <c r="A248" t="s">
         <v>584</v>
       </c>
@@ -26216,7 +26222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="29">
+    <row r="251" spans="1:13" ht="28.8">
       <c r="A251" t="s">
         <v>592</v>
       </c>
@@ -26339,7 +26345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="29">
+    <row r="254" spans="1:13" ht="28.8">
       <c r="A254" t="s">
         <v>597</v>
       </c>
@@ -26462,7 +26468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="28.5">
+    <row r="257" spans="1:13" ht="28.2">
       <c r="A257" t="s">
         <v>605</v>
       </c>
@@ -26585,7 +26591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="29">
+    <row r="260" spans="1:13" ht="28.8">
       <c r="A260" t="s">
         <v>613</v>
       </c>
@@ -26708,7 +26714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="29">
+    <row r="263" spans="1:13" ht="28.8">
       <c r="A263" t="s">
         <v>618</v>
       </c>
@@ -26831,7 +26837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="28.5">
+    <row r="266" spans="1:13" ht="28.2">
       <c r="A266" t="s">
         <v>626</v>
       </c>
@@ -26954,7 +26960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="29">
+    <row r="269" spans="1:13" ht="28.8">
       <c r="A269" t="s">
         <v>634</v>
       </c>
@@ -27077,7 +27083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="29">
+    <row r="272" spans="1:13" ht="28.8">
       <c r="A272" t="s">
         <v>639</v>
       </c>
@@ -27200,7 +27206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="42.5">
+    <row r="275" spans="1:13" ht="42">
       <c r="A275" t="s">
         <v>647</v>
       </c>
@@ -27323,7 +27329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="29">
+    <row r="278" spans="1:13" ht="28.8">
       <c r="A278" t="s">
         <v>655</v>
       </c>
@@ -27446,7 +27452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="29">
+    <row r="281" spans="1:13" ht="28.8">
       <c r="A281" t="s">
         <v>660</v>
       </c>
@@ -27569,7 +27575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="29">
+    <row r="284" spans="1:13" ht="28.8">
       <c r="A284" t="s">
         <v>668</v>
       </c>
@@ -27692,7 +27698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="29">
+    <row r="287" spans="1:13" ht="28.8">
       <c r="A287" t="s">
         <v>674</v>
       </c>
@@ -27815,7 +27821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="29">
+    <row r="290" spans="1:13" ht="28.8">
       <c r="A290" t="s">
         <v>679</v>
       </c>
@@ -27938,7 +27944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="28.5">
+    <row r="293" spans="1:13" ht="28.2">
       <c r="A293" t="s">
         <v>687</v>
       </c>
@@ -28061,7 +28067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="29">
+    <row r="296" spans="1:13" ht="28.8">
       <c r="A296" t="s">
         <v>695</v>
       </c>
@@ -28184,7 +28190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="29">
+    <row r="299" spans="1:13" ht="28.8">
       <c r="A299" t="s">
         <v>700</v>
       </c>
@@ -28307,7 +28313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="29">
+    <row r="302" spans="1:13" ht="42.6">
       <c r="A302" t="s">
         <v>708</v>
       </c>
@@ -28430,7 +28436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="29">
+    <row r="305" spans="1:13" ht="28.8">
       <c r="A305" t="s">
         <v>716</v>
       </c>
@@ -28553,7 +28559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="29">
+    <row r="308" spans="1:13" ht="28.8">
       <c r="A308" t="s">
         <v>721</v>
       </c>
@@ -28676,7 +28682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="29">
+    <row r="311" spans="1:13" ht="28.8">
       <c r="A311" t="s">
         <v>729</v>
       </c>
@@ -28799,7 +28805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="29">
+    <row r="314" spans="1:13" ht="28.8">
       <c r="A314" t="s">
         <v>737</v>
       </c>
@@ -28922,7 +28928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="29">
+    <row r="317" spans="1:13" ht="28.8">
       <c r="A317" t="s">
         <v>742</v>
       </c>
@@ -29045,7 +29051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="29">
+    <row r="320" spans="1:13" ht="28.8">
       <c r="A320" t="s">
         <v>749</v>
       </c>
@@ -29168,7 +29174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="29">
+    <row r="323" spans="1:13" ht="28.8">
       <c r="A323" t="s">
         <v>753</v>
       </c>
@@ -29291,7 +29297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="29">
+    <row r="326" spans="1:13" ht="28.8">
       <c r="A326" t="s">
         <v>760</v>
       </c>
@@ -29414,7 +29420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="29">
+    <row r="329" spans="1:13" ht="28.8">
       <c r="A329" t="s">
         <v>764</v>
       </c>
@@ -29537,7 +29543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="29">
+    <row r="332" spans="1:13" ht="28.8">
       <c r="A332" t="s">
         <v>771</v>
       </c>
@@ -29660,7 +29666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="29">
+    <row r="335" spans="1:13" ht="28.8">
       <c r="A335" t="s">
         <v>775</v>
       </c>
@@ -29783,7 +29789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="29">
+    <row r="338" spans="1:13" ht="28.8">
       <c r="A338" t="s">
         <v>779</v>
       </c>
@@ -29906,7 +29912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="42.5">
+    <row r="341" spans="1:13" ht="42">
       <c r="A341" t="s">
         <v>783</v>
       </c>
@@ -30029,7 +30035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="29">
+    <row r="344" spans="1:13" ht="28.8">
       <c r="A344" t="s">
         <v>790</v>
       </c>
@@ -30152,7 +30158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="29">
+    <row r="347" spans="1:13" ht="28.8">
       <c r="A347" t="s">
         <v>794</v>
       </c>
@@ -30275,7 +30281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="29">
+    <row r="350" spans="1:13" ht="28.8">
       <c r="A350" t="s">
         <v>801</v>
       </c>
@@ -30398,7 +30404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="29">
+    <row r="353" spans="1:13" ht="28.8">
       <c r="A353" t="s">
         <v>805</v>
       </c>
@@ -30521,7 +30527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="43">
+    <row r="356" spans="1:13" ht="42.6">
       <c r="A356" t="s">
         <v>812</v>
       </c>
@@ -30644,7 +30650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="28.5">
+    <row r="359" spans="1:13" ht="28.2">
       <c r="A359" t="s">
         <v>816</v>
       </c>
@@ -30767,7 +30773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="28.5">
+    <row r="362" spans="1:13" ht="28.2">
       <c r="A362" t="s">
         <v>822</v>
       </c>
@@ -30890,7 +30896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="28.5">
+    <row r="365" spans="1:13" ht="28.2">
       <c r="A365" t="s">
         <v>829</v>
       </c>
@@ -31013,7 +31019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="42.5">
+    <row r="368" spans="1:13" ht="42">
       <c r="A368" t="s">
         <v>836</v>
       </c>
@@ -31136,7 +31142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="42.5">
+    <row r="371" spans="1:13" ht="42">
       <c r="A371" t="s">
         <v>843</v>
       </c>
@@ -31259,7 +31265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="28.5">
+    <row r="374" spans="1:13" ht="28.2">
       <c r="A374" t="s">
         <v>847</v>
       </c>
@@ -31382,7 +31388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="42.5">
+    <row r="377" spans="1:13" ht="42">
       <c r="A377" t="s">
         <v>854</v>
       </c>
@@ -31505,7 +31511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="43.5">
+    <row r="380" spans="1:13" ht="43.2">
       <c r="A380" t="s">
         <v>861</v>
       </c>
@@ -31628,7 +31634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="43.5">
+    <row r="383" spans="1:13" ht="43.2">
       <c r="A383" t="s">
         <v>868</v>
       </c>
@@ -31751,7 +31757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="29">
+    <row r="386" spans="1:13" ht="28.8">
       <c r="A386" t="s">
         <v>872</v>
       </c>
@@ -31874,7 +31880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="29">
+    <row r="389" spans="1:13" ht="28.8">
       <c r="A389" t="s">
         <v>879</v>
       </c>
@@ -31997,7 +32003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="29">
+    <row r="392" spans="1:13" ht="28.8">
       <c r="A392" t="s">
         <v>886</v>
       </c>
@@ -32120,7 +32126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="28.5">
+    <row r="395" spans="1:13" ht="28.2">
       <c r="A395" t="s">
         <v>890</v>
       </c>
@@ -32243,7 +32249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="29">
+    <row r="398" spans="1:13" ht="28.8">
       <c r="A398" t="s">
         <v>897</v>
       </c>
@@ -32366,7 +32372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="29">
+    <row r="401" spans="1:13" ht="28.8">
       <c r="A401" t="s">
         <v>904</v>
       </c>
@@ -32489,7 +32495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="28.5">
+    <row r="404" spans="1:13" ht="28.2">
       <c r="A404" t="s">
         <v>910</v>
       </c>
@@ -32612,7 +32618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="43.5">
+    <row r="407" spans="1:13" ht="43.2">
       <c r="A407" t="s">
         <v>917</v>
       </c>
@@ -32735,7 +32741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="43.5">
+    <row r="410" spans="1:13" ht="43.2">
       <c r="A410" t="s">
         <v>924</v>
       </c>
@@ -32858,7 +32864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="29">
+    <row r="413" spans="1:13" ht="28.8">
       <c r="A413" t="s">
         <v>928</v>
       </c>
@@ -33883,7 +33889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="159.5">
+    <row r="438" spans="1:13" ht="158.4">
       <c r="A438" t="s">
         <v>1010</v>
       </c>
@@ -33924,7 +33930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="174">
+    <row r="439" spans="1:13" ht="172.8">
       <c r="A439" t="s">
         <v>1010</v>
       </c>
@@ -33965,7 +33971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="72.5">
+    <row r="440" spans="1:13" ht="72">
       <c r="A440" t="s">
         <v>1010</v>
       </c>
@@ -34044,7 +34050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="145">
+    <row r="442" spans="1:13" ht="144">
       <c r="A442" t="s">
         <v>1018</v>
       </c>
@@ -34085,7 +34091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="29">
+    <row r="443" spans="1:13" ht="28.8">
       <c r="A443" t="s">
         <v>1018</v>
       </c>
@@ -34205,7 +34211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="28.5">
+    <row r="446" spans="1:13" ht="28.2">
       <c r="A446" t="s">
         <v>1024</v>
       </c>
@@ -34328,7 +34334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="28.5">
+    <row r="449" spans="1:13" ht="28.2">
       <c r="A449" t="s">
         <v>1029</v>
       </c>
@@ -34943,7 +34949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="28.5">
+    <row r="464" spans="1:13" ht="28.2">
       <c r="A464" t="s">
         <v>1054</v>
       </c>
@@ -35107,7 +35113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="58">
+    <row r="468" spans="1:13" ht="57.6">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -35148,7 +35154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="29">
+    <row r="469" spans="1:13" ht="28.8">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -35189,7 +35195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="29">
+    <row r="470" spans="1:13" ht="28.8">
       <c r="A470" t="s">
         <v>28</v>
       </c>
@@ -35230,7 +35236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="29">
+    <row r="471" spans="1:13" ht="28.8">
       <c r="A471" t="s">
         <v>48</v>
       </c>
@@ -35271,7 +35277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="29">
+    <row r="472" spans="1:13" ht="28.8">
       <c r="A472" t="s">
         <v>53</v>
       </c>
@@ -35312,7 +35318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="29">
+    <row r="473" spans="1:13" ht="28.8">
       <c r="A473" t="s">
         <v>57</v>
       </c>
@@ -35353,7 +35359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="29">
+    <row r="474" spans="1:13" ht="28.8">
       <c r="A474" t="s">
         <v>61</v>
       </c>
@@ -35394,7 +35400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="29">
+    <row r="475" spans="1:13" ht="28.8">
       <c r="A475" t="s">
         <v>65</v>
       </c>
@@ -35435,7 +35441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="29">
+    <row r="476" spans="1:13" ht="28.8">
       <c r="A476" t="s">
         <v>69</v>
       </c>
@@ -35476,7 +35482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="29">
+    <row r="477" spans="1:13" ht="28.8">
       <c r="A477" t="s">
         <v>73</v>
       </c>
@@ -35517,7 +35523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="29">
+    <row r="478" spans="1:13" ht="28.8">
       <c r="A478" t="s">
         <v>77</v>
       </c>
@@ -35558,7 +35564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="43.5">
+    <row r="479" spans="1:13" ht="43.2">
       <c r="A479" t="s">
         <v>115</v>
       </c>
@@ -35599,7 +35605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="43.5">
+    <row r="480" spans="1:13" ht="43.2">
       <c r="A480" t="s">
         <v>120</v>
       </c>
@@ -35640,7 +35646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="29">
+    <row r="481" spans="1:13" ht="28.8">
       <c r="A481" t="s">
         <v>124</v>
       </c>
@@ -35681,7 +35687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="29">
+    <row r="482" spans="1:13" ht="28.8">
       <c r="A482" t="s">
         <v>127</v>
       </c>
@@ -35722,7 +35728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="29">
+    <row r="483" spans="1:13" ht="28.8">
       <c r="A483" t="s">
         <v>131</v>
       </c>
@@ -35804,7 +35810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="43.5">
+    <row r="485" spans="1:13" ht="43.2">
       <c r="A485" t="s">
         <v>138</v>
       </c>
@@ -35845,7 +35851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="43.5">
+    <row r="486" spans="1:13" ht="43.2">
       <c r="A486" t="s">
         <v>142</v>
       </c>
@@ -35886,7 +35892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="43.5">
+    <row r="487" spans="1:13" ht="43.2">
       <c r="A487" t="s">
         <v>146</v>
       </c>
@@ -35927,7 +35933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="29">
+    <row r="488" spans="1:13" ht="28.8">
       <c r="A488" t="s">
         <v>182</v>
       </c>
@@ -35968,7 +35974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="29">
+    <row r="489" spans="1:13" ht="28.8">
       <c r="A489" t="s">
         <v>186</v>
       </c>
@@ -36009,7 +36015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="29">
+    <row r="490" spans="1:13" ht="28.8">
       <c r="A490" t="s">
         <v>190</v>
       </c>
@@ -36050,7 +36056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="29">
+    <row r="491" spans="1:13" ht="28.8">
       <c r="A491" t="s">
         <v>194</v>
       </c>
@@ -36132,7 +36138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="29">
+    <row r="493" spans="1:13" ht="28.8">
       <c r="A493" t="s">
         <v>201</v>
       </c>
@@ -36173,7 +36179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="29">
+    <row r="494" spans="1:13" ht="28.8">
       <c r="A494" t="s">
         <v>227</v>
       </c>
@@ -36214,7 +36220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="11" customFormat="1" ht="15.5">
+    <row r="495" spans="1:13" s="11" customFormat="1" ht="15">
       <c r="A495" s="11">
         <v>1131</v>
       </c>
@@ -36255,7 +36261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="29">
+    <row r="496" spans="1:13" ht="28.8">
       <c r="A496" t="s">
         <v>241</v>
       </c>
@@ -36296,7 +36302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="29">
+    <row r="497" spans="1:13" ht="28.8">
       <c r="A497" t="s">
         <v>248</v>
       </c>
@@ -36337,7 +36343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="29">
+    <row r="498" spans="1:13" ht="28.8">
       <c r="A498" t="s">
         <v>255</v>
       </c>
@@ -36378,7 +36384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="43.5">
+    <row r="499" spans="1:13" ht="43.2">
       <c r="A499" t="s">
         <v>262</v>
       </c>
@@ -36665,7 +36671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="29">
+    <row r="506" spans="1:13" ht="28.8">
       <c r="A506" t="s">
         <v>298</v>
       </c>
@@ -36706,7 +36712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="29">
+    <row r="507" spans="1:13" ht="28.8">
       <c r="A507" t="s">
         <v>306</v>
       </c>
@@ -36747,7 +36753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="29">
+    <row r="508" spans="1:13" ht="28.8">
       <c r="A508" t="s">
         <v>312</v>
       </c>
@@ -36829,7 +36835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="29">
+    <row r="510" spans="1:13" ht="28.8">
       <c r="A510" t="s">
         <v>318</v>
       </c>
@@ -36870,7 +36876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="29">
+    <row r="511" spans="1:13" ht="28.8">
       <c r="A511" t="s">
         <v>320</v>
       </c>
@@ -36911,7 +36917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="29">
+    <row r="512" spans="1:13" ht="28.8">
       <c r="A512" t="s">
         <v>321</v>
       </c>
@@ -36952,7 +36958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="29">
+    <row r="513" spans="1:13" ht="28.8">
       <c r="A513" t="s">
         <v>322</v>
       </c>
@@ -36993,7 +36999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="29">
+    <row r="514" spans="1:13" ht="28.8">
       <c r="A514" t="s">
         <v>323</v>
       </c>
@@ -37034,7 +37040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="29">
+    <row r="515" spans="1:13" ht="28.8">
       <c r="A515" t="s">
         <v>324</v>
       </c>
@@ -37075,7 +37081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="29">
+    <row r="516" spans="1:13" ht="28.8">
       <c r="A516" t="s">
         <v>332</v>
       </c>
@@ -37116,7 +37122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="29">
+    <row r="517" spans="1:13" ht="28.8">
       <c r="A517" t="s">
         <v>340</v>
       </c>
@@ -37362,7 +37368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="29">
+    <row r="523" spans="1:13" ht="28.8">
       <c r="A523" t="s">
         <v>373</v>
       </c>
@@ -37403,7 +37409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="29">
+    <row r="524" spans="1:13" ht="28.8">
       <c r="A524" t="s">
         <v>378</v>
       </c>
@@ -37444,7 +37450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="29">
+    <row r="525" spans="1:13" ht="28.8">
       <c r="A525" t="s">
         <v>386</v>
       </c>
@@ -37485,7 +37491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:13" ht="409.5">
+    <row r="526" spans="1:13" ht="409.6">
       <c r="A526" t="s">
         <v>394</v>
       </c>
@@ -37526,7 +37532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="43.5">
+    <row r="527" spans="1:13" ht="43.2">
       <c r="A527" t="s">
         <v>401</v>
       </c>
@@ -37567,7 +37573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="29">
+    <row r="528" spans="1:13" ht="28.8">
       <c r="A528" t="s">
         <v>411</v>
       </c>
@@ -37608,7 +37614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="43.5">
+    <row r="529" spans="1:13" ht="43.2">
       <c r="A529" t="s">
         <v>417</v>
       </c>
@@ -37649,7 +37655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:13" ht="29">
+    <row r="530" spans="1:13" ht="28.8">
       <c r="A530" t="s">
         <v>425</v>
       </c>
@@ -37690,7 +37696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:13" ht="43.5">
+    <row r="531" spans="1:13" ht="43.2">
       <c r="A531" t="s">
         <v>433</v>
       </c>
@@ -37731,7 +37737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="29">
+    <row r="532" spans="1:13" ht="28.8">
       <c r="A532" t="s">
         <v>443</v>
       </c>
@@ -37772,7 +37778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="29">
+    <row r="533" spans="1:13" ht="28.8">
       <c r="A533" t="s">
         <v>448</v>
       </c>
@@ -37813,7 +37819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="43.5">
+    <row r="534" spans="1:13" ht="43.2">
       <c r="A534" t="s">
         <v>456</v>
       </c>
@@ -37854,7 +37860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="29">
+    <row r="535" spans="1:13" ht="28.8">
       <c r="A535" t="s">
         <v>464</v>
       </c>
@@ -37936,7 +37942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="43.5">
+    <row r="537" spans="1:13" ht="43.2">
       <c r="A537" t="s">
         <v>477</v>
       </c>
@@ -37977,7 +37983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="43.5">
+    <row r="538" spans="1:13" ht="43.2">
       <c r="A538" t="s">
         <v>485</v>
       </c>
@@ -38018,7 +38024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="29">
+    <row r="539" spans="1:13" ht="28.8">
       <c r="A539" t="s">
         <v>490</v>
       </c>
@@ -38059,7 +38065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="29">
+    <row r="540" spans="1:13" ht="28.8">
       <c r="A540" t="s">
         <v>498</v>
       </c>
@@ -38100,7 +38106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="29">
+    <row r="541" spans="1:13" ht="28.8">
       <c r="A541" t="s">
         <v>506</v>
       </c>
@@ -38141,7 +38147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="29">
+    <row r="542" spans="1:13" ht="28.8">
       <c r="A542" t="s">
         <v>511</v>
       </c>
@@ -38182,7 +38188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="58">
+    <row r="543" spans="1:13" ht="57.6">
       <c r="A543" t="s">
         <v>519</v>
       </c>
@@ -38223,7 +38229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="43.5">
+    <row r="544" spans="1:13" ht="43.2">
       <c r="A544" t="s">
         <v>527</v>
       </c>
@@ -38264,7 +38270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="29">
+    <row r="545" spans="1:13" ht="28.8">
       <c r="A545" t="s">
         <v>532</v>
       </c>
@@ -38305,7 +38311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="43.5">
+    <row r="546" spans="1:13" ht="43.2">
       <c r="A546" t="s">
         <v>540</v>
       </c>
@@ -38346,7 +38352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="29">
+    <row r="547" spans="1:13" ht="28.8">
       <c r="A547" t="s">
         <v>548</v>
       </c>
@@ -38387,7 +38393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="29">
+    <row r="548" spans="1:13" ht="28.8">
       <c r="A548" t="s">
         <v>553</v>
       </c>
@@ -38428,7 +38434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="43.5">
+    <row r="549" spans="1:13" ht="43.2">
       <c r="A549" t="s">
         <v>561</v>
       </c>
@@ -38469,7 +38475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="29">
+    <row r="550" spans="1:13" ht="28.8">
       <c r="A550" t="s">
         <v>569</v>
       </c>
@@ -38510,7 +38516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="43.5">
+    <row r="551" spans="1:13" ht="43.2">
       <c r="A551" t="s">
         <v>576</v>
       </c>
@@ -38551,7 +38557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:13" ht="43.5">
+    <row r="552" spans="1:13" ht="43.2">
       <c r="A552" t="s">
         <v>584</v>
       </c>
@@ -38592,7 +38598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="43.5">
+    <row r="553" spans="1:13" ht="43.2">
       <c r="A553" t="s">
         <v>592</v>
       </c>
@@ -38633,7 +38639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="43.5">
+    <row r="554" spans="1:13" ht="43.2">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -38674,7 +38680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="43.5">
+    <row r="555" spans="1:13" ht="43.2">
       <c r="A555" t="s">
         <v>605</v>
       </c>
@@ -38715,7 +38721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="43.5">
+    <row r="556" spans="1:13" ht="43.2">
       <c r="A556" t="s">
         <v>613</v>
       </c>
@@ -38756,7 +38762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="29">
+    <row r="557" spans="1:13" ht="28.8">
       <c r="A557" t="s">
         <v>618</v>
       </c>
@@ -38797,7 +38803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:13" ht="43.5">
+    <row r="558" spans="1:13" ht="43.2">
       <c r="A558" t="s">
         <v>626</v>
       </c>
@@ -38838,7 +38844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="29">
+    <row r="559" spans="1:13" ht="28.8">
       <c r="A559" t="s">
         <v>634</v>
       </c>
@@ -38879,7 +38885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="58">
+    <row r="560" spans="1:13" ht="57.6">
       <c r="A560" t="s">
         <v>639</v>
       </c>
@@ -38920,7 +38926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="58">
+    <row r="561" spans="1:13" ht="57.6">
       <c r="A561" t="s">
         <v>647</v>
       </c>
@@ -38961,7 +38967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="43.5">
+    <row r="562" spans="1:13" ht="43.2">
       <c r="A562" t="s">
         <v>655</v>
       </c>
@@ -39002,7 +39008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="29">
+    <row r="563" spans="1:13" ht="28.8">
       <c r="A563" t="s">
         <v>660</v>
       </c>
@@ -39043,7 +39049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="29">
+    <row r="564" spans="1:13" ht="28.8">
       <c r="A564" t="s">
         <v>668</v>
       </c>
@@ -39084,7 +39090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="29">
+    <row r="565" spans="1:13" ht="28.8">
       <c r="A565" t="s">
         <v>674</v>
       </c>
@@ -39125,7 +39131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="29">
+    <row r="566" spans="1:13" ht="28.8">
       <c r="A566" t="s">
         <v>679</v>
       </c>
@@ -39166,7 +39172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="29">
+    <row r="567" spans="1:13" ht="28.8">
       <c r="A567" t="s">
         <v>687</v>
       </c>
@@ -39207,7 +39213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="29">
+    <row r="568" spans="1:13" ht="28.8">
       <c r="A568" t="s">
         <v>695</v>
       </c>
@@ -39248,7 +39254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="58">
+    <row r="569" spans="1:13" ht="57.6">
       <c r="A569" t="s">
         <v>700</v>
       </c>
@@ -39289,7 +39295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="72.5">
+    <row r="570" spans="1:13" ht="72">
       <c r="A570" t="s">
         <v>708</v>
       </c>
@@ -39330,7 +39336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="58">
+    <row r="571" spans="1:13" ht="57.6">
       <c r="A571" t="s">
         <v>716</v>
       </c>
@@ -39371,7 +39377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="29">
+    <row r="572" spans="1:13" ht="28.8">
       <c r="A572" t="s">
         <v>721</v>
       </c>
@@ -39412,7 +39418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="43.5">
+    <row r="573" spans="1:13" ht="43.2">
       <c r="A573" t="s">
         <v>729</v>
       </c>
@@ -39453,7 +39459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="29">
+    <row r="574" spans="1:13" ht="28.8">
       <c r="A574" t="s">
         <v>737</v>
       </c>
@@ -39494,7 +39500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="43.5">
+    <row r="575" spans="1:13" ht="43.2">
       <c r="A575" t="s">
         <v>742</v>
       </c>
@@ -39535,7 +39541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="43.5">
+    <row r="576" spans="1:13" ht="43.2">
       <c r="A576" t="s">
         <v>749</v>
       </c>
@@ -39576,7 +39582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="43.5">
+    <row r="577" spans="1:13" ht="43.2">
       <c r="A577" t="s">
         <v>753</v>
       </c>
@@ -39617,7 +39623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="43.5">
+    <row r="578" spans="1:13" ht="43.2">
       <c r="A578" t="s">
         <v>760</v>
       </c>
@@ -39658,7 +39664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="43.5">
+    <row r="579" spans="1:13" ht="43.2">
       <c r="A579" t="s">
         <v>764</v>
       </c>
@@ -39699,7 +39705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="43.5">
+    <row r="580" spans="1:13" ht="43.2">
       <c r="A580" t="s">
         <v>771</v>
       </c>
@@ -39740,7 +39746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="43.5">
+    <row r="581" spans="1:13" ht="43.2">
       <c r="A581" t="s">
         <v>775</v>
       </c>
@@ -39781,7 +39787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="43.5">
+    <row r="582" spans="1:13" ht="43.2">
       <c r="A582" t="s">
         <v>779</v>
       </c>
@@ -39822,7 +39828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="43.5">
+    <row r="583" spans="1:13" ht="43.2">
       <c r="A583" t="s">
         <v>783</v>
       </c>
@@ -39904,7 +39910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="43.5">
+    <row r="585" spans="1:13" ht="43.2">
       <c r="A585" t="s">
         <v>794</v>
       </c>
@@ -39945,7 +39951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="1:13" ht="43.5">
+    <row r="586" spans="1:13" ht="43.2">
       <c r="A586" t="s">
         <v>801</v>
       </c>
@@ -39986,7 +39992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:13" ht="43.5">
+    <row r="587" spans="1:13" ht="43.2">
       <c r="A587" t="s">
         <v>805</v>
       </c>
@@ -40027,7 +40033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:13" ht="43.5">
+    <row r="588" spans="1:13" ht="43.2">
       <c r="A588" t="s">
         <v>812</v>
       </c>
@@ -40068,7 +40074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:13" ht="43.5">
+    <row r="589" spans="1:13" ht="43.2">
       <c r="A589" t="s">
         <v>816</v>
       </c>
@@ -40109,7 +40115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:13" ht="43.5">
+    <row r="590" spans="1:13" ht="43.2">
       <c r="A590" t="s">
         <v>822</v>
       </c>
@@ -40150,7 +40156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:13" ht="43.5">
+    <row r="591" spans="1:13" ht="43.2">
       <c r="A591" t="s">
         <v>829</v>
       </c>
@@ -40191,7 +40197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:13" ht="43.5">
+    <row r="592" spans="1:13" ht="43.2">
       <c r="A592" t="s">
         <v>836</v>
       </c>
@@ -40232,7 +40238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:13" ht="43.5">
+    <row r="593" spans="1:13" ht="43.2">
       <c r="A593" t="s">
         <v>843</v>
       </c>
@@ -40273,7 +40279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="58">
+    <row r="594" spans="1:13" ht="57.6">
       <c r="A594" t="s">
         <v>847</v>
       </c>
@@ -40314,7 +40320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="43.5">
+    <row r="595" spans="1:13" ht="43.2">
       <c r="A595" t="s">
         <v>854</v>
       </c>
@@ -40355,7 +40361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="29">
+    <row r="596" spans="1:13" ht="28.8">
       <c r="A596" t="s">
         <v>861</v>
       </c>
@@ -40396,7 +40402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="29">
+    <row r="597" spans="1:13" ht="28.8">
       <c r="A597" t="s">
         <v>868</v>
       </c>
@@ -40437,7 +40443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="29">
+    <row r="598" spans="1:13" ht="43.2">
       <c r="A598" t="s">
         <v>872</v>
       </c>
@@ -40478,7 +40484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="29">
+    <row r="599" spans="1:13" ht="28.8">
       <c r="A599" t="s">
         <v>879</v>
       </c>
@@ -40519,7 +40525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="29">
+    <row r="600" spans="1:13" ht="28.8">
       <c r="A600" t="s">
         <v>886</v>
       </c>
@@ -40560,7 +40566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="29">
+    <row r="601" spans="1:13" ht="28.8">
       <c r="A601" t="s">
         <v>890</v>
       </c>
@@ -40601,7 +40607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:13" ht="43.5">
+    <row r="602" spans="1:13" ht="43.2">
       <c r="A602" t="s">
         <v>897</v>
       </c>
@@ -40642,7 +40648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="58">
+    <row r="603" spans="1:13" ht="57.6">
       <c r="A603" t="s">
         <v>904</v>
       </c>
@@ -40683,7 +40689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="58">
+    <row r="604" spans="1:13" ht="57.6">
       <c r="A604" t="s">
         <v>910</v>
       </c>
@@ -40724,7 +40730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="29">
+    <row r="605" spans="1:13" ht="28.8">
       <c r="A605" t="s">
         <v>917</v>
       </c>
@@ -40765,7 +40771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:13" ht="29">
+    <row r="606" spans="1:13" ht="28.8">
       <c r="A606" t="s">
         <v>924</v>
       </c>
@@ -40806,7 +40812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="29">
+    <row r="607" spans="1:13" ht="28.8">
       <c r="A607" t="s">
         <v>928</v>
       </c>
@@ -40847,7 +40853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:13" ht="409.5">
+    <row r="608" spans="1:13" ht="409.6">
       <c r="A608" t="s">
         <v>935</v>
       </c>
@@ -40888,7 +40894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:13" ht="409.5">
+    <row r="609" spans="1:13" ht="409.6">
       <c r="A609" t="s">
         <v>942</v>
       </c>
@@ -40929,7 +40935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:13" ht="29">
+    <row r="610" spans="1:13" ht="28.8">
       <c r="A610" s="6" t="s">
         <v>951</v>
       </c>
@@ -40970,7 +40976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:13" ht="29">
+    <row r="611" spans="1:13" ht="28.8">
       <c r="A611" t="s">
         <v>959</v>
       </c>
@@ -41011,7 +41017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:13" ht="29">
+    <row r="612" spans="1:13" ht="28.8">
       <c r="A612" t="s">
         <v>964</v>
       </c>
@@ -41052,7 +41058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:13" ht="29">
+    <row r="613" spans="1:13" ht="28.8">
       <c r="A613" t="s">
         <v>968</v>
       </c>
@@ -41093,7 +41099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:13" ht="29">
+    <row r="614" spans="1:13" ht="28.8">
       <c r="A614" t="s">
         <v>972</v>
       </c>
@@ -41257,7 +41263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="174">
+    <row r="618" spans="1:13" ht="172.8">
       <c r="A618" t="s">
         <v>1010</v>
       </c>
@@ -41459,7 +41465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="1:13" ht="29">
+    <row r="623" spans="1:13" ht="28.8">
       <c r="A623" t="s">
         <v>1039</v>
       </c>
@@ -41664,7 +41670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:13" ht="26.15" customHeight="1">
+    <row r="628" spans="1:13" ht="26.1" customHeight="1">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -41705,7 +41711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="25.4" customHeight="1">
+    <row r="629" spans="1:13" ht="25.35" customHeight="1">
       <c r="A629" t="s">
         <v>24</v>
       </c>
@@ -41746,7 +41752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="26.9" customHeight="1">
+    <row r="630" spans="1:13" ht="26.85" customHeight="1">
       <c r="A630" t="s">
         <v>28</v>
       </c>
@@ -41787,7 +41793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="26.9" customHeight="1">
+    <row r="631" spans="1:13" ht="26.85" customHeight="1">
       <c r="A631" t="s">
         <v>48</v>
       </c>
@@ -41828,7 +41834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="29.9" customHeight="1">
+    <row r="632" spans="1:13" ht="29.85" customHeight="1">
       <c r="A632" t="s">
         <v>53</v>
       </c>
@@ -41869,7 +41875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="1:13" ht="27.65" customHeight="1">
+    <row r="633" spans="1:13" ht="27.6" customHeight="1">
       <c r="A633" t="s">
         <v>57</v>
       </c>
@@ -41910,7 +41916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:13" ht="29.9" customHeight="1">
+    <row r="634" spans="1:13" ht="29.85" customHeight="1">
       <c r="A634" t="s">
         <v>61</v>
       </c>
@@ -41951,7 +41957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="1:13" ht="32.15" customHeight="1">
+    <row r="635" spans="1:13" ht="32.1" customHeight="1">
       <c r="A635" t="s">
         <v>65</v>
       </c>
@@ -41992,7 +41998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:13" ht="29">
+    <row r="636" spans="1:13" ht="28.8">
       <c r="A636" t="s">
         <v>69</v>
       </c>
@@ -42033,7 +42039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="29">
+    <row r="637" spans="1:13" ht="28.8">
       <c r="A637" t="s">
         <v>73</v>
       </c>
@@ -42074,7 +42080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:13" ht="29">
+    <row r="638" spans="1:13" ht="28.8">
       <c r="A638" t="s">
         <v>77</v>
       </c>
@@ -42115,7 +42121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:13" ht="29">
+    <row r="639" spans="1:13" ht="28.8">
       <c r="A639" t="s">
         <v>115</v>
       </c>
@@ -42156,7 +42162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="29">
+    <row r="640" spans="1:13" ht="28.8">
       <c r="A640" t="s">
         <v>120</v>
       </c>
@@ -42197,7 +42203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="29">
+    <row r="641" spans="1:13" ht="28.8">
       <c r="A641" t="s">
         <v>124</v>
       </c>
@@ -42238,7 +42244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="29">
+    <row r="642" spans="1:13" ht="28.8">
       <c r="A642" t="s">
         <v>127</v>
       </c>
@@ -42279,7 +42285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="29">
+    <row r="643" spans="1:13" ht="28.8">
       <c r="A643" t="s">
         <v>131</v>
       </c>
@@ -42320,7 +42326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="29">
+    <row r="644" spans="1:13" ht="28.8">
       <c r="A644" t="s">
         <v>135</v>
       </c>
@@ -42361,7 +42367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="29">
+    <row r="645" spans="1:13" ht="28.8">
       <c r="A645" t="s">
         <v>138</v>
       </c>
@@ -42402,7 +42408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="29">
+    <row r="646" spans="1:13" ht="28.8">
       <c r="A646" t="s">
         <v>142</v>
       </c>
@@ -42443,7 +42449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:13" ht="29">
+    <row r="647" spans="1:13" ht="28.8">
       <c r="A647" t="s">
         <v>146</v>
       </c>
@@ -42484,7 +42490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:13" ht="116">
+    <row r="648" spans="1:13" ht="115.2">
       <c r="A648" t="s">
         <v>182</v>
       </c>
@@ -42525,7 +42531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="29">
+    <row r="649" spans="1:13" ht="28.8">
       <c r="A649" t="s">
         <v>186</v>
       </c>
@@ -42566,7 +42572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="29">
+    <row r="650" spans="1:13" ht="28.8">
       <c r="A650" t="s">
         <v>190</v>
       </c>
@@ -42607,7 +42613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:13" ht="29">
+    <row r="651" spans="1:13" ht="28.8">
       <c r="A651" t="s">
         <v>194</v>
       </c>
@@ -42648,7 +42654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="29">
+    <row r="652" spans="1:13" ht="28.8">
       <c r="A652" t="s">
         <v>198</v>
       </c>
@@ -42689,7 +42695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:13" ht="29">
+    <row r="653" spans="1:13" ht="28.8">
       <c r="A653" t="s">
         <v>201</v>
       </c>
@@ -42730,7 +42736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="29">
+    <row r="654" spans="1:13" ht="28.8">
       <c r="A654" t="s">
         <v>227</v>
       </c>
@@ -42771,7 +42777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="655" spans="1:13" s="11" customFormat="1" ht="15.5">
+    <row r="655" spans="1:13" s="11" customFormat="1" ht="15">
       <c r="A655" s="11">
         <v>1131</v>
       </c>
@@ -42812,7 +42818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="29">
+    <row r="656" spans="1:13" ht="28.8">
       <c r="A656" t="s">
         <v>241</v>
       </c>
@@ -42853,7 +42859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="29">
+    <row r="657" spans="1:13" ht="28.8">
       <c r="A657" t="s">
         <v>248</v>
       </c>
@@ -42894,7 +42900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="29">
+    <row r="658" spans="1:13" ht="28.8">
       <c r="A658" t="s">
         <v>255</v>
       </c>
@@ -42935,7 +42941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:13" ht="29">
+    <row r="659" spans="1:13" ht="28.8">
       <c r="A659" t="s">
         <v>262</v>
       </c>
@@ -43017,7 +43023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="1:13" ht="145">
+    <row r="661" spans="1:13" ht="144">
       <c r="A661" t="s">
         <v>282</v>
       </c>
@@ -43222,7 +43228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="29">
+    <row r="666" spans="1:13" ht="28.8">
       <c r="A666" t="s">
         <v>298</v>
       </c>
@@ -43263,7 +43269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="1:13" ht="29">
+    <row r="667" spans="1:13" ht="28.8">
       <c r="A667" t="s">
         <v>306</v>
       </c>
@@ -43304,7 +43310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="668" spans="1:13" ht="29">
+    <row r="668" spans="1:13" ht="28.8">
       <c r="A668" t="s">
         <v>312</v>
       </c>
@@ -43386,7 +43392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="670" spans="1:13" ht="29">
+    <row r="670" spans="1:13" ht="28.8">
       <c r="A670" t="s">
         <v>318</v>
       </c>
@@ -43427,7 +43433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="671" spans="1:13" ht="29">
+    <row r="671" spans="1:13" ht="28.8">
       <c r="A671" t="s">
         <v>320</v>
       </c>
@@ -43468,7 +43474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="29">
+    <row r="672" spans="1:13" ht="28.8">
       <c r="A672" t="s">
         <v>321</v>
       </c>
@@ -43509,7 +43515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:13" ht="29">
+    <row r="673" spans="1:13" ht="28.8">
       <c r="A673" t="s">
         <v>322</v>
       </c>
@@ -43550,7 +43556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="674" spans="1:13" ht="29">
+    <row r="674" spans="1:13" ht="28.8">
       <c r="A674" t="s">
         <v>323</v>
       </c>
@@ -43591,7 +43597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="675" spans="1:13" ht="58">
+    <row r="675" spans="1:13" ht="57.6">
       <c r="A675" t="s">
         <v>324</v>
       </c>
@@ -43673,7 +43679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="677" spans="1:13" ht="29">
+    <row r="677" spans="1:13" ht="28.8">
       <c r="A677" t="s">
         <v>340</v>
       </c>
@@ -43919,7 +43925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="683" spans="1:13" ht="29">
+    <row r="683" spans="1:13" ht="28.8">
       <c r="A683" t="s">
         <v>373</v>
       </c>
@@ -43960,7 +43966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="1:13" ht="29">
+    <row r="684" spans="1:13" ht="28.8">
       <c r="A684" t="s">
         <v>378</v>
       </c>
@@ -44042,7 +44048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="686" spans="1:13" ht="409.5">
+    <row r="686" spans="1:13" ht="409.6">
       <c r="A686" t="s">
         <v>394</v>
       </c>
@@ -44083,7 +44089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="687" spans="1:13" ht="29">
+    <row r="687" spans="1:13" ht="28.8">
       <c r="A687" t="s">
         <v>401</v>
       </c>
@@ -44124,7 +44130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="688" spans="1:13" ht="29">
+    <row r="688" spans="1:13" ht="28.8">
       <c r="A688" t="s">
         <v>411</v>
       </c>
@@ -44165,7 +44171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="1:13" ht="43.5">
+    <row r="689" spans="1:13" ht="43.2">
       <c r="A689" t="s">
         <v>417</v>
       </c>
@@ -44206,7 +44212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="690" spans="1:13" ht="29">
+    <row r="690" spans="1:13" ht="28.8">
       <c r="A690" t="s">
         <v>425</v>
       </c>
@@ -44247,7 +44253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="691" spans="1:13" ht="29">
+    <row r="691" spans="1:13" ht="28.8">
       <c r="A691" t="s">
         <v>433</v>
       </c>
@@ -44288,7 +44294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="692" spans="1:13" ht="29">
+    <row r="692" spans="1:13" ht="28.8">
       <c r="A692" t="s">
         <v>443</v>
       </c>
@@ -44329,7 +44335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:13" ht="29">
+    <row r="693" spans="1:13" ht="28.8">
       <c r="A693" t="s">
         <v>448</v>
       </c>
@@ -44370,7 +44376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="1:13" ht="29">
+    <row r="694" spans="1:13" ht="28.8">
       <c r="A694" t="s">
         <v>456</v>
       </c>
@@ -44411,7 +44417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:13" ht="29">
+    <row r="695" spans="1:13" ht="28.8">
       <c r="A695" t="s">
         <v>464</v>
       </c>
@@ -44452,7 +44458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="696" spans="1:13" ht="29">
+    <row r="696" spans="1:13" ht="43.2">
       <c r="A696" t="s">
         <v>469</v>
       </c>
@@ -44493,7 +44499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:13" ht="43.5">
+    <row r="697" spans="1:13" ht="57.6">
       <c r="A697" t="s">
         <v>477</v>
       </c>
@@ -44534,7 +44540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="1:13" ht="29">
+    <row r="698" spans="1:13" ht="43.2">
       <c r="A698" t="s">
         <v>485</v>
       </c>
@@ -44616,7 +44622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="700" spans="1:13" ht="29">
+    <row r="700" spans="1:13" ht="28.8">
       <c r="A700" t="s">
         <v>498</v>
       </c>
@@ -44657,7 +44663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="701" spans="1:13" ht="29">
+    <row r="701" spans="1:13" ht="28.8">
       <c r="A701" t="s">
         <v>506</v>
       </c>
@@ -44739,7 +44745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="703" spans="1:13" ht="29">
+    <row r="703" spans="1:13" ht="28.8">
       <c r="A703" t="s">
         <v>519</v>
       </c>
@@ -44780,7 +44786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="704" spans="1:13" ht="29">
+    <row r="704" spans="1:13" ht="28.8">
       <c r="A704" t="s">
         <v>527</v>
       </c>
@@ -44821,7 +44827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="705" spans="1:13" ht="29">
+    <row r="705" spans="1:13" ht="28.8">
       <c r="A705" t="s">
         <v>532</v>
       </c>
@@ -44862,7 +44868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="706" spans="1:13" ht="29">
+    <row r="706" spans="1:13" ht="28.8">
       <c r="A706" t="s">
         <v>540</v>
       </c>
@@ -44903,7 +44909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="29">
+    <row r="707" spans="1:13" ht="28.8">
       <c r="A707" t="s">
         <v>548</v>
       </c>
@@ -44944,7 +44950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="708" spans="1:13" ht="29">
+    <row r="708" spans="1:13" ht="28.8">
       <c r="A708" t="s">
         <v>553</v>
       </c>
@@ -44985,7 +44991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" spans="1:13" ht="29">
+    <row r="709" spans="1:13" ht="28.8">
       <c r="A709" t="s">
         <v>561</v>
       </c>
@@ -45026,7 +45032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="710" spans="1:13" ht="29">
+    <row r="710" spans="1:13" ht="28.8">
       <c r="A710" t="s">
         <v>569</v>
       </c>
@@ -45067,7 +45073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="29">
+    <row r="711" spans="1:13" ht="28.8">
       <c r="A711" t="s">
         <v>576</v>
       </c>
@@ -45108,7 +45114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="1:13" ht="29">
+    <row r="712" spans="1:13" ht="28.8">
       <c r="A712" t="s">
         <v>584</v>
       </c>
@@ -45149,7 +45155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="713" spans="1:13" ht="29">
+    <row r="713" spans="1:13" ht="28.8">
       <c r="A713" t="s">
         <v>592</v>
       </c>
@@ -45190,7 +45196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="714" spans="1:13" ht="29">
+    <row r="714" spans="1:13" ht="28.8">
       <c r="A714" t="s">
         <v>597</v>
       </c>
@@ -45231,7 +45237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="715" spans="1:13" ht="43.5">
+    <row r="715" spans="1:13" ht="43.2">
       <c r="A715" t="s">
         <v>605</v>
       </c>
@@ -45272,7 +45278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="716" spans="1:13" ht="29">
+    <row r="716" spans="1:13" ht="43.2">
       <c r="A716" t="s">
         <v>613</v>
       </c>
@@ -45313,7 +45319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:13" ht="29">
+    <row r="717" spans="1:13" ht="28.8">
       <c r="A717" t="s">
         <v>618</v>
       </c>
@@ -45354,7 +45360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="1:13" ht="29">
+    <row r="718" spans="1:13" ht="28.8">
       <c r="A718" t="s">
         <v>626</v>
       </c>
@@ -45395,7 +45401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="1:13" ht="29">
+    <row r="719" spans="1:13" ht="28.8">
       <c r="A719" t="s">
         <v>634</v>
       </c>
@@ -45436,7 +45442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="720" spans="1:13" ht="29">
+    <row r="720" spans="1:13" ht="28.8">
       <c r="A720" t="s">
         <v>639</v>
       </c>
@@ -45477,7 +45483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:13" ht="43.5">
+    <row r="721" spans="1:13" ht="43.2">
       <c r="A721" t="s">
         <v>647</v>
       </c>
@@ -45518,7 +45524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="722" spans="1:13" ht="43.5">
+    <row r="722" spans="1:13" ht="43.2">
       <c r="A722" t="s">
         <v>655</v>
       </c>
@@ -45600,7 +45606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="1:13" ht="29">
+    <row r="724" spans="1:13" ht="28.8">
       <c r="A724" t="s">
         <v>668</v>
       </c>
@@ -45641,7 +45647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="725" spans="1:13" ht="29">
+    <row r="725" spans="1:13" ht="28.8">
       <c r="A725" t="s">
         <v>674</v>
       </c>
@@ -45723,7 +45729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="727" spans="1:13" ht="29">
+    <row r="727" spans="1:13" ht="28.8">
       <c r="A727" t="s">
         <v>687</v>
       </c>
@@ -45764,7 +45770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="1:13" ht="29">
+    <row r="728" spans="1:13" ht="28.8">
       <c r="A728" t="s">
         <v>695</v>
       </c>
@@ -45805,7 +45811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="1:13" ht="43.5">
+    <row r="729" spans="1:13" ht="43.2">
       <c r="A729" t="s">
         <v>700</v>
       </c>
@@ -45846,7 +45852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="730" spans="1:13" ht="29">
+    <row r="730" spans="1:13" ht="43.2">
       <c r="A730" t="s">
         <v>708</v>
       </c>
@@ -45887,7 +45893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="731" spans="1:13" ht="43.5">
+    <row r="731" spans="1:13" ht="43.2">
       <c r="A731" t="s">
         <v>716</v>
       </c>
@@ -45928,7 +45934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="732" spans="1:13" ht="29">
+    <row r="732" spans="1:13" ht="28.8">
       <c r="A732" t="s">
         <v>721</v>
       </c>
@@ -45969,7 +45975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="733" spans="1:13" ht="29">
+    <row r="733" spans="1:13" ht="28.8">
       <c r="A733" t="s">
         <v>729</v>
       </c>
@@ -46010,7 +46016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="734" spans="1:13" ht="29">
+    <row r="734" spans="1:13" ht="28.8">
       <c r="A734" t="s">
         <v>737</v>
       </c>
@@ -46051,7 +46057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="735" spans="1:13" ht="29">
+    <row r="735" spans="1:13" ht="28.8">
       <c r="A735" t="s">
         <v>742</v>
       </c>
@@ -46092,7 +46098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:13" ht="29">
+    <row r="736" spans="1:13" ht="28.8">
       <c r="A736" t="s">
         <v>749</v>
       </c>
@@ -46133,7 +46139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="29">
+    <row r="737" spans="1:13" ht="28.8">
       <c r="A737" t="s">
         <v>753</v>
       </c>
@@ -46174,7 +46180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="738" spans="1:13" ht="29">
+    <row r="738" spans="1:13" ht="28.8">
       <c r="A738" t="s">
         <v>760</v>
       </c>
@@ -46215,7 +46221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="29">
+    <row r="739" spans="1:13" ht="28.8">
       <c r="A739" t="s">
         <v>764</v>
       </c>
@@ -46256,7 +46262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="29">
+    <row r="740" spans="1:13" ht="28.8">
       <c r="A740" t="s">
         <v>771</v>
       </c>
@@ -46297,7 +46303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="741" spans="1:13" ht="29">
+    <row r="741" spans="1:13" ht="28.8">
       <c r="A741" t="s">
         <v>775</v>
       </c>
@@ -46338,7 +46344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="742" spans="1:13" ht="29">
+    <row r="742" spans="1:13" ht="28.8">
       <c r="A742" t="s">
         <v>779</v>
       </c>
@@ -46379,7 +46385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="29">
+    <row r="743" spans="1:13" ht="43.2">
       <c r="A743" t="s">
         <v>783</v>
       </c>
@@ -46420,7 +46426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="744" spans="1:13" ht="29">
+    <row r="744" spans="1:13" ht="28.8">
       <c r="A744" t="s">
         <v>790</v>
       </c>
@@ -46461,7 +46467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="745" spans="1:13" ht="29">
+    <row r="745" spans="1:13" ht="28.8">
       <c r="A745" t="s">
         <v>794</v>
       </c>
@@ -46502,7 +46508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="746" spans="1:13" ht="29">
+    <row r="746" spans="1:13" ht="28.8">
       <c r="A746" t="s">
         <v>801</v>
       </c>
@@ -46543,7 +46549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="747" spans="1:13" ht="29">
+    <row r="747" spans="1:13" ht="28.8">
       <c r="A747" t="s">
         <v>805</v>
       </c>
@@ -46584,7 +46590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="748" spans="1:13" ht="43.5">
+    <row r="748" spans="1:13" ht="43.2">
       <c r="A748" t="s">
         <v>812</v>
       </c>
@@ -46625,7 +46631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="749" spans="1:13" ht="43.5">
+    <row r="749" spans="1:13" ht="43.2">
       <c r="A749" t="s">
         <v>816</v>
       </c>
@@ -46666,7 +46672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="750" spans="1:13" ht="43.5">
+    <row r="750" spans="1:13" ht="43.2">
       <c r="A750" t="s">
         <v>822</v>
       </c>
@@ -46707,7 +46713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="751" spans="1:13" ht="29">
+    <row r="751" spans="1:13" ht="28.8">
       <c r="A751" t="s">
         <v>829</v>
       </c>
@@ -46748,7 +46754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="1:13" ht="29">
+    <row r="752" spans="1:13" ht="28.8">
       <c r="A752" t="s">
         <v>836</v>
       </c>
@@ -46789,7 +46795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:13" ht="29">
+    <row r="753" spans="1:13" ht="28.8">
       <c r="A753" t="s">
         <v>843</v>
       </c>
@@ -46830,7 +46836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="754" spans="1:13" ht="29">
+    <row r="754" spans="1:13" ht="43.2">
       <c r="A754" t="s">
         <v>847</v>
       </c>
@@ -46871,7 +46877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="755" spans="1:13" ht="29">
+    <row r="755" spans="1:13" ht="28.8">
       <c r="A755" t="s">
         <v>854</v>
       </c>
@@ -46912,7 +46918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="756" spans="1:13" ht="29">
+    <row r="756" spans="1:13" ht="28.8">
       <c r="A756" t="s">
         <v>861</v>
       </c>
@@ -46953,7 +46959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="757" spans="1:13" ht="29">
+    <row r="757" spans="1:13" ht="28.8">
       <c r="A757" t="s">
         <v>868</v>
       </c>
@@ -46994,7 +47000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="1:13" ht="29">
+    <row r="758" spans="1:13" ht="28.8">
       <c r="A758" t="s">
         <v>872</v>
       </c>
@@ -47035,7 +47041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:13" ht="29">
+    <row r="759" spans="1:13" ht="28.8">
       <c r="A759" t="s">
         <v>879</v>
       </c>
@@ -47076,7 +47082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="760" spans="1:13" ht="29">
+    <row r="760" spans="1:13" ht="28.8">
       <c r="A760" t="s">
         <v>886</v>
       </c>
@@ -47117,7 +47123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:13" ht="29">
+    <row r="761" spans="1:13" ht="28.8">
       <c r="A761" t="s">
         <v>890</v>
       </c>
@@ -47158,7 +47164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="762" spans="1:13" ht="29">
+    <row r="762" spans="1:13" ht="28.8">
       <c r="A762" t="s">
         <v>897</v>
       </c>
@@ -47199,7 +47205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="763" spans="1:13" ht="29">
+    <row r="763" spans="1:13" ht="28.8">
       <c r="A763" t="s">
         <v>904</v>
       </c>
@@ -47240,7 +47246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="764" spans="1:13" ht="29">
+    <row r="764" spans="1:13" ht="28.8">
       <c r="A764" t="s">
         <v>910</v>
       </c>
@@ -47281,7 +47287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="765" spans="1:13" ht="29">
+    <row r="765" spans="1:13" ht="28.8">
       <c r="A765" t="s">
         <v>917</v>
       </c>
@@ -47322,7 +47328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="766" spans="1:13" ht="29">
+    <row r="766" spans="1:13" ht="28.8">
       <c r="A766" t="s">
         <v>924</v>
       </c>
@@ -47363,7 +47369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="1:13" ht="29">
+    <row r="767" spans="1:13" ht="28.8">
       <c r="A767" t="s">
         <v>928</v>
       </c>
@@ -47404,7 +47410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="768" spans="1:13" ht="409.5">
+    <row r="768" spans="1:13" ht="409.6">
       <c r="A768" t="s">
         <v>935</v>
       </c>
@@ -47445,7 +47451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="769" spans="1:13" ht="409.5">
+    <row r="769" spans="1:13" ht="409.6">
       <c r="A769" t="s">
         <v>942</v>
       </c>
@@ -47486,7 +47492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="770" spans="1:13" ht="409.5">
+    <row r="770" spans="1:13" ht="409.6">
       <c r="A770" s="6" t="s">
         <v>951</v>
       </c>
@@ -47609,7 +47615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="773" spans="1:13" ht="29">
+    <row r="773" spans="1:13" ht="28.8">
       <c r="A773" t="s">
         <v>968</v>
       </c>
@@ -47773,7 +47779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="777" spans="1:13" ht="145">
+    <row r="777" spans="1:13" ht="144">
       <c r="A777" t="s">
         <v>1001</v>
       </c>
@@ -47814,7 +47820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="1:13" ht="130.5">
+    <row r="778" spans="1:13" ht="129.6">
       <c r="A778" t="s">
         <v>1010</v>
       </c>
@@ -47934,7 +47940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="781" spans="1:13" ht="29">
+    <row r="781" spans="1:13" ht="43.2">
       <c r="A781" t="s">
         <v>1029</v>
       </c>
@@ -47975,7 +47981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="782" spans="1:13" ht="29">
+    <row r="782" spans="1:13" ht="28.8">
       <c r="A782" t="s">
         <v>1034</v>
       </c>
@@ -48098,7 +48104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="785" spans="1:13" ht="29">
+    <row r="785" spans="1:13" ht="28.8">
       <c r="A785" t="s">
         <v>1049</v>
       </c>
@@ -48139,7 +48145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:13" ht="43.5">
+    <row r="786" spans="1:13" ht="43.2">
       <c r="A786" t="s">
         <v>1054</v>
       </c>
@@ -48180,7 +48186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:13" ht="29">
+    <row r="787" spans="1:13" ht="28.8">
       <c r="A787" s="6">
         <v>1281</v>
       </c>
@@ -48221,7 +48227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="788" spans="1:13" ht="44.15" customHeight="1">
+    <row r="788" spans="1:13" ht="44.1" customHeight="1">
       <c r="A788" t="s">
         <v>13</v>
       </c>
@@ -48262,7 +48268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="789" spans="1:13" ht="43.5">
+    <row r="789" spans="1:13" ht="43.2">
       <c r="A789" t="s">
         <v>24</v>
       </c>
@@ -48303,7 +48309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="790" spans="1:13" ht="43.5">
+    <row r="790" spans="1:13" ht="43.2">
       <c r="A790" t="s">
         <v>28</v>
       </c>
@@ -48344,7 +48350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="791" spans="1:13" ht="130.5">
+    <row r="791" spans="1:13" ht="129.6">
       <c r="A791" t="s">
         <v>48</v>
       </c>
@@ -48385,7 +48391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="792" spans="1:13" ht="29">
+    <row r="792" spans="1:13" ht="28.8">
       <c r="A792" t="s">
         <v>53</v>
       </c>
@@ -48426,7 +48432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="793" spans="1:13" ht="101.5">
+    <row r="793" spans="1:13" ht="100.8">
       <c r="A793" t="s">
         <v>57</v>
       </c>
@@ -48467,7 +48473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="794" spans="1:13" ht="101.5">
+    <row r="794" spans="1:13" ht="100.8">
       <c r="A794" t="s">
         <v>61</v>
       </c>
@@ -48508,7 +48514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="795" spans="1:13" ht="43.5">
+    <row r="795" spans="1:13" ht="43.2">
       <c r="A795" t="s">
         <v>65</v>
       </c>
@@ -48549,7 +48555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="796" spans="1:13" ht="43.5">
+    <row r="796" spans="1:13" ht="43.2">
       <c r="A796" t="s">
         <v>69</v>
       </c>
@@ -48590,7 +48596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="797" spans="1:13" ht="58">
+    <row r="797" spans="1:13" ht="57.6">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -48631,7 +48637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="798" spans="1:13" ht="58">
+    <row r="798" spans="1:13" ht="57.6">
       <c r="A798" t="s">
         <v>77</v>
       </c>
@@ -48672,7 +48678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="799" spans="1:13" ht="58">
+    <row r="799" spans="1:13" ht="57.6">
       <c r="A799" t="s">
         <v>115</v>
       </c>
@@ -48713,7 +48719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="800" spans="1:13" ht="58">
+    <row r="800" spans="1:13" ht="57.6">
       <c r="A800" t="s">
         <v>120</v>
       </c>
@@ -48754,7 +48760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="801" spans="1:13" ht="43.5">
+    <row r="801" spans="1:13" ht="43.2">
       <c r="A801" t="s">
         <v>124</v>
       </c>
@@ -48795,7 +48801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="802" spans="1:13" ht="72.5">
+    <row r="802" spans="1:13" ht="72">
       <c r="A802" t="s">
         <v>127</v>
       </c>
@@ -48836,7 +48842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="803" spans="1:13" ht="58">
+    <row r="803" spans="1:13" ht="57.6">
       <c r="A803" t="s">
         <v>131</v>
       </c>
@@ -48877,7 +48883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="804" spans="1:13" ht="72.5">
+    <row r="804" spans="1:13" ht="72">
       <c r="A804" t="s">
         <v>135</v>
       </c>
@@ -48918,7 +48924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="805" spans="1:13" ht="101.5">
+    <row r="805" spans="1:13" ht="100.8">
       <c r="A805" t="s">
         <v>138</v>
       </c>
@@ -48959,7 +48965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="806" spans="1:13" ht="72.5">
+    <row r="806" spans="1:13" ht="72">
       <c r="A806" t="s">
         <v>142</v>
       </c>
@@ -49000,7 +49006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="807" spans="1:13" ht="116">
+    <row r="807" spans="1:13" ht="115.2">
       <c r="A807" t="s">
         <v>146</v>
       </c>
@@ -49041,7 +49047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="808" spans="1:13" ht="159.5">
+    <row r="808" spans="1:13" ht="158.4">
       <c r="A808" t="s">
         <v>182</v>
       </c>
@@ -49082,7 +49088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="809" spans="1:13" ht="87">
+    <row r="809" spans="1:13" ht="86.4">
       <c r="A809" t="s">
         <v>186</v>
       </c>
@@ -49123,7 +49129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="810" spans="1:13" ht="58">
+    <row r="810" spans="1:13" ht="57.6">
       <c r="A810" t="s">
         <v>190</v>
       </c>
@@ -49164,7 +49170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="811" spans="1:13" ht="43.5">
+    <row r="811" spans="1:13" ht="43.2">
       <c r="A811" t="s">
         <v>194</v>
       </c>
@@ -49205,7 +49211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="812" spans="1:13" ht="58">
+    <row r="812" spans="1:13" ht="57.6">
       <c r="A812" t="s">
         <v>198</v>
       </c>
@@ -49246,7 +49252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="813" spans="1:13" ht="101.5">
+    <row r="813" spans="1:13" ht="100.8">
       <c r="A813" t="s">
         <v>201</v>
       </c>
@@ -49287,7 +49293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="814" spans="1:13" ht="58">
+    <row r="814" spans="1:13" ht="57.6">
       <c r="A814" t="s">
         <v>227</v>
       </c>
@@ -49328,7 +49334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="815" spans="1:13" s="11" customFormat="1" ht="29">
+    <row r="815" spans="1:13" s="11" customFormat="1" ht="28.8">
       <c r="A815" s="11">
         <v>1131</v>
       </c>
@@ -49369,7 +49375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="816" spans="1:13" ht="29">
+    <row r="816" spans="1:13" ht="28.8">
       <c r="A816" t="s">
         <v>241</v>
       </c>
@@ -49410,7 +49416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="1:13" ht="43.5">
+    <row r="817" spans="1:13" ht="43.2">
       <c r="A817" t="s">
         <v>248</v>
       </c>
@@ -49451,7 +49457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="818" spans="1:13" ht="43.5">
+    <row r="818" spans="1:13" ht="43.2">
       <c r="A818" t="s">
         <v>255</v>
       </c>
@@ -49492,7 +49498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="819" spans="1:13" ht="58">
+    <row r="819" spans="1:13" ht="57.6">
       <c r="A819" t="s">
         <v>262</v>
       </c>
@@ -49533,7 +49539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="820" spans="1:13" ht="43.5">
+    <row r="820" spans="1:13" ht="43.2">
       <c r="A820" t="s">
         <v>269</v>
       </c>
@@ -49574,7 +49580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="821" spans="1:13" ht="174">
+    <row r="821" spans="1:13" ht="172.8">
       <c r="A821" t="s">
         <v>282</v>
       </c>
@@ -49779,7 +49785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="826" spans="1:13" ht="29">
+    <row r="826" spans="1:13" ht="28.8">
       <c r="A826" t="s">
         <v>298</v>
       </c>
@@ -49820,7 +49826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="827" spans="1:13" ht="29">
+    <row r="827" spans="1:13" ht="28.8">
       <c r="A827" t="s">
         <v>306</v>
       </c>
@@ -49861,7 +49867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="828" spans="1:13" ht="58">
+    <row r="828" spans="1:13" ht="57.6">
       <c r="A828" t="s">
         <v>312</v>
       </c>
@@ -49902,7 +49908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="829" spans="1:13" ht="29">
+    <row r="829" spans="1:13" ht="28.8">
       <c r="A829" t="s">
         <v>314</v>
       </c>
@@ -49943,7 +49949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="830" spans="1:13" ht="58">
+    <row r="830" spans="1:13" ht="57.6">
       <c r="A830" t="s">
         <v>318</v>
       </c>
@@ -49984,7 +49990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="831" spans="1:13" ht="58">
+    <row r="831" spans="1:13" ht="57.6">
       <c r="A831" t="s">
         <v>320</v>
       </c>
@@ -50025,7 +50031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="832" spans="1:13" ht="29">
+    <row r="832" spans="1:13" ht="28.8">
       <c r="A832" t="s">
         <v>321</v>
       </c>
@@ -50066,7 +50072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="833" spans="1:13" ht="58">
+    <row r="833" spans="1:13" ht="57.6">
       <c r="A833" t="s">
         <v>322</v>
       </c>
@@ -50107,7 +50113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="834" spans="1:13" ht="58">
+    <row r="834" spans="1:13" ht="57.6">
       <c r="A834" t="s">
         <v>323</v>
       </c>
@@ -50148,7 +50154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="835" spans="1:13" ht="58">
+    <row r="835" spans="1:13" ht="57.6">
       <c r="A835" t="s">
         <v>324</v>
       </c>
@@ -50189,7 +50195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="836" spans="1:13" ht="43.5">
+    <row r="836" spans="1:13" ht="43.2">
       <c r="A836" t="s">
         <v>332</v>
       </c>
@@ -50230,7 +50236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="837" spans="1:13" ht="58">
+    <row r="837" spans="1:13" ht="57.6">
       <c r="A837" t="s">
         <v>340</v>
       </c>
@@ -50312,7 +50318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="839" spans="1:13" ht="29">
+    <row r="839" spans="1:13" ht="28.8">
       <c r="A839" t="s">
         <v>356</v>
       </c>
@@ -50476,7 +50482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="843" spans="1:13" ht="116">
+    <row r="843" spans="1:13" ht="100.8">
       <c r="A843" t="s">
         <v>373</v>
       </c>
@@ -50558,7 +50564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="845" spans="1:13" ht="29">
+    <row r="845" spans="1:13" ht="28.8">
       <c r="A845" t="s">
         <v>386</v>
       </c>
@@ -50599,7 +50605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="846" spans="1:13" ht="409.5">
+    <row r="846" spans="1:13" ht="409.6">
       <c r="A846" t="s">
         <v>394</v>
       </c>
@@ -50640,7 +50646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="847" spans="1:13" ht="58">
+    <row r="847" spans="1:13" ht="57.6">
       <c r="A847" t="s">
         <v>401</v>
       </c>
@@ -50681,7 +50687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="848" spans="1:13" ht="43.5">
+    <row r="848" spans="1:13" ht="43.2">
       <c r="A848" t="s">
         <v>411</v>
       </c>
@@ -50722,7 +50728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="849" spans="1:13" ht="72.5">
+    <row r="849" spans="1:13" ht="72">
       <c r="A849" t="s">
         <v>417</v>
       </c>
@@ -50763,7 +50769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="850" spans="1:13" ht="43.5">
+    <row r="850" spans="1:13" ht="43.2">
       <c r="A850" t="s">
         <v>425</v>
       </c>
@@ -50804,7 +50810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="851" spans="1:13" ht="58">
+    <row r="851" spans="1:13" ht="57.6">
       <c r="A851" t="s">
         <v>433</v>
       </c>
@@ -50845,7 +50851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="852" spans="1:13" ht="43.5">
+    <row r="852" spans="1:13" ht="43.2">
       <c r="A852" t="s">
         <v>443</v>
       </c>
@@ -50886,7 +50892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="853" spans="1:13" ht="72.5">
+    <row r="853" spans="1:13" ht="72">
       <c r="A853" t="s">
         <v>448</v>
       </c>
@@ -50927,7 +50933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="87">
+    <row r="854" spans="1:13" ht="86.4">
       <c r="A854" t="s">
         <v>456</v>
       </c>
@@ -50968,7 +50974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="855" spans="1:13" ht="72.5">
+    <row r="855" spans="1:13" ht="72">
       <c r="A855" t="s">
         <v>464</v>
       </c>
@@ -51009,7 +51015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="856" spans="1:13" ht="58">
+    <row r="856" spans="1:13" ht="57.6">
       <c r="A856" t="s">
         <v>469</v>
       </c>
@@ -51050,7 +51056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="857" spans="1:13" ht="87">
+    <row r="857" spans="1:13" ht="86.4">
       <c r="A857" t="s">
         <v>477</v>
       </c>
@@ -51091,7 +51097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="858" spans="1:13" ht="58">
+    <row r="858" spans="1:13" ht="57.6">
       <c r="A858" t="s">
         <v>485</v>
       </c>
@@ -51132,7 +51138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="859" spans="1:13" ht="29">
+    <row r="859" spans="1:13" ht="28.8">
       <c r="A859" t="s">
         <v>490</v>
       </c>
@@ -51173,7 +51179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="860" spans="1:13" ht="43.5">
+    <row r="860" spans="1:13" ht="43.2">
       <c r="A860" t="s">
         <v>498</v>
       </c>
@@ -51214,7 +51220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="861" spans="1:13" ht="43.5">
+    <row r="861" spans="1:13" ht="43.2">
       <c r="A861" t="s">
         <v>506</v>
       </c>
@@ -51255,7 +51261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="862" spans="1:13" ht="58">
+    <row r="862" spans="1:13" ht="57.6">
       <c r="A862" t="s">
         <v>511</v>
       </c>
@@ -51296,7 +51302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="863" spans="1:13" ht="58">
+    <row r="863" spans="1:13" ht="57.6">
       <c r="A863" t="s">
         <v>519</v>
       </c>
@@ -51337,7 +51343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="864" spans="1:13" ht="29">
+    <row r="864" spans="1:13" ht="28.8">
       <c r="A864" t="s">
         <v>527</v>
       </c>
@@ -51378,7 +51384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="865" spans="1:13" ht="58">
+    <row r="865" spans="1:13" ht="57.6">
       <c r="A865" t="s">
         <v>532</v>
       </c>
@@ -51419,7 +51425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="866" spans="1:13" ht="72.5">
+    <row r="866" spans="1:13" ht="72">
       <c r="A866" t="s">
         <v>540</v>
       </c>
@@ -51460,7 +51466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="867" spans="1:13" ht="43.5">
+    <row r="867" spans="1:13" ht="43.2">
       <c r="A867" t="s">
         <v>548</v>
       </c>
@@ -51501,7 +51507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="868" spans="1:13" ht="43.5">
+    <row r="868" spans="1:13" ht="43.2">
       <c r="A868" t="s">
         <v>553</v>
       </c>
@@ -51542,7 +51548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="869" spans="1:13" ht="72.5">
+    <row r="869" spans="1:13" ht="72">
       <c r="A869" t="s">
         <v>561</v>
       </c>
@@ -51583,7 +51589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="870" spans="1:13" ht="58">
+    <row r="870" spans="1:13" ht="57.6">
       <c r="A870" t="s">
         <v>569</v>
       </c>
@@ -51624,7 +51630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="871" spans="1:13" ht="43.5">
+    <row r="871" spans="1:13" ht="43.2">
       <c r="A871" t="s">
         <v>576</v>
       </c>
@@ -51665,7 +51671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="872" spans="1:13" ht="58">
+    <row r="872" spans="1:13" ht="57.6">
       <c r="A872" t="s">
         <v>584</v>
       </c>
@@ -51706,7 +51712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="873" spans="1:13" ht="29">
+    <row r="873" spans="1:13" ht="28.8">
       <c r="A873" t="s">
         <v>592</v>
       </c>
@@ -51747,7 +51753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="874" spans="1:13" ht="43.5">
+    <row r="874" spans="1:13" ht="43.2">
       <c r="A874" t="s">
         <v>597</v>
       </c>
@@ -51788,7 +51794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="875" spans="1:13" ht="72.5">
+    <row r="875" spans="1:13" ht="72">
       <c r="A875" t="s">
         <v>605</v>
       </c>
@@ -51829,7 +51835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="876" spans="1:13" ht="58">
+    <row r="876" spans="1:13" ht="57.6">
       <c r="A876" t="s">
         <v>613</v>
       </c>
@@ -51870,7 +51876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="877" spans="1:13" ht="43.5">
+    <row r="877" spans="1:13" ht="43.2">
       <c r="A877" t="s">
         <v>618</v>
       </c>
@@ -51911,7 +51917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="878" spans="1:13" ht="58">
+    <row r="878" spans="1:13" ht="57.6">
       <c r="A878" t="s">
         <v>626</v>
       </c>
@@ -51952,7 +51958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="879" spans="1:13" ht="43.5">
+    <row r="879" spans="1:13" ht="43.2">
       <c r="A879" t="s">
         <v>634</v>
       </c>
@@ -51993,7 +51999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="880" spans="1:13" ht="72.5">
+    <row r="880" spans="1:13" ht="72">
       <c r="A880" t="s">
         <v>639</v>
       </c>
@@ -52034,7 +52040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="881" spans="1:13" ht="72.5">
+    <row r="881" spans="1:13" ht="72">
       <c r="A881" t="s">
         <v>647</v>
       </c>
@@ -52075,7 +52081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="882" spans="1:13" ht="58">
+    <row r="882" spans="1:13" ht="57.6">
       <c r="A882" t="s">
         <v>655</v>
       </c>
@@ -52116,7 +52122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="883" spans="1:13" ht="29">
+    <row r="883" spans="1:13" ht="28.8">
       <c r="A883" t="s">
         <v>660</v>
       </c>
@@ -52157,7 +52163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="884" spans="1:13" ht="43.5">
+    <row r="884" spans="1:13" ht="57.6">
       <c r="A884" t="s">
         <v>668</v>
       </c>
@@ -52198,7 +52204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="885" spans="1:13" ht="29">
+    <row r="885" spans="1:13" ht="28.8">
       <c r="A885" t="s">
         <v>674</v>
       </c>
@@ -52239,7 +52245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="886" spans="1:13" ht="43.5">
+    <row r="886" spans="1:13" ht="43.2">
       <c r="A886" t="s">
         <v>679</v>
       </c>
@@ -52280,7 +52286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="887" spans="1:13" ht="43.5">
+    <row r="887" spans="1:13" ht="57.6">
       <c r="A887" t="s">
         <v>687</v>
       </c>
@@ -52321,7 +52327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="888" spans="1:13" ht="29">
+    <row r="888" spans="1:13" ht="28.8">
       <c r="A888" t="s">
         <v>695</v>
       </c>
@@ -52362,7 +52368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="889" spans="1:13" ht="72.5">
+    <row r="889" spans="1:13" ht="72">
       <c r="A889" t="s">
         <v>700</v>
       </c>
@@ -52403,7 +52409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="890" spans="1:13" ht="72.5">
+    <row r="890" spans="1:13" ht="72">
       <c r="A890" t="s">
         <v>708</v>
       </c>
@@ -52444,7 +52450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="891" spans="1:13" ht="58">
+    <row r="891" spans="1:13" ht="57.6">
       <c r="A891" t="s">
         <v>716</v>
       </c>
@@ -52485,7 +52491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="892" spans="1:13" ht="43.5">
+    <row r="892" spans="1:13" ht="43.2">
       <c r="A892" t="s">
         <v>721</v>
       </c>
@@ -52526,7 +52532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="893" spans="1:13" ht="72.5">
+    <row r="893" spans="1:13" ht="72">
       <c r="A893" t="s">
         <v>729</v>
       </c>
@@ -52567,7 +52573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="894" spans="1:13" ht="43.5">
+    <row r="894" spans="1:13" ht="43.2">
       <c r="A894" t="s">
         <v>737</v>
       </c>
@@ -52608,7 +52614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="895" spans="1:13" ht="58">
+    <row r="895" spans="1:13" ht="57.6">
       <c r="A895" t="s">
         <v>742</v>
       </c>
@@ -52649,7 +52655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="896" spans="1:13" ht="43.5">
+    <row r="896" spans="1:13" ht="43.2">
       <c r="A896" t="s">
         <v>749</v>
       </c>
@@ -52690,7 +52696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="897" spans="1:13" ht="72.5">
+    <row r="897" spans="1:13" ht="72">
       <c r="A897" t="s">
         <v>753</v>
       </c>
@@ -52731,7 +52737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="898" spans="1:13" ht="72.5">
+    <row r="898" spans="1:13" ht="72">
       <c r="A898" t="s">
         <v>760</v>
       </c>
@@ -52772,7 +52778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="899" spans="1:13" ht="72.5">
+    <row r="899" spans="1:13" ht="72">
       <c r="A899" t="s">
         <v>764</v>
       </c>
@@ -52813,7 +52819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="900" spans="1:13" ht="72.5">
+    <row r="900" spans="1:13" ht="72">
       <c r="A900" t="s">
         <v>771</v>
       </c>
@@ -52854,7 +52860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="901" spans="1:13" ht="72.5">
+    <row r="901" spans="1:13" ht="72">
       <c r="A901" t="s">
         <v>775</v>
       </c>
@@ -52895,7 +52901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="902" spans="1:13" ht="72.5">
+    <row r="902" spans="1:13" ht="72">
       <c r="A902" t="s">
         <v>779</v>
       </c>
@@ -52936,7 +52942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="903" spans="1:13" ht="72.5">
+    <row r="903" spans="1:13" ht="72">
       <c r="A903" t="s">
         <v>783</v>
       </c>
@@ -52977,7 +52983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="904" spans="1:13" ht="72.5">
+    <row r="904" spans="1:13" ht="72">
       <c r="A904" t="s">
         <v>790</v>
       </c>
@@ -53018,7 +53024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="905" spans="1:13" ht="72.5">
+    <row r="905" spans="1:13" ht="72">
       <c r="A905" t="s">
         <v>794</v>
       </c>
@@ -53059,7 +53065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="906" spans="1:13" ht="72.5">
+    <row r="906" spans="1:13" ht="72">
       <c r="A906" t="s">
         <v>801</v>
       </c>
@@ -53100,7 +53106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="907" spans="1:13" ht="72.5">
+    <row r="907" spans="1:13" ht="72">
       <c r="A907" t="s">
         <v>805</v>
       </c>
@@ -53141,7 +53147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="908" spans="1:13" ht="72.5">
+    <row r="908" spans="1:13" ht="72">
       <c r="A908" t="s">
         <v>812</v>
       </c>
@@ -53182,7 +53188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="909" spans="1:13" ht="43.5">
+    <row r="909" spans="1:13" ht="43.2">
       <c r="A909" t="s">
         <v>816</v>
       </c>
@@ -53223,7 +53229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="910" spans="1:13" ht="87">
+    <row r="910" spans="1:13" ht="86.4">
       <c r="A910" t="s">
         <v>822</v>
       </c>
@@ -53264,7 +53270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="911" spans="1:13" ht="43.5">
+    <row r="911" spans="1:13" ht="43.2">
       <c r="A911" t="s">
         <v>829</v>
       </c>
@@ -53305,7 +53311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="912" spans="1:13" ht="58">
+    <row r="912" spans="1:13" ht="57.6">
       <c r="A912" t="s">
         <v>836</v>
       </c>
@@ -53346,7 +53352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="913" spans="1:13" ht="58">
+    <row r="913" spans="1:13" ht="57.6">
       <c r="A913" t="s">
         <v>843</v>
       </c>
@@ -53387,7 +53393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="914" spans="1:13" ht="87">
+    <row r="914" spans="1:13" ht="86.4">
       <c r="A914" t="s">
         <v>847</v>
       </c>
@@ -53428,7 +53434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="915" spans="1:13" ht="43.5">
+    <row r="915" spans="1:13" ht="43.2">
       <c r="A915" t="s">
         <v>854</v>
       </c>
@@ -53469,7 +53475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="916" spans="1:13" ht="43.5">
+    <row r="916" spans="1:13" ht="43.2">
       <c r="A916" t="s">
         <v>861</v>
       </c>
@@ -53510,7 +53516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="917" spans="1:13" ht="43.5">
+    <row r="917" spans="1:13" ht="43.2">
       <c r="A917" t="s">
         <v>868</v>
       </c>
@@ -53551,7 +53557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="918" spans="1:13" ht="72.5">
+    <row r="918" spans="1:13" ht="72">
       <c r="A918" t="s">
         <v>872</v>
       </c>
@@ -53592,7 +53598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="919" spans="1:13" ht="58">
+    <row r="919" spans="1:13" ht="57.6">
       <c r="A919" t="s">
         <v>879</v>
       </c>
@@ -53633,7 +53639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="920" spans="1:13" ht="58">
+    <row r="920" spans="1:13" ht="57.6">
       <c r="A920" t="s">
         <v>886</v>
       </c>
@@ -53674,7 +53680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="921" spans="1:13" ht="58">
+    <row r="921" spans="1:13" ht="57.6">
       <c r="A921" t="s">
         <v>890</v>
       </c>
@@ -53715,7 +53721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="922" spans="1:13" ht="58">
+    <row r="922" spans="1:13" ht="57.6">
       <c r="A922" t="s">
         <v>897</v>
       </c>
@@ -53756,7 +53762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="923" spans="1:13" ht="58">
+    <row r="923" spans="1:13" ht="57.6">
       <c r="A923" t="s">
         <v>904</v>
       </c>
@@ -53797,7 +53803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="924" spans="1:13" ht="58">
+    <row r="924" spans="1:13" ht="57.6">
       <c r="A924" t="s">
         <v>910</v>
       </c>
@@ -53838,7 +53844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="925" spans="1:13" ht="43.5">
+    <row r="925" spans="1:13" ht="43.2">
       <c r="A925" t="s">
         <v>917</v>
       </c>
@@ -53879,7 +53885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="926" spans="1:13" ht="43.5">
+    <row r="926" spans="1:13" ht="43.2">
       <c r="A926" t="s">
         <v>924</v>
       </c>
@@ -53920,7 +53926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="927" spans="1:13" ht="35.9" customHeight="1">
+    <row r="927" spans="1:13" ht="35.85" customHeight="1">
       <c r="A927" t="s">
         <v>928</v>
       </c>
@@ -53961,7 +53967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="928" spans="1:13" ht="409.5">
+    <row r="928" spans="1:13" ht="409.6">
       <c r="A928" t="s">
         <v>935</v>
       </c>
@@ -54002,7 +54008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="929" spans="1:13" ht="409.5">
+    <row r="929" spans="1:13" ht="409.6">
       <c r="A929" t="s">
         <v>942</v>
       </c>
@@ -54043,7 +54049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="930" spans="1:13" ht="409.5">
+    <row r="930" spans="1:13" ht="409.6">
       <c r="A930" s="6" t="s">
         <v>951</v>
       </c>
@@ -54125,7 +54131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="932" spans="1:13" ht="29">
+    <row r="932" spans="1:13" ht="28.8">
       <c r="A932" t="s">
         <v>964</v>
       </c>
@@ -54166,7 +54172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="933" spans="1:13" ht="29">
+    <row r="933" spans="1:13" ht="28.8">
       <c r="A933" t="s">
         <v>968</v>
       </c>
@@ -54207,7 +54213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="934" spans="1:13" ht="29">
+    <row r="934" spans="1:13" ht="28.8">
       <c r="A934" t="s">
         <v>972</v>
       </c>
@@ -54248,7 +54254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="935" spans="1:13" ht="101.5">
+    <row r="935" spans="1:13" ht="100.8">
       <c r="A935" t="s">
         <v>976</v>
       </c>
@@ -54289,7 +54295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="936" spans="1:13" ht="116">
+    <row r="936" spans="1:13" ht="115.2">
       <c r="A936" t="s">
         <v>980</v>
       </c>
@@ -54330,7 +54336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="937" spans="1:13" ht="217.5">
+    <row r="937" spans="1:13" ht="216">
       <c r="A937" t="s">
         <v>1001</v>
       </c>
@@ -54371,7 +54377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="938" spans="1:13" ht="188.5">
+    <row r="938" spans="1:13" ht="187.2">
       <c r="A938" t="s">
         <v>1010</v>
       </c>
@@ -54901,7 +54907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="951" spans="1:13" ht="217.5">
+    <row r="951" spans="1:13" ht="216">
       <c r="A951">
         <v>1244</v>
       </c>
@@ -54942,7 +54948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="952" spans="1:13" ht="159.5">
+    <row r="952" spans="1:13" ht="158.4">
       <c r="A952">
         <v>1244</v>
       </c>
@@ -54983,7 +54989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="953" spans="1:13" ht="217.5">
+    <row r="953" spans="1:13" ht="216">
       <c r="A953">
         <v>1244</v>
       </c>
@@ -55024,7 +55030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="954" spans="1:13" ht="217.5">
+    <row r="954" spans="1:13" ht="216">
       <c r="A954">
         <v>1244</v>
       </c>
@@ -55065,7 +55071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="955" spans="1:13" ht="290">
+    <row r="955" spans="1:13" ht="288">
       <c r="A955">
         <v>1244</v>
       </c>
@@ -55106,7 +55112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="956" spans="1:13" ht="348">
+    <row r="956" spans="1:13" ht="345.6">
       <c r="A956">
         <v>1244</v>
       </c>
@@ -55147,7 +55153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="957" spans="1:13" ht="188.5">
+    <row r="957" spans="1:13" ht="187.2">
       <c r="A957">
         <v>1245</v>
       </c>
@@ -55188,7 +55194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="958" spans="1:13" ht="130.5">
+    <row r="958" spans="1:13" ht="129.6">
       <c r="A958">
         <v>1245</v>
       </c>
@@ -55229,7 +55235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="959" spans="1:13" ht="188.5">
+    <row r="959" spans="1:13" ht="187.2">
       <c r="A959">
         <v>1245</v>
       </c>
@@ -55270,7 +55276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="960" spans="1:13" ht="188.5">
+    <row r="960" spans="1:13" ht="187.2">
       <c r="A960">
         <v>1245</v>
       </c>
@@ -55311,7 +55317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="961" spans="1:13" ht="261">
+    <row r="961" spans="1:13" ht="259.2">
       <c r="A961">
         <v>1245</v>
       </c>
@@ -55352,7 +55358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="962" spans="1:13" ht="319">
+    <row r="962" spans="1:13" ht="316.8">
       <c r="A962">
         <v>1245</v>
       </c>
@@ -55393,7 +55399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="963" spans="1:13" ht="101.5">
+    <row r="963" spans="1:13" ht="100.8">
       <c r="A963">
         <v>1246</v>
       </c>
@@ -55434,7 +55440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="964" spans="1:13" ht="87">
+    <row r="964" spans="1:13" ht="86.4">
       <c r="A964">
         <v>1246</v>
       </c>
@@ -55475,7 +55481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="965" spans="1:13" ht="116">
+    <row r="965" spans="1:13" ht="115.2">
       <c r="A965">
         <v>1246</v>
       </c>
@@ -55516,7 +55522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="966" spans="1:13" ht="101.5">
+    <row r="966" spans="1:13" ht="100.8">
       <c r="A966">
         <v>1246</v>
       </c>
@@ -55557,7 +55563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="967" spans="1:13" ht="145">
+    <row r="967" spans="1:13" ht="144">
       <c r="A967">
         <v>1246</v>
       </c>
@@ -55598,7 +55604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="968" spans="1:13" ht="174">
+    <row r="968" spans="1:13" ht="172.8">
       <c r="A968">
         <v>1246</v>
       </c>
@@ -55638,6 +55644,135 @@
       <c r="M968" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="969" spans="1:13">
+      <c r="A969">
+        <v>81269</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D969" t="s">
+        <v>15</v>
+      </c>
+      <c r="E969" t="s">
+        <v>16</v>
+      </c>
+      <c r="F969" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G969">
+        <v>10002</v>
+      </c>
+      <c r="H969" t="s">
+        <v>118</v>
+      </c>
+      <c r="I969" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J969" t="s">
+        <v>20</v>
+      </c>
+      <c r="K969" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L969" t="s">
+        <v>22</v>
+      </c>
+      <c r="M969" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13">
+      <c r="A970">
+        <v>81269</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D970" t="s">
+        <v>15</v>
+      </c>
+      <c r="E970" t="s">
+        <v>16</v>
+      </c>
+      <c r="F970" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G970">
+        <v>10002</v>
+      </c>
+      <c r="H970" t="s">
+        <v>118</v>
+      </c>
+      <c r="I970" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J970" t="s">
+        <v>35</v>
+      </c>
+      <c r="K970" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L970" t="s">
+        <v>22</v>
+      </c>
+      <c r="M970" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13">
+      <c r="A971">
+        <v>81269</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C971" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D971" t="s">
+        <v>15</v>
+      </c>
+      <c r="E971" t="s">
+        <v>16</v>
+      </c>
+      <c r="F971" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G971">
+        <v>10002</v>
+      </c>
+      <c r="H971" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I971" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J971" t="s">
+        <v>43</v>
+      </c>
+      <c r="K971" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L971" t="s">
+        <v>22</v>
+      </c>
+      <c r="M971" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13">
+      <c r="F973" s="5"/>
+    </row>
+    <row r="974" spans="1:13">
+      <c r="F974" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
